--- a/Data/TransactionData.xlsx
+++ b/Data/TransactionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B078AF14-778E-4D2D-8C95-CE12D7F91EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951B6E1-1D95-46E5-9979-E19556196A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ClientName</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>https://cloud.uipath.com/dawnfoods/Prod/orchestrator_/</t>
+  </si>
+  <si>
+    <t>Beneration</t>
+  </si>
+  <si>
+    <t>https://cloud.uipath.com/beneration/Production/orchestrator_/</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
 </sst>
 </file>
@@ -443,13 +452,13 @@
   <dimension ref="A1:BQ234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -529,7 +538,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -602,10 +611,18 @@
       <c r="BQ2" s="5"/>
     </row>
     <row r="3" spans="1:69" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>

--- a/Data/TransactionData.xlsx
+++ b/Data/TransactionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5672F-1905-47D7-A14A-90F672D1D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA133C6-CD3B-4C4F-ACC4-31AD3863A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="TransactionData" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>ClientName</x:t>
   </x:si>
@@ -72,6 +72,21 @@
   <x:si>
     <x:t>Production</x:t>
   </x:si>
+  <x:si>
+    <x:t>CNB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cloud.uipath.com/cnbfl/cnbfl/orchestrator_/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cnbfl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Business exception: Something happend during authentication... at Source: Orchestrator_CloudAuthentication - Invoke Workflow File (Process\Orchestrator\Orchestrator_CloudAuthentication.xaml): Throw - Not Cloud</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -80,7 +95,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="9" x14ac:knownFonts="1">
+  <x:fonts count="8" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -101,13 +116,6 @@
     </x:font>
     <x:font>
       <x:sz val="11"/>
-      <x:name val="Arial"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="12"/>
-      <x:color theme="1"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
     </x:font>
@@ -159,10 +167,10 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -174,17 +182,11 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
@@ -203,13 +205,12 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,37 +497,39 @@
   <x:dimension ref="A1:BQ234"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D3" sqref="D3"/>
+      <x:selection activeCell="D19" sqref="D19"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="27.082187" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="60.419531" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="10.554688" style="0" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="54.777344" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.441406" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="11.554688" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="6" width="29.152031" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="0" style="0" hidden="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:69" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="12" t="s">
+      <x:c r="A1" s="10" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="12" t="s">
+      <x:c r="B1" s="10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="12" t="s">
+      <x:c r="C1" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="12" t="s">
+      <x:c r="D1" s="10" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="12" t="s">
+      <x:c r="E1" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="12" t="s">
+      <x:c r="F1" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="12" t="s">
+      <x:c r="G1" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s"/>
@@ -743,10 +746,24 @@
       <x:c r="BQ3" s="5" t="s"/>
     </x:row>
     <x:row r="4" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="5" t="s"/>
-      <x:c r="B4" s="7" t="s"/>
-      <x:c r="C4" s="6" t="s"/>
-      <x:c r="D4" s="5" t="s"/>
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="H4" s="2" t="s"/>
       <x:c r="I4" s="2" t="s"/>
       <x:c r="J4" s="2" t="s"/>
@@ -811,10 +828,6 @@
       <x:c r="BQ4" s="5" t="s"/>
     </x:row>
     <x:row r="5" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="5" t="s"/>
-      <x:c r="B5" s="5" t="s"/>
-      <x:c r="C5" s="6" t="s"/>
-      <x:c r="D5" s="5" t="s"/>
       <x:c r="H5" s="2" t="s"/>
       <x:c r="I5" s="2" t="s"/>
       <x:c r="J5" s="2" t="s"/>
@@ -879,10 +892,6 @@
       <x:c r="BQ5" s="5" t="s"/>
     </x:row>
     <x:row r="6" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="5" t="s"/>
-      <x:c r="C6" s="6" t="s"/>
-      <x:c r="D6" s="5" t="s"/>
       <x:c r="H6" s="2" t="s"/>
       <x:c r="I6" s="2" t="s"/>
       <x:c r="J6" s="2" t="s"/>
@@ -947,10 +956,6 @@
       <x:c r="BQ6" s="5" t="s"/>
     </x:row>
     <x:row r="7" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="5" t="s"/>
-      <x:c r="B7" s="5" t="s"/>
-      <x:c r="C7" s="6" t="s"/>
-      <x:c r="D7" s="5" t="s"/>
       <x:c r="H7" s="2" t="s"/>
       <x:c r="I7" s="2" t="s"/>
       <x:c r="J7" s="2" t="s"/>
@@ -1015,10 +1020,6 @@
       <x:c r="BQ7" s="5" t="s"/>
     </x:row>
     <x:row r="8" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="5" t="s"/>
-      <x:c r="B8" s="5" t="s"/>
-      <x:c r="C8" s="6" t="s"/>
-      <x:c r="D8" s="8" t="s"/>
       <x:c r="H8" s="2" t="s"/>
       <x:c r="I8" s="2" t="s"/>
       <x:c r="J8" s="2" t="s"/>
@@ -1083,10 +1084,6 @@
       <x:c r="BQ8" s="5" t="s"/>
     </x:row>
     <x:row r="9" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="5" t="s"/>
-      <x:c r="B9" s="5" t="s"/>
-      <x:c r="C9" s="6" t="s"/>
-      <x:c r="D9" s="5" t="s"/>
       <x:c r="H9" s="2" t="s"/>
       <x:c r="I9" s="2" t="s"/>
       <x:c r="J9" s="2" t="s"/>
@@ -1151,10 +1148,6 @@
       <x:c r="BQ9" s="5" t="s"/>
     </x:row>
     <x:row r="10" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="5" t="s"/>
-      <x:c r="B10" s="5" t="s"/>
-      <x:c r="C10" s="6" t="s"/>
-      <x:c r="D10" s="5" t="s"/>
       <x:c r="H10" s="2" t="s"/>
       <x:c r="I10" s="2" t="s"/>
       <x:c r="J10" s="2" t="s"/>
@@ -1219,10 +1212,6 @@
       <x:c r="BQ10" s="5" t="s"/>
     </x:row>
     <x:row r="11" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="5" t="s"/>
-      <x:c r="B11" s="5" t="s"/>
-      <x:c r="C11" s="6" t="s"/>
-      <x:c r="D11" s="5" t="s"/>
       <x:c r="H11" s="2" t="s"/>
       <x:c r="I11" s="2" t="s"/>
       <x:c r="J11" s="2" t="s"/>
@@ -1287,10 +1276,6 @@
       <x:c r="BQ11" s="5" t="s"/>
     </x:row>
     <x:row r="12" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="5" t="s"/>
-      <x:c r="B12" s="5" t="s"/>
-      <x:c r="C12" s="6" t="s"/>
-      <x:c r="D12" s="5" t="s"/>
       <x:c r="H12" s="2" t="s"/>
       <x:c r="I12" s="2" t="s"/>
       <x:c r="J12" s="2" t="s"/>
@@ -1355,10 +1340,6 @@
       <x:c r="BQ12" s="5" t="s"/>
     </x:row>
     <x:row r="13" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="5" t="s"/>
-      <x:c r="B13" s="5" t="s"/>
-      <x:c r="C13" s="6" t="s"/>
-      <x:c r="D13" s="5" t="s"/>
       <x:c r="H13" s="2" t="s"/>
       <x:c r="I13" s="2" t="s"/>
       <x:c r="J13" s="2" t="s"/>
@@ -1423,10 +1404,6 @@
       <x:c r="BQ13" s="5" t="s"/>
     </x:row>
     <x:row r="14" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="5" t="s"/>
-      <x:c r="B14" s="5" t="s"/>
-      <x:c r="C14" s="6" t="s"/>
-      <x:c r="D14" s="5" t="s"/>
       <x:c r="H14" s="2" t="s"/>
       <x:c r="I14" s="2" t="s"/>
       <x:c r="J14" s="2" t="s"/>
@@ -1491,10 +1468,6 @@
       <x:c r="BQ14" s="5" t="s"/>
     </x:row>
     <x:row r="15" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="5" t="s"/>
-      <x:c r="B15" s="5" t="s"/>
-      <x:c r="C15" s="6" t="s"/>
-      <x:c r="D15" s="5" t="s"/>
       <x:c r="H15" s="2" t="s"/>
       <x:c r="I15" s="2" t="s"/>
       <x:c r="J15" s="2" t="s"/>
@@ -1559,10 +1532,6 @@
       <x:c r="BQ15" s="5" t="s"/>
     </x:row>
     <x:row r="16" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A16" s="5" t="s"/>
-      <x:c r="B16" s="5" t="s"/>
-      <x:c r="C16" s="6" t="s"/>
-      <x:c r="D16" s="5" t="s"/>
       <x:c r="H16" s="2" t="s"/>
       <x:c r="I16" s="2" t="s"/>
       <x:c r="J16" s="2" t="s"/>
@@ -1627,10 +1596,6 @@
       <x:c r="BQ16" s="5" t="s"/>
     </x:row>
     <x:row r="17" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A17" s="5" t="s"/>
-      <x:c r="B17" s="5" t="s"/>
-      <x:c r="C17" s="6" t="s"/>
-      <x:c r="D17" s="5" t="s"/>
       <x:c r="H17" s="2" t="s"/>
       <x:c r="I17" s="2" t="s"/>
       <x:c r="J17" s="2" t="s"/>
@@ -1695,10 +1660,6 @@
       <x:c r="BQ17" s="5" t="s"/>
     </x:row>
     <x:row r="18" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A18" s="5" t="s"/>
-      <x:c r="B18" s="5" t="s"/>
-      <x:c r="C18" s="6" t="s"/>
-      <x:c r="D18" s="8" t="s"/>
       <x:c r="H18" s="2" t="s"/>
       <x:c r="I18" s="2" t="s"/>
       <x:c r="J18" s="2" t="s"/>
@@ -1763,10 +1724,6 @@
       <x:c r="BQ18" s="5" t="s"/>
     </x:row>
     <x:row r="19" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A19" s="5" t="s"/>
-      <x:c r="B19" s="5" t="s"/>
-      <x:c r="C19" s="6" t="s"/>
-      <x:c r="D19" s="5" t="s"/>
       <x:c r="H19" s="2" t="s"/>
       <x:c r="I19" s="2" t="s"/>
       <x:c r="J19" s="2" t="s"/>
@@ -1831,10 +1788,6 @@
       <x:c r="BQ19" s="5" t="s"/>
     </x:row>
     <x:row r="20" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A20" s="5" t="s"/>
-      <x:c r="B20" s="7" t="s"/>
-      <x:c r="C20" s="6" t="s"/>
-      <x:c r="D20" s="5" t="s"/>
       <x:c r="H20" s="2" t="s"/>
       <x:c r="I20" s="2" t="s"/>
       <x:c r="J20" s="2" t="s"/>
@@ -1899,10 +1852,6 @@
       <x:c r="BQ20" s="5" t="s"/>
     </x:row>
     <x:row r="21" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A21" s="5" t="s"/>
-      <x:c r="B21" s="5" t="s"/>
-      <x:c r="C21" s="6" t="s"/>
-      <x:c r="D21" s="5" t="s"/>
       <x:c r="H21" s="2" t="s"/>
       <x:c r="I21" s="2" t="s"/>
       <x:c r="J21" s="2" t="s"/>
@@ -1967,10 +1916,6 @@
       <x:c r="BQ21" s="5" t="s"/>
     </x:row>
     <x:row r="22" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A22" s="7" t="s"/>
-      <x:c r="B22" s="7" t="s"/>
-      <x:c r="C22" s="6" t="s"/>
-      <x:c r="D22" s="6" t="s"/>
       <x:c r="H22" s="2" t="s"/>
       <x:c r="I22" s="2" t="s"/>
       <x:c r="J22" s="2" t="s"/>
@@ -2035,10 +1980,6 @@
       <x:c r="BQ22" s="5" t="s"/>
     </x:row>
     <x:row r="23" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A23" s="5" t="s"/>
-      <x:c r="B23" s="5" t="s"/>
-      <x:c r="C23" s="6" t="s"/>
-      <x:c r="D23" s="5" t="s"/>
       <x:c r="H23" s="2" t="s"/>
       <x:c r="I23" s="2" t="s"/>
       <x:c r="J23" s="2" t="s"/>
@@ -2103,10 +2044,6 @@
       <x:c r="BQ23" s="5" t="s"/>
     </x:row>
     <x:row r="24" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A24" s="5" t="s"/>
-      <x:c r="B24" s="5" t="s"/>
-      <x:c r="C24" s="6" t="s"/>
-      <x:c r="D24" s="5" t="s"/>
       <x:c r="H24" s="2" t="s"/>
       <x:c r="I24" s="2" t="s"/>
       <x:c r="J24" s="2" t="s"/>
@@ -2171,10 +2108,6 @@
       <x:c r="BQ24" s="5" t="s"/>
     </x:row>
     <x:row r="25" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A25" s="5" t="s"/>
-      <x:c r="B25" s="7" t="s"/>
-      <x:c r="C25" s="6" t="s"/>
-      <x:c r="D25" s="5" t="s"/>
       <x:c r="H25" s="2" t="s"/>
       <x:c r="I25" s="2" t="s"/>
       <x:c r="J25" s="2" t="s"/>
@@ -2239,10 +2172,6 @@
       <x:c r="BQ25" s="5" t="s"/>
     </x:row>
     <x:row r="26" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A26" s="5" t="s"/>
-      <x:c r="B26" s="5" t="s"/>
-      <x:c r="C26" s="6" t="s"/>
-      <x:c r="D26" s="5" t="s"/>
       <x:c r="H26" s="2" t="s"/>
       <x:c r="I26" s="2" t="s"/>
       <x:c r="J26" s="2" t="s"/>
@@ -2307,10 +2236,6 @@
       <x:c r="BQ26" s="5" t="s"/>
     </x:row>
     <x:row r="27" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A27" s="5" t="s"/>
-      <x:c r="B27" s="7" t="s"/>
-      <x:c r="C27" s="6" t="s"/>
-      <x:c r="D27" s="9" t="s"/>
       <x:c r="H27" s="2" t="s"/>
       <x:c r="I27" s="2" t="s"/>
       <x:c r="J27" s="2" t="s"/>
@@ -2375,10 +2300,6 @@
       <x:c r="BQ27" s="5" t="s"/>
     </x:row>
     <x:row r="28" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A28" s="5" t="s"/>
-      <x:c r="B28" s="5" t="s"/>
-      <x:c r="C28" s="6" t="s"/>
-      <x:c r="D28" s="5" t="s"/>
       <x:c r="H28" s="2" t="s"/>
       <x:c r="I28" s="2" t="s"/>
       <x:c r="J28" s="2" t="s"/>
@@ -2443,10 +2364,6 @@
       <x:c r="BQ28" s="5" t="s"/>
     </x:row>
     <x:row r="29" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A29" s="5" t="s"/>
-      <x:c r="B29" s="5" t="s"/>
-      <x:c r="C29" s="6" t="s"/>
-      <x:c r="D29" s="5" t="s"/>
       <x:c r="H29" s="2" t="s"/>
       <x:c r="I29" s="2" t="s"/>
       <x:c r="J29" s="2" t="s"/>
@@ -2511,10 +2428,6 @@
       <x:c r="BQ29" s="5" t="s"/>
     </x:row>
     <x:row r="30" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A30" s="5" t="s"/>
-      <x:c r="B30" s="5" t="s"/>
-      <x:c r="C30" s="6" t="s"/>
-      <x:c r="D30" s="6" t="s"/>
       <x:c r="H30" s="2" t="s"/>
       <x:c r="I30" s="2" t="s"/>
       <x:c r="J30" s="2" t="s"/>
@@ -2579,10 +2492,6 @@
       <x:c r="BQ30" s="5" t="s"/>
     </x:row>
     <x:row r="31" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A31" s="5" t="s"/>
-      <x:c r="B31" s="5" t="s"/>
-      <x:c r="C31" s="6" t="s"/>
-      <x:c r="D31" s="6" t="s"/>
       <x:c r="H31" s="2" t="s"/>
       <x:c r="I31" s="2" t="s"/>
       <x:c r="J31" s="2" t="s"/>
@@ -2647,10 +2556,6 @@
       <x:c r="BQ31" s="5" t="s"/>
     </x:row>
     <x:row r="32" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A32" s="5" t="s"/>
-      <x:c r="B32" s="5" t="s"/>
-      <x:c r="C32" s="6" t="s"/>
-      <x:c r="D32" s="6" t="s"/>
       <x:c r="H32" s="2" t="s"/>
       <x:c r="I32" s="2" t="s"/>
       <x:c r="J32" s="2" t="s"/>
@@ -2715,10 +2620,6 @@
       <x:c r="BQ32" s="5" t="s"/>
     </x:row>
     <x:row r="33" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A33" s="5" t="s"/>
-      <x:c r="B33" s="5" t="s"/>
-      <x:c r="C33" s="6" t="s"/>
-      <x:c r="D33" s="6" t="s"/>
       <x:c r="H33" s="2" t="s"/>
       <x:c r="I33" s="2" t="s"/>
       <x:c r="J33" s="2" t="s"/>
@@ -2783,10 +2684,6 @@
       <x:c r="BQ33" s="5" t="s"/>
     </x:row>
     <x:row r="34" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A34" s="5" t="s"/>
-      <x:c r="B34" s="5" t="s"/>
-      <x:c r="C34" s="6" t="s"/>
-      <x:c r="D34" s="10" t="s"/>
       <x:c r="H34" s="2" t="s"/>
       <x:c r="I34" s="2" t="s"/>
       <x:c r="J34" s="2" t="s"/>
@@ -2851,10 +2748,6 @@
       <x:c r="BQ34" s="5" t="s"/>
     </x:row>
     <x:row r="35" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A35" s="5" t="s"/>
-      <x:c r="B35" s="5" t="s"/>
-      <x:c r="C35" s="6" t="s"/>
-      <x:c r="D35" s="6" t="s"/>
       <x:c r="H35" s="2" t="s"/>
       <x:c r="I35" s="2" t="s"/>
       <x:c r="J35" s="2" t="s"/>
@@ -2919,10 +2812,6 @@
       <x:c r="BQ35" s="5" t="s"/>
     </x:row>
     <x:row r="36" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A36" s="5" t="s"/>
-      <x:c r="B36" s="5" t="s"/>
-      <x:c r="C36" s="6" t="s"/>
-      <x:c r="D36" s="6" t="s"/>
       <x:c r="H36" s="2" t="s"/>
       <x:c r="I36" s="2" t="s"/>
       <x:c r="J36" s="2" t="s"/>
@@ -2987,10 +2876,6 @@
       <x:c r="BQ36" s="5" t="s"/>
     </x:row>
     <x:row r="37" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A37" s="5" t="s"/>
-      <x:c r="B37" s="5" t="s"/>
-      <x:c r="C37" s="6" t="s"/>
-      <x:c r="D37" s="6" t="s"/>
       <x:c r="H37" s="2" t="s"/>
       <x:c r="I37" s="2" t="s"/>
       <x:c r="J37" s="2" t="s"/>
@@ -3055,13 +2940,6 @@
       <x:c r="BQ37" s="5" t="s"/>
     </x:row>
     <x:row r="38" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A38" s="5" t="s"/>
-      <x:c r="B38" s="5" t="s"/>
-      <x:c r="C38" s="6" t="s"/>
-      <x:c r="D38" s="6" t="s"/>
-      <x:c r="E38" s="2" t="s"/>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
       <x:c r="H38" s="2" t="s"/>
       <x:c r="I38" s="2" t="s"/>
       <x:c r="J38" s="2" t="s"/>
@@ -3126,13 +3004,6 @@
       <x:c r="BQ38" s="5" t="s"/>
     </x:row>
     <x:row r="39" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A39" s="5" t="s"/>
-      <x:c r="B39" s="7" t="s"/>
-      <x:c r="C39" s="6" t="s"/>
-      <x:c r="D39" s="6" t="s"/>
-      <x:c r="E39" s="2" t="s"/>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
       <x:c r="H39" s="2" t="s"/>
       <x:c r="I39" s="2" t="s"/>
       <x:c r="J39" s="2" t="s"/>
@@ -3271,7 +3142,7 @@
       <x:c r="A41" s="5" t="s"/>
       <x:c r="B41" s="5" t="s"/>
       <x:c r="C41" s="6" t="s"/>
-      <x:c r="D41" s="11" t="s"/>
+      <x:c r="D41" s="9" t="s"/>
       <x:c r="E41" s="2" t="s"/>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -3413,7 +3284,7 @@
       <x:c r="A43" s="5" t="s"/>
       <x:c r="B43" s="5" t="s"/>
       <x:c r="C43" s="6" t="s"/>
-      <x:c r="D43" s="10" t="s"/>
+      <x:c r="D43" s="8" t="s"/>
       <x:c r="E43" s="2" t="s"/>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -4332,7 +4203,7 @@
       <x:c r="A56" s="5" t="s"/>
       <x:c r="B56" s="7" t="s"/>
       <x:c r="C56" s="6" t="s"/>
-      <x:c r="D56" s="11" t="s"/>
+      <x:c r="D56" s="9" t="s"/>
       <x:c r="E56" s="2" t="s"/>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -5254,7 +5125,7 @@
     <x:row r="69" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A69" s="5" t="s"/>
       <x:c r="B69" s="5" t="s"/>
-      <x:c r="C69" s="11" t="s"/>
+      <x:c r="C69" s="9" t="s"/>
       <x:c r="E69" s="2" t="s"/>
       <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
@@ -5751,7 +5622,7 @@
       <x:c r="A76" s="5" t="s"/>
       <x:c r="B76" s="5" t="s"/>
       <x:c r="C76" s="6" t="s"/>
-      <x:c r="D76" s="10" t="s"/>
+      <x:c r="D76" s="8" t="s"/>
       <x:c r="E76" s="2" t="s"/>
       <x:c r="F76" s="2" t="s"/>
       <x:c r="G76" s="2" t="s"/>
@@ -5964,7 +5835,7 @@
       <x:c r="A79" s="5" t="s"/>
       <x:c r="B79" s="5" t="s"/>
       <x:c r="C79" s="6" t="s"/>
-      <x:c r="D79" s="10" t="s"/>
+      <x:c r="D79" s="8" t="s"/>
       <x:c r="E79" s="2" t="s"/>
       <x:c r="F79" s="2" t="s"/>
       <x:c r="G79" s="2" t="s"/>
@@ -6106,7 +5977,7 @@
       <x:c r="A81" s="5" t="s"/>
       <x:c r="B81" s="7" t="s"/>
       <x:c r="C81" s="6" t="s"/>
-      <x:c r="D81" s="10" t="s"/>
+      <x:c r="D81" s="8" t="s"/>
       <x:c r="E81" s="2" t="s"/>
       <x:c r="F81" s="2" t="s"/>
       <x:c r="G81" s="2" t="s"/>

--- a/Data/TransactionData.xlsx
+++ b/Data/TransactionData.xlsx
@@ -500,7 +500,7 @@
       <x:selection activeCell="D19" sqref="D19"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="60.419531" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="67.525781" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="10.554688" style="0" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="54.777344" style="0" bestFit="1" customWidth="1"/>

--- a/Data/TransactionData.xlsx
+++ b/Data/TransactionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA133C6-CD3B-4C4F-ACC4-31AD3863A1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F9E987-A489-42AF-A929-A11950A97D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -76,16 +76,16 @@
     <x:t>CNB</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cloud.uipath.com/cnbfl/cnbfl/orchestrator_/</x:t>
+    <x:t>https://cloud.uipath.com/cnbfl/cnbfl_dev/orchestrator_/</x:t>
   </x:si>
   <x:si>
-    <x:t>cnbfl</x:t>
+    <x:t>cnbfl_dev</x:t>
   </x:si>
   <x:si>
     <x:t>Failed</x:t>
   </x:si>
   <x:si>
-    <x:t>Business exception: Something happend during authentication... at Source: Orchestrator_CloudAuthentication - Invoke Workflow File (Process\Orchestrator\Orchestrator_CloudAuthentication.xaml): Throw - Not Cloud</x:t>
+    <x:t>Business exception: Something happend during authentication... at Source: Orchestrator_GetFolders - Invoke Workflow File (Process\Orchestrator\Orchestrator_GetFolders.xaml): Throw - Not Cloud</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -497,16 +497,16 @@
   <x:dimension ref="A1:BQ234"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D19" sqref="D19"/>
+      <x:selection activeCell="F4" sqref="F4"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="67.525781" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="95.991406" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="10.554688" style="0" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="54.777344" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.441406" style="0" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="11.554688" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="6" width="29.152031" style="0" customWidth="1"/>
+    <x:col min="5" max="6" width="29.109375" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="0" style="0" hidden="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/Data/TransactionData.xlsx
+++ b/Data/TransactionData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisRamos\OneDrive - Roboyo Global\Documents\UiPath\Personal\BotMonitor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F9E987-A489-42AF-A929-A11950A97D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20CF062-B9B6-419A-B3CA-464A5EF81BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>ClientName</x:t>
   </x:si>
@@ -38,6 +38,12 @@
   </x:si>
   <x:si>
     <x:t>TenantName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AuthType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Skip</x:t>
   </x:si>
   <x:si>
     <x:t>Status</x:t>
@@ -61,6 +67,9 @@
     <x:t>Prod</x:t>
   </x:si>
   <x:si>
+    <x:t>Standard</x:t>
+  </x:si>
+  <x:si>
     <x:t>Success</x:t>
   </x:si>
   <x:si>
@@ -80,6 +89,9 @@
   </x:si>
   <x:si>
     <x:t>cnbfl_dev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>App</x:t>
   </x:si>
   <x:si>
     <x:t>Failed</x:t>
@@ -186,7 +198,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
@@ -210,7 +222,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,23 +505,23 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:BQ234"/>
+  <x:dimension ref="A1:BS234"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F4" sqref="F4"/>
+      <x:selection activeCell="J11" sqref="J11"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="95.991406" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultColWidth="133.76875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
     <x:col min="1" max="1" width="10.554688" style="0" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="54.777344" style="0" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.441406" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="11.554688" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="6" width="29.109375" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="0" style="0" hidden="1" customWidth="1"/>
+    <x:col min="4" max="6" width="11.554688" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="29.109375" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="0" style="0" hidden="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:71" x14ac:dyDescent="0.3">
       <x:c r="A1" s="10" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -532,14 +543,18 @@
       <x:c r="G1" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="3" t="s"/>
-      <x:c r="I1" s="3" t="s"/>
+      <x:c r="H1" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
       <x:c r="J1" s="3" t="s"/>
       <x:c r="K1" s="3" t="s"/>
       <x:c r="L1" s="3" t="s"/>
       <x:c r="M1" s="3" t="s"/>
-      <x:c r="N1" s="4" t="s"/>
-      <x:c r="O1" s="4" t="s"/>
+      <x:c r="N1" s="3" t="s"/>
+      <x:c r="O1" s="3" t="s"/>
       <x:c r="P1" s="4" t="s"/>
       <x:c r="Q1" s="4" t="s"/>
       <x:c r="R1" s="4" t="s"/>
@@ -586,31 +601,37 @@
       <x:c r="BG1" s="4" t="s"/>
       <x:c r="BH1" s="4" t="s"/>
       <x:c r="BI1" s="4" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BJ1" s="4" t="s"/>
+      <x:c r="BK1" s="4" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
-      <x:c r="H2" s="2" t="s"/>
-      <x:c r="I2" s="2" t="s"/>
+      <x:c r="F2" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="J2" s="2" t="s"/>
       <x:c r="K2" s="2" t="s"/>
       <x:c r="L2" s="2" t="s"/>
       <x:c r="M2" s="2" t="s"/>
-      <x:c r="N2" s="1" t="s"/>
-      <x:c r="O2" s="1" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
       <x:c r="P2" s="1" t="s"/>
       <x:c r="Q2" s="1" t="s"/>
       <x:c r="R2" s="1" t="s"/>
@@ -657,39 +678,45 @@
       <x:c r="BG2" s="1" t="s"/>
       <x:c r="BH2" s="1" t="s"/>
       <x:c r="BI2" s="1" t="s"/>
-      <x:c r="BJ2" s="5" t="s"/>
-      <x:c r="BK2" s="5" t="s"/>
+      <x:c r="BJ2" s="1" t="s"/>
+      <x:c r="BK2" s="1" t="s"/>
       <x:c r="BL2" s="5" t="s"/>
       <x:c r="BM2" s="5" t="s"/>
       <x:c r="BN2" s="5" t="s"/>
       <x:c r="BO2" s="5" t="s"/>
       <x:c r="BP2" s="5" t="s"/>
       <x:c r="BQ2" s="5" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR2" s="5" t="s"/>
+      <x:c r="BS2" s="5" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>9</x:v>
+      <x:c r="F3" s="0" t="b">
+        <x:v>0</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s"/>
-      <x:c r="I3" s="2" t="s"/>
       <x:c r="J3" s="2" t="s"/>
       <x:c r="K3" s="2" t="s"/>
       <x:c r="L3" s="2" t="s"/>
       <x:c r="M3" s="2" t="s"/>
-      <x:c r="N3" s="1" t="s"/>
-      <x:c r="O3" s="1" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
       <x:c r="P3" s="1" t="s"/>
       <x:c r="Q3" s="1" t="s"/>
       <x:c r="R3" s="1" t="s"/>
@@ -736,42 +763,48 @@
       <x:c r="BG3" s="1" t="s"/>
       <x:c r="BH3" s="1" t="s"/>
       <x:c r="BI3" s="1" t="s"/>
-      <x:c r="BJ3" s="5" t="s"/>
-      <x:c r="BK3" s="5" t="s"/>
+      <x:c r="BJ3" s="1" t="s"/>
+      <x:c r="BK3" s="1" t="s"/>
       <x:c r="BL3" s="5" t="s"/>
       <x:c r="BM3" s="5" t="s"/>
       <x:c r="BN3" s="5" t="s"/>
       <x:c r="BO3" s="5" t="s"/>
       <x:c r="BP3" s="5" t="s"/>
       <x:c r="BQ3" s="5" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR3" s="5" t="s"/>
+      <x:c r="BS3" s="5" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+      <x:c r="F4" s="0" t="b">
+        <x:v>0</x:v>
       </x:c>
-      <x:c r="H4" s="2" t="s"/>
-      <x:c r="I4" s="2" t="s"/>
+      <x:c r="G4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
       <x:c r="J4" s="2" t="s"/>
       <x:c r="K4" s="2" t="s"/>
       <x:c r="L4" s="2" t="s"/>
       <x:c r="M4" s="2" t="s"/>
-      <x:c r="N4" s="1" t="s"/>
-      <x:c r="O4" s="1" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
       <x:c r="P4" s="1" t="s"/>
       <x:c r="Q4" s="1" t="s"/>
       <x:c r="R4" s="1" t="s"/>
@@ -818,24 +851,24 @@
       <x:c r="BG4" s="1" t="s"/>
       <x:c r="BH4" s="1" t="s"/>
       <x:c r="BI4" s="1" t="s"/>
-      <x:c r="BJ4" s="5" t="s"/>
-      <x:c r="BK4" s="5" t="s"/>
+      <x:c r="BJ4" s="1" t="s"/>
+      <x:c r="BK4" s="1" t="s"/>
       <x:c r="BL4" s="5" t="s"/>
       <x:c r="BM4" s="5" t="s"/>
       <x:c r="BN4" s="5" t="s"/>
       <x:c r="BO4" s="5" t="s"/>
       <x:c r="BP4" s="5" t="s"/>
       <x:c r="BQ4" s="5" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H5" s="2" t="s"/>
-      <x:c r="I5" s="2" t="s"/>
+      <x:c r="BR4" s="5" t="s"/>
+      <x:c r="BS4" s="5" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J5" s="2" t="s"/>
       <x:c r="K5" s="2" t="s"/>
       <x:c r="L5" s="2" t="s"/>
       <x:c r="M5" s="2" t="s"/>
-      <x:c r="N5" s="1" t="s"/>
-      <x:c r="O5" s="1" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
       <x:c r="P5" s="1" t="s"/>
       <x:c r="Q5" s="1" t="s"/>
       <x:c r="R5" s="1" t="s"/>
@@ -882,24 +915,24 @@
       <x:c r="BG5" s="1" t="s"/>
       <x:c r="BH5" s="1" t="s"/>
       <x:c r="BI5" s="1" t="s"/>
-      <x:c r="BJ5" s="5" t="s"/>
-      <x:c r="BK5" s="5" t="s"/>
+      <x:c r="BJ5" s="1" t="s"/>
+      <x:c r="BK5" s="1" t="s"/>
       <x:c r="BL5" s="5" t="s"/>
       <x:c r="BM5" s="5" t="s"/>
       <x:c r="BN5" s="5" t="s"/>
       <x:c r="BO5" s="5" t="s"/>
       <x:c r="BP5" s="5" t="s"/>
       <x:c r="BQ5" s="5" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H6" s="2" t="s"/>
-      <x:c r="I6" s="2" t="s"/>
+      <x:c r="BR5" s="5" t="s"/>
+      <x:c r="BS5" s="5" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J6" s="2" t="s"/>
       <x:c r="K6" s="2" t="s"/>
       <x:c r="L6" s="2" t="s"/>
       <x:c r="M6" s="2" t="s"/>
-      <x:c r="N6" s="1" t="s"/>
-      <x:c r="O6" s="1" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
       <x:c r="P6" s="1" t="s"/>
       <x:c r="Q6" s="1" t="s"/>
       <x:c r="R6" s="1" t="s"/>
@@ -946,24 +979,24 @@
       <x:c r="BG6" s="1" t="s"/>
       <x:c r="BH6" s="1" t="s"/>
       <x:c r="BI6" s="1" t="s"/>
-      <x:c r="BJ6" s="5" t="s"/>
-      <x:c r="BK6" s="5" t="s"/>
+      <x:c r="BJ6" s="1" t="s"/>
+      <x:c r="BK6" s="1" t="s"/>
       <x:c r="BL6" s="5" t="s"/>
       <x:c r="BM6" s="5" t="s"/>
       <x:c r="BN6" s="5" t="s"/>
       <x:c r="BO6" s="5" t="s"/>
       <x:c r="BP6" s="5" t="s"/>
       <x:c r="BQ6" s="5" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H7" s="2" t="s"/>
-      <x:c r="I7" s="2" t="s"/>
+      <x:c r="BR6" s="5" t="s"/>
+      <x:c r="BS6" s="5" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J7" s="2" t="s"/>
       <x:c r="K7" s="2" t="s"/>
       <x:c r="L7" s="2" t="s"/>
       <x:c r="M7" s="2" t="s"/>
-      <x:c r="N7" s="1" t="s"/>
-      <x:c r="O7" s="1" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
       <x:c r="P7" s="1" t="s"/>
       <x:c r="Q7" s="1" t="s"/>
       <x:c r="R7" s="1" t="s"/>
@@ -1010,24 +1043,24 @@
       <x:c r="BG7" s="1" t="s"/>
       <x:c r="BH7" s="1" t="s"/>
       <x:c r="BI7" s="1" t="s"/>
-      <x:c r="BJ7" s="5" t="s"/>
-      <x:c r="BK7" s="5" t="s"/>
+      <x:c r="BJ7" s="1" t="s"/>
+      <x:c r="BK7" s="1" t="s"/>
       <x:c r="BL7" s="5" t="s"/>
       <x:c r="BM7" s="5" t="s"/>
       <x:c r="BN7" s="5" t="s"/>
       <x:c r="BO7" s="5" t="s"/>
       <x:c r="BP7" s="5" t="s"/>
       <x:c r="BQ7" s="5" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H8" s="2" t="s"/>
-      <x:c r="I8" s="2" t="s"/>
+      <x:c r="BR7" s="5" t="s"/>
+      <x:c r="BS7" s="5" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J8" s="2" t="s"/>
       <x:c r="K8" s="2" t="s"/>
       <x:c r="L8" s="2" t="s"/>
       <x:c r="M8" s="2" t="s"/>
-      <x:c r="N8" s="1" t="s"/>
-      <x:c r="O8" s="1" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
       <x:c r="P8" s="1" t="s"/>
       <x:c r="Q8" s="1" t="s"/>
       <x:c r="R8" s="1" t="s"/>
@@ -1074,24 +1107,24 @@
       <x:c r="BG8" s="1" t="s"/>
       <x:c r="BH8" s="1" t="s"/>
       <x:c r="BI8" s="1" t="s"/>
-      <x:c r="BJ8" s="5" t="s"/>
-      <x:c r="BK8" s="5" t="s"/>
+      <x:c r="BJ8" s="1" t="s"/>
+      <x:c r="BK8" s="1" t="s"/>
       <x:c r="BL8" s="5" t="s"/>
       <x:c r="BM8" s="5" t="s"/>
       <x:c r="BN8" s="5" t="s"/>
       <x:c r="BO8" s="5" t="s"/>
       <x:c r="BP8" s="5" t="s"/>
       <x:c r="BQ8" s="5" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H9" s="2" t="s"/>
-      <x:c r="I9" s="2" t="s"/>
+      <x:c r="BR8" s="5" t="s"/>
+      <x:c r="BS8" s="5" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J9" s="2" t="s"/>
       <x:c r="K9" s="2" t="s"/>
       <x:c r="L9" s="2" t="s"/>
       <x:c r="M9" s="2" t="s"/>
-      <x:c r="N9" s="1" t="s"/>
-      <x:c r="O9" s="1" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
       <x:c r="P9" s="1" t="s"/>
       <x:c r="Q9" s="1" t="s"/>
       <x:c r="R9" s="1" t="s"/>
@@ -1138,24 +1171,24 @@
       <x:c r="BG9" s="1" t="s"/>
       <x:c r="BH9" s="1" t="s"/>
       <x:c r="BI9" s="1" t="s"/>
-      <x:c r="BJ9" s="5" t="s"/>
-      <x:c r="BK9" s="5" t="s"/>
+      <x:c r="BJ9" s="1" t="s"/>
+      <x:c r="BK9" s="1" t="s"/>
       <x:c r="BL9" s="5" t="s"/>
       <x:c r="BM9" s="5" t="s"/>
       <x:c r="BN9" s="5" t="s"/>
       <x:c r="BO9" s="5" t="s"/>
       <x:c r="BP9" s="5" t="s"/>
       <x:c r="BQ9" s="5" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H10" s="2" t="s"/>
-      <x:c r="I10" s="2" t="s"/>
+      <x:c r="BR9" s="5" t="s"/>
+      <x:c r="BS9" s="5" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J10" s="2" t="s"/>
       <x:c r="K10" s="2" t="s"/>
       <x:c r="L10" s="2" t="s"/>
       <x:c r="M10" s="2" t="s"/>
-      <x:c r="N10" s="1" t="s"/>
-      <x:c r="O10" s="1" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
       <x:c r="P10" s="1" t="s"/>
       <x:c r="Q10" s="1" t="s"/>
       <x:c r="R10" s="1" t="s"/>
@@ -1202,24 +1235,24 @@
       <x:c r="BG10" s="1" t="s"/>
       <x:c r="BH10" s="1" t="s"/>
       <x:c r="BI10" s="1" t="s"/>
-      <x:c r="BJ10" s="5" t="s"/>
-      <x:c r="BK10" s="5" t="s"/>
+      <x:c r="BJ10" s="1" t="s"/>
+      <x:c r="BK10" s="1" t="s"/>
       <x:c r="BL10" s="5" t="s"/>
       <x:c r="BM10" s="5" t="s"/>
       <x:c r="BN10" s="5" t="s"/>
       <x:c r="BO10" s="5" t="s"/>
       <x:c r="BP10" s="5" t="s"/>
       <x:c r="BQ10" s="5" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H11" s="2" t="s"/>
-      <x:c r="I11" s="2" t="s"/>
+      <x:c r="BR10" s="5" t="s"/>
+      <x:c r="BS10" s="5" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J11" s="2" t="s"/>
       <x:c r="K11" s="2" t="s"/>
       <x:c r="L11" s="2" t="s"/>
       <x:c r="M11" s="2" t="s"/>
-      <x:c r="N11" s="1" t="s"/>
-      <x:c r="O11" s="1" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
       <x:c r="P11" s="1" t="s"/>
       <x:c r="Q11" s="1" t="s"/>
       <x:c r="R11" s="1" t="s"/>
@@ -1266,24 +1299,24 @@
       <x:c r="BG11" s="1" t="s"/>
       <x:c r="BH11" s="1" t="s"/>
       <x:c r="BI11" s="1" t="s"/>
-      <x:c r="BJ11" s="5" t="s"/>
-      <x:c r="BK11" s="5" t="s"/>
+      <x:c r="BJ11" s="1" t="s"/>
+      <x:c r="BK11" s="1" t="s"/>
       <x:c r="BL11" s="5" t="s"/>
       <x:c r="BM11" s="5" t="s"/>
       <x:c r="BN11" s="5" t="s"/>
       <x:c r="BO11" s="5" t="s"/>
       <x:c r="BP11" s="5" t="s"/>
       <x:c r="BQ11" s="5" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H12" s="2" t="s"/>
-      <x:c r="I12" s="2" t="s"/>
+      <x:c r="BR11" s="5" t="s"/>
+      <x:c r="BS11" s="5" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J12" s="2" t="s"/>
       <x:c r="K12" s="2" t="s"/>
       <x:c r="L12" s="2" t="s"/>
       <x:c r="M12" s="2" t="s"/>
-      <x:c r="N12" s="1" t="s"/>
-      <x:c r="O12" s="1" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
       <x:c r="P12" s="1" t="s"/>
       <x:c r="Q12" s="1" t="s"/>
       <x:c r="R12" s="1" t="s"/>
@@ -1330,24 +1363,24 @@
       <x:c r="BG12" s="1" t="s"/>
       <x:c r="BH12" s="1" t="s"/>
       <x:c r="BI12" s="1" t="s"/>
-      <x:c r="BJ12" s="5" t="s"/>
-      <x:c r="BK12" s="5" t="s"/>
+      <x:c r="BJ12" s="1" t="s"/>
+      <x:c r="BK12" s="1" t="s"/>
       <x:c r="BL12" s="5" t="s"/>
       <x:c r="BM12" s="5" t="s"/>
       <x:c r="BN12" s="5" t="s"/>
       <x:c r="BO12" s="5" t="s"/>
       <x:c r="BP12" s="5" t="s"/>
       <x:c r="BQ12" s="5" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
+      <x:c r="BR12" s="5" t="s"/>
+      <x:c r="BS12" s="5" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J13" s="2" t="s"/>
       <x:c r="K13" s="2" t="s"/>
       <x:c r="L13" s="2" t="s"/>
       <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="1" t="s"/>
-      <x:c r="O13" s="1" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
       <x:c r="P13" s="1" t="s"/>
       <x:c r="Q13" s="1" t="s"/>
       <x:c r="R13" s="1" t="s"/>
@@ -1394,24 +1427,24 @@
       <x:c r="BG13" s="1" t="s"/>
       <x:c r="BH13" s="1" t="s"/>
       <x:c r="BI13" s="1" t="s"/>
-      <x:c r="BJ13" s="5" t="s"/>
-      <x:c r="BK13" s="5" t="s"/>
+      <x:c r="BJ13" s="1" t="s"/>
+      <x:c r="BK13" s="1" t="s"/>
       <x:c r="BL13" s="5" t="s"/>
       <x:c r="BM13" s="5" t="s"/>
       <x:c r="BN13" s="5" t="s"/>
       <x:c r="BO13" s="5" t="s"/>
       <x:c r="BP13" s="5" t="s"/>
       <x:c r="BQ13" s="5" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H14" s="2" t="s"/>
-      <x:c r="I14" s="2" t="s"/>
+      <x:c r="BR13" s="5" t="s"/>
+      <x:c r="BS13" s="5" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J14" s="2" t="s"/>
       <x:c r="K14" s="2" t="s"/>
       <x:c r="L14" s="2" t="s"/>
       <x:c r="M14" s="2" t="s"/>
-      <x:c r="N14" s="1" t="s"/>
-      <x:c r="O14" s="1" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
       <x:c r="P14" s="1" t="s"/>
       <x:c r="Q14" s="1" t="s"/>
       <x:c r="R14" s="1" t="s"/>
@@ -1458,24 +1491,24 @@
       <x:c r="BG14" s="1" t="s"/>
       <x:c r="BH14" s="1" t="s"/>
       <x:c r="BI14" s="1" t="s"/>
-      <x:c r="BJ14" s="5" t="s"/>
-      <x:c r="BK14" s="5" t="s"/>
+      <x:c r="BJ14" s="1" t="s"/>
+      <x:c r="BK14" s="1" t="s"/>
       <x:c r="BL14" s="5" t="s"/>
       <x:c r="BM14" s="5" t="s"/>
       <x:c r="BN14" s="5" t="s"/>
       <x:c r="BO14" s="5" t="s"/>
       <x:c r="BP14" s="5" t="s"/>
       <x:c r="BQ14" s="5" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
+      <x:c r="BR14" s="5" t="s"/>
+      <x:c r="BS14" s="5" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J15" s="2" t="s"/>
       <x:c r="K15" s="2" t="s"/>
       <x:c r="L15" s="2" t="s"/>
       <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="1" t="s"/>
-      <x:c r="O15" s="1" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
       <x:c r="P15" s="1" t="s"/>
       <x:c r="Q15" s="1" t="s"/>
       <x:c r="R15" s="1" t="s"/>
@@ -1522,24 +1555,24 @@
       <x:c r="BG15" s="1" t="s"/>
       <x:c r="BH15" s="1" t="s"/>
       <x:c r="BI15" s="1" t="s"/>
-      <x:c r="BJ15" s="5" t="s"/>
-      <x:c r="BK15" s="5" t="s"/>
+      <x:c r="BJ15" s="1" t="s"/>
+      <x:c r="BK15" s="1" t="s"/>
       <x:c r="BL15" s="5" t="s"/>
       <x:c r="BM15" s="5" t="s"/>
       <x:c r="BN15" s="5" t="s"/>
       <x:c r="BO15" s="5" t="s"/>
       <x:c r="BP15" s="5" t="s"/>
       <x:c r="BQ15" s="5" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
+      <x:c r="BR15" s="5" t="s"/>
+      <x:c r="BS15" s="5" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J16" s="2" t="s"/>
       <x:c r="K16" s="2" t="s"/>
       <x:c r="L16" s="2" t="s"/>
       <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="1" t="s"/>
-      <x:c r="O16" s="1" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
       <x:c r="P16" s="1" t="s"/>
       <x:c r="Q16" s="1" t="s"/>
       <x:c r="R16" s="1" t="s"/>
@@ -1586,24 +1619,24 @@
       <x:c r="BG16" s="1" t="s"/>
       <x:c r="BH16" s="1" t="s"/>
       <x:c r="BI16" s="1" t="s"/>
-      <x:c r="BJ16" s="5" t="s"/>
-      <x:c r="BK16" s="5" t="s"/>
+      <x:c r="BJ16" s="1" t="s"/>
+      <x:c r="BK16" s="1" t="s"/>
       <x:c r="BL16" s="5" t="s"/>
       <x:c r="BM16" s="5" t="s"/>
       <x:c r="BN16" s="5" t="s"/>
       <x:c r="BO16" s="5" t="s"/>
       <x:c r="BP16" s="5" t="s"/>
       <x:c r="BQ16" s="5" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
+      <x:c r="BR16" s="5" t="s"/>
+      <x:c r="BS16" s="5" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J17" s="2" t="s"/>
       <x:c r="K17" s="2" t="s"/>
       <x:c r="L17" s="2" t="s"/>
       <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="1" t="s"/>
-      <x:c r="O17" s="1" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
       <x:c r="P17" s="1" t="s"/>
       <x:c r="Q17" s="1" t="s"/>
       <x:c r="R17" s="1" t="s"/>
@@ -1650,24 +1683,24 @@
       <x:c r="BG17" s="1" t="s"/>
       <x:c r="BH17" s="1" t="s"/>
       <x:c r="BI17" s="1" t="s"/>
-      <x:c r="BJ17" s="5" t="s"/>
-      <x:c r="BK17" s="5" t="s"/>
+      <x:c r="BJ17" s="1" t="s"/>
+      <x:c r="BK17" s="1" t="s"/>
       <x:c r="BL17" s="5" t="s"/>
       <x:c r="BM17" s="5" t="s"/>
       <x:c r="BN17" s="5" t="s"/>
       <x:c r="BO17" s="5" t="s"/>
       <x:c r="BP17" s="5" t="s"/>
       <x:c r="BQ17" s="5" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
+      <x:c r="BR17" s="5" t="s"/>
+      <x:c r="BS17" s="5" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J18" s="2" t="s"/>
       <x:c r="K18" s="2" t="s"/>
       <x:c r="L18" s="2" t="s"/>
       <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="1" t="s"/>
-      <x:c r="O18" s="1" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
       <x:c r="P18" s="1" t="s"/>
       <x:c r="Q18" s="1" t="s"/>
       <x:c r="R18" s="1" t="s"/>
@@ -1714,24 +1747,24 @@
       <x:c r="BG18" s="1" t="s"/>
       <x:c r="BH18" s="1" t="s"/>
       <x:c r="BI18" s="1" t="s"/>
-      <x:c r="BJ18" s="5" t="s"/>
-      <x:c r="BK18" s="5" t="s"/>
+      <x:c r="BJ18" s="1" t="s"/>
+      <x:c r="BK18" s="1" t="s"/>
       <x:c r="BL18" s="5" t="s"/>
       <x:c r="BM18" s="5" t="s"/>
       <x:c r="BN18" s="5" t="s"/>
       <x:c r="BO18" s="5" t="s"/>
       <x:c r="BP18" s="5" t="s"/>
       <x:c r="BQ18" s="5" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
+      <x:c r="BR18" s="5" t="s"/>
+      <x:c r="BS18" s="5" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J19" s="2" t="s"/>
       <x:c r="K19" s="2" t="s"/>
       <x:c r="L19" s="2" t="s"/>
       <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="1" t="s"/>
-      <x:c r="O19" s="1" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
       <x:c r="P19" s="1" t="s"/>
       <x:c r="Q19" s="1" t="s"/>
       <x:c r="R19" s="1" t="s"/>
@@ -1778,24 +1811,24 @@
       <x:c r="BG19" s="1" t="s"/>
       <x:c r="BH19" s="1" t="s"/>
       <x:c r="BI19" s="1" t="s"/>
-      <x:c r="BJ19" s="5" t="s"/>
-      <x:c r="BK19" s="5" t="s"/>
+      <x:c r="BJ19" s="1" t="s"/>
+      <x:c r="BK19" s="1" t="s"/>
       <x:c r="BL19" s="5" t="s"/>
       <x:c r="BM19" s="5" t="s"/>
       <x:c r="BN19" s="5" t="s"/>
       <x:c r="BO19" s="5" t="s"/>
       <x:c r="BP19" s="5" t="s"/>
       <x:c r="BQ19" s="5" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
+      <x:c r="BR19" s="5" t="s"/>
+      <x:c r="BS19" s="5" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J20" s="2" t="s"/>
       <x:c r="K20" s="2" t="s"/>
       <x:c r="L20" s="2" t="s"/>
       <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="1" t="s"/>
-      <x:c r="O20" s="1" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
       <x:c r="P20" s="1" t="s"/>
       <x:c r="Q20" s="1" t="s"/>
       <x:c r="R20" s="1" t="s"/>
@@ -1842,24 +1875,24 @@
       <x:c r="BG20" s="1" t="s"/>
       <x:c r="BH20" s="1" t="s"/>
       <x:c r="BI20" s="1" t="s"/>
-      <x:c r="BJ20" s="5" t="s"/>
-      <x:c r="BK20" s="5" t="s"/>
+      <x:c r="BJ20" s="1" t="s"/>
+      <x:c r="BK20" s="1" t="s"/>
       <x:c r="BL20" s="5" t="s"/>
       <x:c r="BM20" s="5" t="s"/>
       <x:c r="BN20" s="5" t="s"/>
       <x:c r="BO20" s="5" t="s"/>
       <x:c r="BP20" s="5" t="s"/>
       <x:c r="BQ20" s="5" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
+      <x:c r="BR20" s="5" t="s"/>
+      <x:c r="BS20" s="5" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J21" s="2" t="s"/>
       <x:c r="K21" s="2" t="s"/>
       <x:c r="L21" s="2" t="s"/>
       <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="1" t="s"/>
-      <x:c r="O21" s="1" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
       <x:c r="P21" s="1" t="s"/>
       <x:c r="Q21" s="1" t="s"/>
       <x:c r="R21" s="1" t="s"/>
@@ -1906,24 +1939,24 @@
       <x:c r="BG21" s="1" t="s"/>
       <x:c r="BH21" s="1" t="s"/>
       <x:c r="BI21" s="1" t="s"/>
-      <x:c r="BJ21" s="5" t="s"/>
-      <x:c r="BK21" s="5" t="s"/>
+      <x:c r="BJ21" s="1" t="s"/>
+      <x:c r="BK21" s="1" t="s"/>
       <x:c r="BL21" s="5" t="s"/>
       <x:c r="BM21" s="5" t="s"/>
       <x:c r="BN21" s="5" t="s"/>
       <x:c r="BO21" s="5" t="s"/>
       <x:c r="BP21" s="5" t="s"/>
       <x:c r="BQ21" s="5" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
+      <x:c r="BR21" s="5" t="s"/>
+      <x:c r="BS21" s="5" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J22" s="2" t="s"/>
       <x:c r="K22" s="2" t="s"/>
       <x:c r="L22" s="2" t="s"/>
       <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="1" t="s"/>
-      <x:c r="O22" s="1" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
       <x:c r="P22" s="1" t="s"/>
       <x:c r="Q22" s="1" t="s"/>
       <x:c r="R22" s="1" t="s"/>
@@ -1970,24 +2003,24 @@
       <x:c r="BG22" s="1" t="s"/>
       <x:c r="BH22" s="1" t="s"/>
       <x:c r="BI22" s="1" t="s"/>
-      <x:c r="BJ22" s="5" t="s"/>
-      <x:c r="BK22" s="5" t="s"/>
+      <x:c r="BJ22" s="1" t="s"/>
+      <x:c r="BK22" s="1" t="s"/>
       <x:c r="BL22" s="5" t="s"/>
       <x:c r="BM22" s="5" t="s"/>
       <x:c r="BN22" s="5" t="s"/>
       <x:c r="BO22" s="5" t="s"/>
       <x:c r="BP22" s="5" t="s"/>
       <x:c r="BQ22" s="5" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
+      <x:c r="BR22" s="5" t="s"/>
+      <x:c r="BS22" s="5" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J23" s="2" t="s"/>
       <x:c r="K23" s="2" t="s"/>
       <x:c r="L23" s="2" t="s"/>
       <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="1" t="s"/>
-      <x:c r="O23" s="1" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
       <x:c r="P23" s="1" t="s"/>
       <x:c r="Q23" s="1" t="s"/>
       <x:c r="R23" s="1" t="s"/>
@@ -2034,24 +2067,24 @@
       <x:c r="BG23" s="1" t="s"/>
       <x:c r="BH23" s="1" t="s"/>
       <x:c r="BI23" s="1" t="s"/>
-      <x:c r="BJ23" s="5" t="s"/>
-      <x:c r="BK23" s="5" t="s"/>
+      <x:c r="BJ23" s="1" t="s"/>
+      <x:c r="BK23" s="1" t="s"/>
       <x:c r="BL23" s="5" t="s"/>
       <x:c r="BM23" s="5" t="s"/>
       <x:c r="BN23" s="5" t="s"/>
       <x:c r="BO23" s="5" t="s"/>
       <x:c r="BP23" s="5" t="s"/>
       <x:c r="BQ23" s="5" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
+      <x:c r="BR23" s="5" t="s"/>
+      <x:c r="BS23" s="5" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J24" s="2" t="s"/>
       <x:c r="K24" s="2" t="s"/>
       <x:c r="L24" s="2" t="s"/>
       <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="1" t="s"/>
-      <x:c r="O24" s="1" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
       <x:c r="P24" s="1" t="s"/>
       <x:c r="Q24" s="1" t="s"/>
       <x:c r="R24" s="1" t="s"/>
@@ -2098,24 +2131,24 @@
       <x:c r="BG24" s="1" t="s"/>
       <x:c r="BH24" s="1" t="s"/>
       <x:c r="BI24" s="1" t="s"/>
-      <x:c r="BJ24" s="5" t="s"/>
-      <x:c r="BK24" s="5" t="s"/>
+      <x:c r="BJ24" s="1" t="s"/>
+      <x:c r="BK24" s="1" t="s"/>
       <x:c r="BL24" s="5" t="s"/>
       <x:c r="BM24" s="5" t="s"/>
       <x:c r="BN24" s="5" t="s"/>
       <x:c r="BO24" s="5" t="s"/>
       <x:c r="BP24" s="5" t="s"/>
       <x:c r="BQ24" s="5" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
+      <x:c r="BR24" s="5" t="s"/>
+      <x:c r="BS24" s="5" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J25" s="2" t="s"/>
       <x:c r="K25" s="2" t="s"/>
       <x:c r="L25" s="2" t="s"/>
       <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="1" t="s"/>
-      <x:c r="O25" s="1" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
       <x:c r="P25" s="1" t="s"/>
       <x:c r="Q25" s="1" t="s"/>
       <x:c r="R25" s="1" t="s"/>
@@ -2162,24 +2195,24 @@
       <x:c r="BG25" s="1" t="s"/>
       <x:c r="BH25" s="1" t="s"/>
       <x:c r="BI25" s="1" t="s"/>
-      <x:c r="BJ25" s="5" t="s"/>
-      <x:c r="BK25" s="5" t="s"/>
+      <x:c r="BJ25" s="1" t="s"/>
+      <x:c r="BK25" s="1" t="s"/>
       <x:c r="BL25" s="5" t="s"/>
       <x:c r="BM25" s="5" t="s"/>
       <x:c r="BN25" s="5" t="s"/>
       <x:c r="BO25" s="5" t="s"/>
       <x:c r="BP25" s="5" t="s"/>
       <x:c r="BQ25" s="5" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
+      <x:c r="BR25" s="5" t="s"/>
+      <x:c r="BS25" s="5" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J26" s="2" t="s"/>
       <x:c r="K26" s="2" t="s"/>
       <x:c r="L26" s="2" t="s"/>
       <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="1" t="s"/>
-      <x:c r="O26" s="1" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
       <x:c r="P26" s="1" t="s"/>
       <x:c r="Q26" s="1" t="s"/>
       <x:c r="R26" s="1" t="s"/>
@@ -2226,24 +2259,24 @@
       <x:c r="BG26" s="1" t="s"/>
       <x:c r="BH26" s="1" t="s"/>
       <x:c r="BI26" s="1" t="s"/>
-      <x:c r="BJ26" s="5" t="s"/>
-      <x:c r="BK26" s="5" t="s"/>
+      <x:c r="BJ26" s="1" t="s"/>
+      <x:c r="BK26" s="1" t="s"/>
       <x:c r="BL26" s="5" t="s"/>
       <x:c r="BM26" s="5" t="s"/>
       <x:c r="BN26" s="5" t="s"/>
       <x:c r="BO26" s="5" t="s"/>
       <x:c r="BP26" s="5" t="s"/>
       <x:c r="BQ26" s="5" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
+      <x:c r="BR26" s="5" t="s"/>
+      <x:c r="BS26" s="5" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J27" s="2" t="s"/>
       <x:c r="K27" s="2" t="s"/>
       <x:c r="L27" s="2" t="s"/>
       <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="1" t="s"/>
-      <x:c r="O27" s="1" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
       <x:c r="P27" s="1" t="s"/>
       <x:c r="Q27" s="1" t="s"/>
       <x:c r="R27" s="1" t="s"/>
@@ -2290,24 +2323,24 @@
       <x:c r="BG27" s="1" t="s"/>
       <x:c r="BH27" s="1" t="s"/>
       <x:c r="BI27" s="1" t="s"/>
-      <x:c r="BJ27" s="5" t="s"/>
-      <x:c r="BK27" s="5" t="s"/>
+      <x:c r="BJ27" s="1" t="s"/>
+      <x:c r="BK27" s="1" t="s"/>
       <x:c r="BL27" s="5" t="s"/>
       <x:c r="BM27" s="5" t="s"/>
       <x:c r="BN27" s="5" t="s"/>
       <x:c r="BO27" s="5" t="s"/>
       <x:c r="BP27" s="5" t="s"/>
       <x:c r="BQ27" s="5" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
+      <x:c r="BR27" s="5" t="s"/>
+      <x:c r="BS27" s="5" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J28" s="2" t="s"/>
       <x:c r="K28" s="2" t="s"/>
       <x:c r="L28" s="2" t="s"/>
       <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="1" t="s"/>
-      <x:c r="O28" s="1" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
       <x:c r="P28" s="1" t="s"/>
       <x:c r="Q28" s="1" t="s"/>
       <x:c r="R28" s="1" t="s"/>
@@ -2354,24 +2387,24 @@
       <x:c r="BG28" s="1" t="s"/>
       <x:c r="BH28" s="1" t="s"/>
       <x:c r="BI28" s="1" t="s"/>
-      <x:c r="BJ28" s="5" t="s"/>
-      <x:c r="BK28" s="5" t="s"/>
+      <x:c r="BJ28" s="1" t="s"/>
+      <x:c r="BK28" s="1" t="s"/>
       <x:c r="BL28" s="5" t="s"/>
       <x:c r="BM28" s="5" t="s"/>
       <x:c r="BN28" s="5" t="s"/>
       <x:c r="BO28" s="5" t="s"/>
       <x:c r="BP28" s="5" t="s"/>
       <x:c r="BQ28" s="5" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
+      <x:c r="BR28" s="5" t="s"/>
+      <x:c r="BS28" s="5" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J29" s="2" t="s"/>
       <x:c r="K29" s="2" t="s"/>
       <x:c r="L29" s="2" t="s"/>
       <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="1" t="s"/>
-      <x:c r="O29" s="1" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
       <x:c r="P29" s="1" t="s"/>
       <x:c r="Q29" s="1" t="s"/>
       <x:c r="R29" s="1" t="s"/>
@@ -2418,24 +2451,24 @@
       <x:c r="BG29" s="1" t="s"/>
       <x:c r="BH29" s="1" t="s"/>
       <x:c r="BI29" s="1" t="s"/>
-      <x:c r="BJ29" s="5" t="s"/>
-      <x:c r="BK29" s="5" t="s"/>
+      <x:c r="BJ29" s="1" t="s"/>
+      <x:c r="BK29" s="1" t="s"/>
       <x:c r="BL29" s="5" t="s"/>
       <x:c r="BM29" s="5" t="s"/>
       <x:c r="BN29" s="5" t="s"/>
       <x:c r="BO29" s="5" t="s"/>
       <x:c r="BP29" s="5" t="s"/>
       <x:c r="BQ29" s="5" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
+      <x:c r="BR29" s="5" t="s"/>
+      <x:c r="BS29" s="5" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J30" s="2" t="s"/>
       <x:c r="K30" s="2" t="s"/>
       <x:c r="L30" s="2" t="s"/>
       <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="1" t="s"/>
-      <x:c r="O30" s="1" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
       <x:c r="P30" s="1" t="s"/>
       <x:c r="Q30" s="1" t="s"/>
       <x:c r="R30" s="1" t="s"/>
@@ -2482,24 +2515,24 @@
       <x:c r="BG30" s="1" t="s"/>
       <x:c r="BH30" s="1" t="s"/>
       <x:c r="BI30" s="1" t="s"/>
-      <x:c r="BJ30" s="5" t="s"/>
-      <x:c r="BK30" s="5" t="s"/>
+      <x:c r="BJ30" s="1" t="s"/>
+      <x:c r="BK30" s="1" t="s"/>
       <x:c r="BL30" s="5" t="s"/>
       <x:c r="BM30" s="5" t="s"/>
       <x:c r="BN30" s="5" t="s"/>
       <x:c r="BO30" s="5" t="s"/>
       <x:c r="BP30" s="5" t="s"/>
       <x:c r="BQ30" s="5" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
+      <x:c r="BR30" s="5" t="s"/>
+      <x:c r="BS30" s="5" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J31" s="2" t="s"/>
       <x:c r="K31" s="2" t="s"/>
       <x:c r="L31" s="2" t="s"/>
       <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="1" t="s"/>
-      <x:c r="O31" s="1" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
       <x:c r="P31" s="1" t="s"/>
       <x:c r="Q31" s="1" t="s"/>
       <x:c r="R31" s="1" t="s"/>
@@ -2546,24 +2579,24 @@
       <x:c r="BG31" s="1" t="s"/>
       <x:c r="BH31" s="1" t="s"/>
       <x:c r="BI31" s="1" t="s"/>
-      <x:c r="BJ31" s="5" t="s"/>
-      <x:c r="BK31" s="5" t="s"/>
+      <x:c r="BJ31" s="1" t="s"/>
+      <x:c r="BK31" s="1" t="s"/>
       <x:c r="BL31" s="5" t="s"/>
       <x:c r="BM31" s="5" t="s"/>
       <x:c r="BN31" s="5" t="s"/>
       <x:c r="BO31" s="5" t="s"/>
       <x:c r="BP31" s="5" t="s"/>
       <x:c r="BQ31" s="5" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
+      <x:c r="BR31" s="5" t="s"/>
+      <x:c r="BS31" s="5" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J32" s="2" t="s"/>
       <x:c r="K32" s="2" t="s"/>
       <x:c r="L32" s="2" t="s"/>
       <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="1" t="s"/>
-      <x:c r="O32" s="1" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
       <x:c r="P32" s="1" t="s"/>
       <x:c r="Q32" s="1" t="s"/>
       <x:c r="R32" s="1" t="s"/>
@@ -2610,24 +2643,24 @@
       <x:c r="BG32" s="1" t="s"/>
       <x:c r="BH32" s="1" t="s"/>
       <x:c r="BI32" s="1" t="s"/>
-      <x:c r="BJ32" s="5" t="s"/>
-      <x:c r="BK32" s="5" t="s"/>
+      <x:c r="BJ32" s="1" t="s"/>
+      <x:c r="BK32" s="1" t="s"/>
       <x:c r="BL32" s="5" t="s"/>
       <x:c r="BM32" s="5" t="s"/>
       <x:c r="BN32" s="5" t="s"/>
       <x:c r="BO32" s="5" t="s"/>
       <x:c r="BP32" s="5" t="s"/>
       <x:c r="BQ32" s="5" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
+      <x:c r="BR32" s="5" t="s"/>
+      <x:c r="BS32" s="5" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J33" s="2" t="s"/>
       <x:c r="K33" s="2" t="s"/>
       <x:c r="L33" s="2" t="s"/>
       <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="1" t="s"/>
-      <x:c r="O33" s="1" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
       <x:c r="P33" s="1" t="s"/>
       <x:c r="Q33" s="1" t="s"/>
       <x:c r="R33" s="1" t="s"/>
@@ -2674,24 +2707,24 @@
       <x:c r="BG33" s="1" t="s"/>
       <x:c r="BH33" s="1" t="s"/>
       <x:c r="BI33" s="1" t="s"/>
-      <x:c r="BJ33" s="5" t="s"/>
-      <x:c r="BK33" s="5" t="s"/>
+      <x:c r="BJ33" s="1" t="s"/>
+      <x:c r="BK33" s="1" t="s"/>
       <x:c r="BL33" s="5" t="s"/>
       <x:c r="BM33" s="5" t="s"/>
       <x:c r="BN33" s="5" t="s"/>
       <x:c r="BO33" s="5" t="s"/>
       <x:c r="BP33" s="5" t="s"/>
       <x:c r="BQ33" s="5" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
+      <x:c r="BR33" s="5" t="s"/>
+      <x:c r="BS33" s="5" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J34" s="2" t="s"/>
       <x:c r="K34" s="2" t="s"/>
       <x:c r="L34" s="2" t="s"/>
       <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="1" t="s"/>
-      <x:c r="O34" s="1" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
       <x:c r="P34" s="1" t="s"/>
       <x:c r="Q34" s="1" t="s"/>
       <x:c r="R34" s="1" t="s"/>
@@ -2738,24 +2771,24 @@
       <x:c r="BG34" s="1" t="s"/>
       <x:c r="BH34" s="1" t="s"/>
       <x:c r="BI34" s="1" t="s"/>
-      <x:c r="BJ34" s="5" t="s"/>
-      <x:c r="BK34" s="5" t="s"/>
+      <x:c r="BJ34" s="1" t="s"/>
+      <x:c r="BK34" s="1" t="s"/>
       <x:c r="BL34" s="5" t="s"/>
       <x:c r="BM34" s="5" t="s"/>
       <x:c r="BN34" s="5" t="s"/>
       <x:c r="BO34" s="5" t="s"/>
       <x:c r="BP34" s="5" t="s"/>
       <x:c r="BQ34" s="5" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
+      <x:c r="BR34" s="5" t="s"/>
+      <x:c r="BS34" s="5" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J35" s="2" t="s"/>
       <x:c r="K35" s="2" t="s"/>
       <x:c r="L35" s="2" t="s"/>
       <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="1" t="s"/>
-      <x:c r="O35" s="1" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
       <x:c r="P35" s="1" t="s"/>
       <x:c r="Q35" s="1" t="s"/>
       <x:c r="R35" s="1" t="s"/>
@@ -2802,24 +2835,24 @@
       <x:c r="BG35" s="1" t="s"/>
       <x:c r="BH35" s="1" t="s"/>
       <x:c r="BI35" s="1" t="s"/>
-      <x:c r="BJ35" s="5" t="s"/>
-      <x:c r="BK35" s="5" t="s"/>
+      <x:c r="BJ35" s="1" t="s"/>
+      <x:c r="BK35" s="1" t="s"/>
       <x:c r="BL35" s="5" t="s"/>
       <x:c r="BM35" s="5" t="s"/>
       <x:c r="BN35" s="5" t="s"/>
       <x:c r="BO35" s="5" t="s"/>
       <x:c r="BP35" s="5" t="s"/>
       <x:c r="BQ35" s="5" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
+      <x:c r="BR35" s="5" t="s"/>
+      <x:c r="BS35" s="5" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J36" s="2" t="s"/>
       <x:c r="K36" s="2" t="s"/>
       <x:c r="L36" s="2" t="s"/>
       <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="1" t="s"/>
-      <x:c r="O36" s="1" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
       <x:c r="P36" s="1" t="s"/>
       <x:c r="Q36" s="1" t="s"/>
       <x:c r="R36" s="1" t="s"/>
@@ -2866,24 +2899,24 @@
       <x:c r="BG36" s="1" t="s"/>
       <x:c r="BH36" s="1" t="s"/>
       <x:c r="BI36" s="1" t="s"/>
-      <x:c r="BJ36" s="5" t="s"/>
-      <x:c r="BK36" s="5" t="s"/>
+      <x:c r="BJ36" s="1" t="s"/>
+      <x:c r="BK36" s="1" t="s"/>
       <x:c r="BL36" s="5" t="s"/>
       <x:c r="BM36" s="5" t="s"/>
       <x:c r="BN36" s="5" t="s"/>
       <x:c r="BO36" s="5" t="s"/>
       <x:c r="BP36" s="5" t="s"/>
       <x:c r="BQ36" s="5" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
+      <x:c r="BR36" s="5" t="s"/>
+      <x:c r="BS36" s="5" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J37" s="2" t="s"/>
       <x:c r="K37" s="2" t="s"/>
       <x:c r="L37" s="2" t="s"/>
       <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="1" t="s"/>
-      <x:c r="O37" s="1" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
       <x:c r="P37" s="1" t="s"/>
       <x:c r="Q37" s="1" t="s"/>
       <x:c r="R37" s="1" t="s"/>
@@ -2930,24 +2963,24 @@
       <x:c r="BG37" s="1" t="s"/>
       <x:c r="BH37" s="1" t="s"/>
       <x:c r="BI37" s="1" t="s"/>
-      <x:c r="BJ37" s="5" t="s"/>
-      <x:c r="BK37" s="5" t="s"/>
+      <x:c r="BJ37" s="1" t="s"/>
+      <x:c r="BK37" s="1" t="s"/>
       <x:c r="BL37" s="5" t="s"/>
       <x:c r="BM37" s="5" t="s"/>
       <x:c r="BN37" s="5" t="s"/>
       <x:c r="BO37" s="5" t="s"/>
       <x:c r="BP37" s="5" t="s"/>
       <x:c r="BQ37" s="5" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
+      <x:c r="BR37" s="5" t="s"/>
+      <x:c r="BS37" s="5" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J38" s="2" t="s"/>
       <x:c r="K38" s="2" t="s"/>
       <x:c r="L38" s="2" t="s"/>
       <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="1" t="s"/>
-      <x:c r="O38" s="1" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
       <x:c r="P38" s="1" t="s"/>
       <x:c r="Q38" s="1" t="s"/>
       <x:c r="R38" s="1" t="s"/>
@@ -2994,24 +3027,24 @@
       <x:c r="BG38" s="1" t="s"/>
       <x:c r="BH38" s="1" t="s"/>
       <x:c r="BI38" s="1" t="s"/>
-      <x:c r="BJ38" s="5" t="s"/>
-      <x:c r="BK38" s="5" t="s"/>
+      <x:c r="BJ38" s="1" t="s"/>
+      <x:c r="BK38" s="1" t="s"/>
       <x:c r="BL38" s="5" t="s"/>
       <x:c r="BM38" s="5" t="s"/>
       <x:c r="BN38" s="5" t="s"/>
       <x:c r="BO38" s="5" t="s"/>
       <x:c r="BP38" s="5" t="s"/>
       <x:c r="BQ38" s="5" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
+      <x:c r="BR38" s="5" t="s"/>
+      <x:c r="BS38" s="5" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="J39" s="2" t="s"/>
       <x:c r="K39" s="2" t="s"/>
       <x:c r="L39" s="2" t="s"/>
       <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="1" t="s"/>
-      <x:c r="O39" s="1" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
       <x:c r="P39" s="1" t="s"/>
       <x:c r="Q39" s="1" t="s"/>
       <x:c r="R39" s="1" t="s"/>
@@ -3058,22 +3091,24 @@
       <x:c r="BG39" s="1" t="s"/>
       <x:c r="BH39" s="1" t="s"/>
       <x:c r="BI39" s="1" t="s"/>
-      <x:c r="BJ39" s="5" t="s"/>
-      <x:c r="BK39" s="5" t="s"/>
+      <x:c r="BJ39" s="1" t="s"/>
+      <x:c r="BK39" s="1" t="s"/>
       <x:c r="BL39" s="5" t="s"/>
       <x:c r="BM39" s="5" t="s"/>
       <x:c r="BN39" s="5" t="s"/>
       <x:c r="BO39" s="5" t="s"/>
       <x:c r="BP39" s="5" t="s"/>
       <x:c r="BQ39" s="5" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR39" s="5" t="s"/>
+      <x:c r="BS39" s="5" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A40" s="5" t="s"/>
       <x:c r="B40" s="7" t="s"/>
       <x:c r="C40" s="6" t="s"/>
       <x:c r="D40" s="6" t="s"/>
-      <x:c r="E40" s="2" t="s"/>
-      <x:c r="F40" s="2" t="s"/>
+      <x:c r="E40" s="6" t="s"/>
+      <x:c r="F40" s="6" t="s"/>
       <x:c r="G40" s="2" t="s"/>
       <x:c r="H40" s="2" t="s"/>
       <x:c r="I40" s="2" t="s"/>
@@ -3081,8 +3116,8 @@
       <x:c r="K40" s="2" t="s"/>
       <x:c r="L40" s="2" t="s"/>
       <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="1" t="s"/>
-      <x:c r="O40" s="1" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
       <x:c r="P40" s="1" t="s"/>
       <x:c r="Q40" s="1" t="s"/>
       <x:c r="R40" s="1" t="s"/>
@@ -3129,22 +3164,24 @@
       <x:c r="BG40" s="1" t="s"/>
       <x:c r="BH40" s="1" t="s"/>
       <x:c r="BI40" s="1" t="s"/>
-      <x:c r="BJ40" s="5" t="s"/>
-      <x:c r="BK40" s="5" t="s"/>
+      <x:c r="BJ40" s="1" t="s"/>
+      <x:c r="BK40" s="1" t="s"/>
       <x:c r="BL40" s="5" t="s"/>
       <x:c r="BM40" s="5" t="s"/>
       <x:c r="BN40" s="5" t="s"/>
       <x:c r="BO40" s="5" t="s"/>
       <x:c r="BP40" s="5" t="s"/>
       <x:c r="BQ40" s="5" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR40" s="5" t="s"/>
+      <x:c r="BS40" s="5" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A41" s="5" t="s"/>
       <x:c r="B41" s="5" t="s"/>
       <x:c r="C41" s="6" t="s"/>
       <x:c r="D41" s="9" t="s"/>
-      <x:c r="E41" s="2" t="s"/>
-      <x:c r="F41" s="2" t="s"/>
+      <x:c r="E41" s="9" t="s"/>
+      <x:c r="F41" s="9" t="s"/>
       <x:c r="G41" s="2" t="s"/>
       <x:c r="H41" s="2" t="s"/>
       <x:c r="I41" s="2" t="s"/>
@@ -3152,8 +3189,8 @@
       <x:c r="K41" s="2" t="s"/>
       <x:c r="L41" s="2" t="s"/>
       <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="1" t="s"/>
-      <x:c r="O41" s="1" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
       <x:c r="P41" s="1" t="s"/>
       <x:c r="Q41" s="1" t="s"/>
       <x:c r="R41" s="1" t="s"/>
@@ -3200,22 +3237,24 @@
       <x:c r="BG41" s="1" t="s"/>
       <x:c r="BH41" s="1" t="s"/>
       <x:c r="BI41" s="1" t="s"/>
-      <x:c r="BJ41" s="5" t="s"/>
-      <x:c r="BK41" s="5" t="s"/>
+      <x:c r="BJ41" s="1" t="s"/>
+      <x:c r="BK41" s="1" t="s"/>
       <x:c r="BL41" s="5" t="s"/>
       <x:c r="BM41" s="5" t="s"/>
       <x:c r="BN41" s="5" t="s"/>
       <x:c r="BO41" s="5" t="s"/>
       <x:c r="BP41" s="5" t="s"/>
       <x:c r="BQ41" s="5" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR41" s="5" t="s"/>
+      <x:c r="BS41" s="5" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A42" s="5" t="s"/>
       <x:c r="B42" s="5" t="s"/>
       <x:c r="C42" s="6" t="s"/>
       <x:c r="D42" s="6" t="s"/>
-      <x:c r="E42" s="2" t="s"/>
-      <x:c r="F42" s="2" t="s"/>
+      <x:c r="E42" s="6" t="s"/>
+      <x:c r="F42" s="6" t="s"/>
       <x:c r="G42" s="2" t="s"/>
       <x:c r="H42" s="2" t="s"/>
       <x:c r="I42" s="2" t="s"/>
@@ -3223,8 +3262,8 @@
       <x:c r="K42" s="2" t="s"/>
       <x:c r="L42" s="2" t="s"/>
       <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="1" t="s"/>
-      <x:c r="O42" s="1" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
       <x:c r="P42" s="1" t="s"/>
       <x:c r="Q42" s="1" t="s"/>
       <x:c r="R42" s="1" t="s"/>
@@ -3271,22 +3310,24 @@
       <x:c r="BG42" s="1" t="s"/>
       <x:c r="BH42" s="1" t="s"/>
       <x:c r="BI42" s="1" t="s"/>
-      <x:c r="BJ42" s="5" t="s"/>
-      <x:c r="BK42" s="5" t="s"/>
+      <x:c r="BJ42" s="1" t="s"/>
+      <x:c r="BK42" s="1" t="s"/>
       <x:c r="BL42" s="5" t="s"/>
       <x:c r="BM42" s="5" t="s"/>
       <x:c r="BN42" s="5" t="s"/>
       <x:c r="BO42" s="5" t="s"/>
       <x:c r="BP42" s="5" t="s"/>
       <x:c r="BQ42" s="5" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR42" s="5" t="s"/>
+      <x:c r="BS42" s="5" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A43" s="5" t="s"/>
       <x:c r="B43" s="5" t="s"/>
       <x:c r="C43" s="6" t="s"/>
       <x:c r="D43" s="8" t="s"/>
-      <x:c r="E43" s="2" t="s"/>
-      <x:c r="F43" s="2" t="s"/>
+      <x:c r="E43" s="8" t="s"/>
+      <x:c r="F43" s="8" t="s"/>
       <x:c r="G43" s="2" t="s"/>
       <x:c r="H43" s="2" t="s"/>
       <x:c r="I43" s="2" t="s"/>
@@ -3294,8 +3335,8 @@
       <x:c r="K43" s="2" t="s"/>
       <x:c r="L43" s="2" t="s"/>
       <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="1" t="s"/>
-      <x:c r="O43" s="1" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
       <x:c r="P43" s="1" t="s"/>
       <x:c r="Q43" s="1" t="s"/>
       <x:c r="R43" s="1" t="s"/>
@@ -3342,22 +3383,24 @@
       <x:c r="BG43" s="1" t="s"/>
       <x:c r="BH43" s="1" t="s"/>
       <x:c r="BI43" s="1" t="s"/>
-      <x:c r="BJ43" s="5" t="s"/>
-      <x:c r="BK43" s="5" t="s"/>
+      <x:c r="BJ43" s="1" t="s"/>
+      <x:c r="BK43" s="1" t="s"/>
       <x:c r="BL43" s="5" t="s"/>
       <x:c r="BM43" s="5" t="s"/>
       <x:c r="BN43" s="5" t="s"/>
       <x:c r="BO43" s="5" t="s"/>
       <x:c r="BP43" s="5" t="s"/>
       <x:c r="BQ43" s="5" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR43" s="5" t="s"/>
+      <x:c r="BS43" s="5" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A44" s="5" t="s"/>
       <x:c r="B44" s="5" t="s"/>
       <x:c r="C44" s="6" t="s"/>
       <x:c r="D44" s="6" t="s"/>
-      <x:c r="E44" s="2" t="s"/>
-      <x:c r="F44" s="2" t="s"/>
+      <x:c r="E44" s="6" t="s"/>
+      <x:c r="F44" s="6" t="s"/>
       <x:c r="G44" s="2" t="s"/>
       <x:c r="H44" s="2" t="s"/>
       <x:c r="I44" s="2" t="s"/>
@@ -3365,8 +3408,8 @@
       <x:c r="K44" s="2" t="s"/>
       <x:c r="L44" s="2" t="s"/>
       <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="1" t="s"/>
-      <x:c r="O44" s="1" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
       <x:c r="P44" s="1" t="s"/>
       <x:c r="Q44" s="1" t="s"/>
       <x:c r="R44" s="1" t="s"/>
@@ -3413,27 +3456,29 @@
       <x:c r="BG44" s="1" t="s"/>
       <x:c r="BH44" s="1" t="s"/>
       <x:c r="BI44" s="1" t="s"/>
-      <x:c r="BJ44" s="5" t="s"/>
-      <x:c r="BK44" s="5" t="s"/>
+      <x:c r="BJ44" s="1" t="s"/>
+      <x:c r="BK44" s="1" t="s"/>
       <x:c r="BL44" s="5" t="s"/>
       <x:c r="BM44" s="5" t="s"/>
       <x:c r="BN44" s="5" t="s"/>
       <x:c r="BO44" s="5" t="s"/>
       <x:c r="BP44" s="5" t="s"/>
       <x:c r="BQ44" s="5" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR44" s="5" t="s"/>
+      <x:c r="BS44" s="5" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A45" s="5" t="s"/>
       <x:c r="B45" s="5" t="s"/>
       <x:c r="C45" s="6" t="s"/>
       <x:c r="D45" s="6" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
+      <x:c r="E45" s="6" t="s"/>
+      <x:c r="F45" s="6" t="s"/>
       <x:c r="K45" s="2" t="s"/>
       <x:c r="L45" s="2" t="s"/>
       <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="1" t="s"/>
-      <x:c r="O45" s="1" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
       <x:c r="P45" s="1" t="s"/>
       <x:c r="Q45" s="1" t="s"/>
       <x:c r="R45" s="1" t="s"/>
@@ -3480,22 +3525,24 @@
       <x:c r="BG45" s="1" t="s"/>
       <x:c r="BH45" s="1" t="s"/>
       <x:c r="BI45" s="1" t="s"/>
-      <x:c r="BJ45" s="5" t="s"/>
-      <x:c r="BK45" s="5" t="s"/>
+      <x:c r="BJ45" s="1" t="s"/>
+      <x:c r="BK45" s="1" t="s"/>
       <x:c r="BL45" s="5" t="s"/>
       <x:c r="BM45" s="5" t="s"/>
       <x:c r="BN45" s="5" t="s"/>
       <x:c r="BO45" s="5" t="s"/>
       <x:c r="BP45" s="5" t="s"/>
       <x:c r="BQ45" s="5" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR45" s="5" t="s"/>
+      <x:c r="BS45" s="5" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A46" s="5" t="s"/>
       <x:c r="B46" s="7" t="s"/>
       <x:c r="C46" s="6" t="s"/>
       <x:c r="D46" s="6" t="s"/>
-      <x:c r="E46" s="2" t="s"/>
-      <x:c r="F46" s="2" t="s"/>
+      <x:c r="E46" s="6" t="s"/>
+      <x:c r="F46" s="6" t="s"/>
       <x:c r="G46" s="2" t="s"/>
       <x:c r="H46" s="2" t="s"/>
       <x:c r="I46" s="2" t="s"/>
@@ -3503,8 +3550,8 @@
       <x:c r="K46" s="2" t="s"/>
       <x:c r="L46" s="2" t="s"/>
       <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="1" t="s"/>
-      <x:c r="O46" s="1" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
       <x:c r="P46" s="1" t="s"/>
       <x:c r="Q46" s="1" t="s"/>
       <x:c r="R46" s="1" t="s"/>
@@ -3551,22 +3598,24 @@
       <x:c r="BG46" s="1" t="s"/>
       <x:c r="BH46" s="1" t="s"/>
       <x:c r="BI46" s="1" t="s"/>
-      <x:c r="BJ46" s="5" t="s"/>
-      <x:c r="BK46" s="5" t="s"/>
+      <x:c r="BJ46" s="1" t="s"/>
+      <x:c r="BK46" s="1" t="s"/>
       <x:c r="BL46" s="5" t="s"/>
       <x:c r="BM46" s="5" t="s"/>
       <x:c r="BN46" s="5" t="s"/>
       <x:c r="BO46" s="5" t="s"/>
       <x:c r="BP46" s="5" t="s"/>
       <x:c r="BQ46" s="5" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR46" s="5" t="s"/>
+      <x:c r="BS46" s="5" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A47" s="5" t="s"/>
       <x:c r="B47" s="5" t="s"/>
       <x:c r="C47" s="6" t="s"/>
       <x:c r="D47" s="6" t="s"/>
-      <x:c r="E47" s="2" t="s"/>
-      <x:c r="F47" s="2" t="s"/>
+      <x:c r="E47" s="6" t="s"/>
+      <x:c r="F47" s="6" t="s"/>
       <x:c r="G47" s="2" t="s"/>
       <x:c r="H47" s="2" t="s"/>
       <x:c r="I47" s="2" t="s"/>
@@ -3574,8 +3623,8 @@
       <x:c r="K47" s="2" t="s"/>
       <x:c r="L47" s="2" t="s"/>
       <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="1" t="s"/>
-      <x:c r="O47" s="1" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
       <x:c r="P47" s="1" t="s"/>
       <x:c r="Q47" s="1" t="s"/>
       <x:c r="R47" s="1" t="s"/>
@@ -3622,22 +3671,24 @@
       <x:c r="BG47" s="1" t="s"/>
       <x:c r="BH47" s="1" t="s"/>
       <x:c r="BI47" s="1" t="s"/>
-      <x:c r="BJ47" s="5" t="s"/>
-      <x:c r="BK47" s="5" t="s"/>
+      <x:c r="BJ47" s="1" t="s"/>
+      <x:c r="BK47" s="1" t="s"/>
       <x:c r="BL47" s="5" t="s"/>
       <x:c r="BM47" s="5" t="s"/>
       <x:c r="BN47" s="5" t="s"/>
       <x:c r="BO47" s="5" t="s"/>
       <x:c r="BP47" s="5" t="s"/>
       <x:c r="BQ47" s="5" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR47" s="5" t="s"/>
+      <x:c r="BS47" s="5" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A48" s="5" t="s"/>
       <x:c r="B48" s="5" t="s"/>
       <x:c r="C48" s="6" t="s"/>
       <x:c r="D48" s="6" t="s"/>
-      <x:c r="E48" s="2" t="s"/>
-      <x:c r="F48" s="2" t="s"/>
+      <x:c r="E48" s="6" t="s"/>
+      <x:c r="F48" s="6" t="s"/>
       <x:c r="G48" s="2" t="s"/>
       <x:c r="H48" s="2" t="s"/>
       <x:c r="I48" s="2" t="s"/>
@@ -3645,8 +3696,8 @@
       <x:c r="K48" s="2" t="s"/>
       <x:c r="L48" s="2" t="s"/>
       <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="1" t="s"/>
-      <x:c r="O48" s="1" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
       <x:c r="P48" s="1" t="s"/>
       <x:c r="Q48" s="1" t="s"/>
       <x:c r="R48" s="1" t="s"/>
@@ -3693,22 +3744,24 @@
       <x:c r="BG48" s="1" t="s"/>
       <x:c r="BH48" s="1" t="s"/>
       <x:c r="BI48" s="1" t="s"/>
-      <x:c r="BJ48" s="5" t="s"/>
-      <x:c r="BK48" s="5" t="s"/>
+      <x:c r="BJ48" s="1" t="s"/>
+      <x:c r="BK48" s="1" t="s"/>
       <x:c r="BL48" s="5" t="s"/>
       <x:c r="BM48" s="5" t="s"/>
       <x:c r="BN48" s="5" t="s"/>
       <x:c r="BO48" s="5" t="s"/>
       <x:c r="BP48" s="5" t="s"/>
       <x:c r="BQ48" s="5" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR48" s="5" t="s"/>
+      <x:c r="BS48" s="5" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A49" s="5" t="s"/>
       <x:c r="B49" s="5" t="s"/>
       <x:c r="C49" s="6" t="s"/>
       <x:c r="D49" s="6" t="s"/>
-      <x:c r="E49" s="2" t="s"/>
-      <x:c r="F49" s="2" t="s"/>
+      <x:c r="E49" s="6" t="s"/>
+      <x:c r="F49" s="6" t="s"/>
       <x:c r="G49" s="2" t="s"/>
       <x:c r="H49" s="2" t="s"/>
       <x:c r="I49" s="2" t="s"/>
@@ -3716,8 +3769,8 @@
       <x:c r="K49" s="2" t="s"/>
       <x:c r="L49" s="2" t="s"/>
       <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="1" t="s"/>
-      <x:c r="O49" s="1" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
       <x:c r="P49" s="1" t="s"/>
       <x:c r="Q49" s="1" t="s"/>
       <x:c r="R49" s="1" t="s"/>
@@ -3764,22 +3817,24 @@
       <x:c r="BG49" s="1" t="s"/>
       <x:c r="BH49" s="1" t="s"/>
       <x:c r="BI49" s="1" t="s"/>
-      <x:c r="BJ49" s="5" t="s"/>
-      <x:c r="BK49" s="5" t="s"/>
+      <x:c r="BJ49" s="1" t="s"/>
+      <x:c r="BK49" s="1" t="s"/>
       <x:c r="BL49" s="5" t="s"/>
       <x:c r="BM49" s="5" t="s"/>
       <x:c r="BN49" s="5" t="s"/>
       <x:c r="BO49" s="5" t="s"/>
       <x:c r="BP49" s="5" t="s"/>
       <x:c r="BQ49" s="5" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR49" s="5" t="s"/>
+      <x:c r="BS49" s="5" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A50" s="5" t="s"/>
       <x:c r="B50" s="5" t="s"/>
       <x:c r="C50" s="6" t="s"/>
       <x:c r="D50" s="6" t="s"/>
-      <x:c r="E50" s="2" t="s"/>
-      <x:c r="F50" s="2" t="s"/>
+      <x:c r="E50" s="6" t="s"/>
+      <x:c r="F50" s="6" t="s"/>
       <x:c r="G50" s="2" t="s"/>
       <x:c r="H50" s="2" t="s"/>
       <x:c r="I50" s="2" t="s"/>
@@ -3787,8 +3842,8 @@
       <x:c r="K50" s="2" t="s"/>
       <x:c r="L50" s="2" t="s"/>
       <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="1" t="s"/>
-      <x:c r="O50" s="1" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
       <x:c r="P50" s="1" t="s"/>
       <x:c r="Q50" s="1" t="s"/>
       <x:c r="R50" s="1" t="s"/>
@@ -3835,22 +3890,24 @@
       <x:c r="BG50" s="1" t="s"/>
       <x:c r="BH50" s="1" t="s"/>
       <x:c r="BI50" s="1" t="s"/>
-      <x:c r="BJ50" s="5" t="s"/>
-      <x:c r="BK50" s="5" t="s"/>
+      <x:c r="BJ50" s="1" t="s"/>
+      <x:c r="BK50" s="1" t="s"/>
       <x:c r="BL50" s="5" t="s"/>
       <x:c r="BM50" s="5" t="s"/>
       <x:c r="BN50" s="5" t="s"/>
       <x:c r="BO50" s="5" t="s"/>
       <x:c r="BP50" s="5" t="s"/>
       <x:c r="BQ50" s="5" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR50" s="5" t="s"/>
+      <x:c r="BS50" s="5" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A51" s="5" t="s"/>
       <x:c r="B51" s="5" t="s"/>
       <x:c r="C51" s="6" t="s"/>
       <x:c r="D51" s="6" t="s"/>
-      <x:c r="E51" s="2" t="s"/>
-      <x:c r="F51" s="2" t="s"/>
+      <x:c r="E51" s="6" t="s"/>
+      <x:c r="F51" s="6" t="s"/>
       <x:c r="G51" s="2" t="s"/>
       <x:c r="H51" s="2" t="s"/>
       <x:c r="I51" s="2" t="s"/>
@@ -3858,8 +3915,8 @@
       <x:c r="K51" s="2" t="s"/>
       <x:c r="L51" s="2" t="s"/>
       <x:c r="M51" s="2" t="s"/>
-      <x:c r="N51" s="1" t="s"/>
-      <x:c r="O51" s="1" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
       <x:c r="P51" s="1" t="s"/>
       <x:c r="Q51" s="1" t="s"/>
       <x:c r="R51" s="1" t="s"/>
@@ -3906,22 +3963,24 @@
       <x:c r="BG51" s="1" t="s"/>
       <x:c r="BH51" s="1" t="s"/>
       <x:c r="BI51" s="1" t="s"/>
-      <x:c r="BJ51" s="5" t="s"/>
-      <x:c r="BK51" s="5" t="s"/>
+      <x:c r="BJ51" s="1" t="s"/>
+      <x:c r="BK51" s="1" t="s"/>
       <x:c r="BL51" s="5" t="s"/>
       <x:c r="BM51" s="5" t="s"/>
       <x:c r="BN51" s="5" t="s"/>
       <x:c r="BO51" s="5" t="s"/>
       <x:c r="BP51" s="5" t="s"/>
       <x:c r="BQ51" s="5" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR51" s="5" t="s"/>
+      <x:c r="BS51" s="5" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A52" s="5" t="s"/>
       <x:c r="B52" s="5" t="s"/>
       <x:c r="C52" s="6" t="s"/>
       <x:c r="D52" s="6" t="s"/>
-      <x:c r="E52" s="2" t="s"/>
-      <x:c r="F52" s="2" t="s"/>
+      <x:c r="E52" s="6" t="s"/>
+      <x:c r="F52" s="6" t="s"/>
       <x:c r="G52" s="2" t="s"/>
       <x:c r="H52" s="2" t="s"/>
       <x:c r="I52" s="2" t="s"/>
@@ -3929,8 +3988,8 @@
       <x:c r="K52" s="2" t="s"/>
       <x:c r="L52" s="2" t="s"/>
       <x:c r="M52" s="2" t="s"/>
-      <x:c r="N52" s="1" t="s"/>
-      <x:c r="O52" s="1" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
       <x:c r="P52" s="1" t="s"/>
       <x:c r="Q52" s="1" t="s"/>
       <x:c r="R52" s="1" t="s"/>
@@ -3977,22 +4036,24 @@
       <x:c r="BG52" s="1" t="s"/>
       <x:c r="BH52" s="1" t="s"/>
       <x:c r="BI52" s="1" t="s"/>
-      <x:c r="BJ52" s="5" t="s"/>
-      <x:c r="BK52" s="5" t="s"/>
+      <x:c r="BJ52" s="1" t="s"/>
+      <x:c r="BK52" s="1" t="s"/>
       <x:c r="BL52" s="5" t="s"/>
       <x:c r="BM52" s="5" t="s"/>
       <x:c r="BN52" s="5" t="s"/>
       <x:c r="BO52" s="5" t="s"/>
       <x:c r="BP52" s="5" t="s"/>
       <x:c r="BQ52" s="5" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR52" s="5" t="s"/>
+      <x:c r="BS52" s="5" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A53" s="5" t="s"/>
       <x:c r="B53" s="5" t="s"/>
       <x:c r="C53" s="6" t="s"/>
       <x:c r="D53" s="6" t="s"/>
-      <x:c r="E53" s="2" t="s"/>
-      <x:c r="F53" s="2" t="s"/>
+      <x:c r="E53" s="6" t="s"/>
+      <x:c r="F53" s="6" t="s"/>
       <x:c r="G53" s="2" t="s"/>
       <x:c r="H53" s="2" t="s"/>
       <x:c r="I53" s="2" t="s"/>
@@ -4000,8 +4061,8 @@
       <x:c r="K53" s="2" t="s"/>
       <x:c r="L53" s="2" t="s"/>
       <x:c r="M53" s="2" t="s"/>
-      <x:c r="N53" s="1" t="s"/>
-      <x:c r="O53" s="1" t="s"/>
+      <x:c r="N53" s="2" t="s"/>
+      <x:c r="O53" s="2" t="s"/>
       <x:c r="P53" s="1" t="s"/>
       <x:c r="Q53" s="1" t="s"/>
       <x:c r="R53" s="1" t="s"/>
@@ -4048,22 +4109,24 @@
       <x:c r="BG53" s="1" t="s"/>
       <x:c r="BH53" s="1" t="s"/>
       <x:c r="BI53" s="1" t="s"/>
-      <x:c r="BJ53" s="5" t="s"/>
-      <x:c r="BK53" s="5" t="s"/>
+      <x:c r="BJ53" s="1" t="s"/>
+      <x:c r="BK53" s="1" t="s"/>
       <x:c r="BL53" s="5" t="s"/>
       <x:c r="BM53" s="5" t="s"/>
       <x:c r="BN53" s="5" t="s"/>
       <x:c r="BO53" s="5" t="s"/>
       <x:c r="BP53" s="5" t="s"/>
       <x:c r="BQ53" s="5" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR53" s="5" t="s"/>
+      <x:c r="BS53" s="5" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A54" s="5" t="s"/>
       <x:c r="B54" s="5" t="s"/>
       <x:c r="C54" s="6" t="s"/>
       <x:c r="D54" s="6" t="s"/>
-      <x:c r="E54" s="2" t="s"/>
-      <x:c r="F54" s="2" t="s"/>
+      <x:c r="E54" s="6" t="s"/>
+      <x:c r="F54" s="6" t="s"/>
       <x:c r="G54" s="2" t="s"/>
       <x:c r="H54" s="2" t="s"/>
       <x:c r="I54" s="2" t="s"/>
@@ -4071,8 +4134,8 @@
       <x:c r="K54" s="2" t="s"/>
       <x:c r="L54" s="2" t="s"/>
       <x:c r="M54" s="2" t="s"/>
-      <x:c r="N54" s="1" t="s"/>
-      <x:c r="O54" s="1" t="s"/>
+      <x:c r="N54" s="2" t="s"/>
+      <x:c r="O54" s="2" t="s"/>
       <x:c r="P54" s="1" t="s"/>
       <x:c r="Q54" s="1" t="s"/>
       <x:c r="R54" s="1" t="s"/>
@@ -4119,22 +4182,24 @@
       <x:c r="BG54" s="1" t="s"/>
       <x:c r="BH54" s="1" t="s"/>
       <x:c r="BI54" s="1" t="s"/>
-      <x:c r="BJ54" s="5" t="s"/>
-      <x:c r="BK54" s="5" t="s"/>
+      <x:c r="BJ54" s="1" t="s"/>
+      <x:c r="BK54" s="1" t="s"/>
       <x:c r="BL54" s="5" t="s"/>
       <x:c r="BM54" s="5" t="s"/>
       <x:c r="BN54" s="5" t="s"/>
       <x:c r="BO54" s="5" t="s"/>
       <x:c r="BP54" s="5" t="s"/>
       <x:c r="BQ54" s="5" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR54" s="5" t="s"/>
+      <x:c r="BS54" s="5" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A55" s="5" t="s"/>
       <x:c r="B55" s="5" t="s"/>
       <x:c r="C55" s="6" t="s"/>
       <x:c r="D55" s="6" t="s"/>
-      <x:c r="E55" s="2" t="s"/>
-      <x:c r="F55" s="2" t="s"/>
+      <x:c r="E55" s="6" t="s"/>
+      <x:c r="F55" s="6" t="s"/>
       <x:c r="G55" s="2" t="s"/>
       <x:c r="H55" s="2" t="s"/>
       <x:c r="I55" s="2" t="s"/>
@@ -4142,8 +4207,8 @@
       <x:c r="K55" s="2" t="s"/>
       <x:c r="L55" s="2" t="s"/>
       <x:c r="M55" s="2" t="s"/>
-      <x:c r="N55" s="1" t="s"/>
-      <x:c r="O55" s="1" t="s"/>
+      <x:c r="N55" s="2" t="s"/>
+      <x:c r="O55" s="2" t="s"/>
       <x:c r="P55" s="1" t="s"/>
       <x:c r="Q55" s="1" t="s"/>
       <x:c r="R55" s="1" t="s"/>
@@ -4190,22 +4255,24 @@
       <x:c r="BG55" s="1" t="s"/>
       <x:c r="BH55" s="1" t="s"/>
       <x:c r="BI55" s="1" t="s"/>
-      <x:c r="BJ55" s="5" t="s"/>
-      <x:c r="BK55" s="5" t="s"/>
+      <x:c r="BJ55" s="1" t="s"/>
+      <x:c r="BK55" s="1" t="s"/>
       <x:c r="BL55" s="5" t="s"/>
       <x:c r="BM55" s="5" t="s"/>
       <x:c r="BN55" s="5" t="s"/>
       <x:c r="BO55" s="5" t="s"/>
       <x:c r="BP55" s="5" t="s"/>
       <x:c r="BQ55" s="5" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR55" s="5" t="s"/>
+      <x:c r="BS55" s="5" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A56" s="5" t="s"/>
       <x:c r="B56" s="7" t="s"/>
       <x:c r="C56" s="6" t="s"/>
       <x:c r="D56" s="9" t="s"/>
-      <x:c r="E56" s="2" t="s"/>
-      <x:c r="F56" s="2" t="s"/>
+      <x:c r="E56" s="9" t="s"/>
+      <x:c r="F56" s="9" t="s"/>
       <x:c r="G56" s="2" t="s"/>
       <x:c r="H56" s="2" t="s"/>
       <x:c r="I56" s="2" t="s"/>
@@ -4213,8 +4280,8 @@
       <x:c r="K56" s="2" t="s"/>
       <x:c r="L56" s="2" t="s"/>
       <x:c r="M56" s="2" t="s"/>
-      <x:c r="N56" s="1" t="s"/>
-      <x:c r="O56" s="1" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
       <x:c r="P56" s="1" t="s"/>
       <x:c r="Q56" s="1" t="s"/>
       <x:c r="R56" s="1" t="s"/>
@@ -4261,22 +4328,24 @@
       <x:c r="BG56" s="1" t="s"/>
       <x:c r="BH56" s="1" t="s"/>
       <x:c r="BI56" s="1" t="s"/>
-      <x:c r="BJ56" s="5" t="s"/>
-      <x:c r="BK56" s="5" t="s"/>
+      <x:c r="BJ56" s="1" t="s"/>
+      <x:c r="BK56" s="1" t="s"/>
       <x:c r="BL56" s="5" t="s"/>
       <x:c r="BM56" s="5" t="s"/>
       <x:c r="BN56" s="5" t="s"/>
       <x:c r="BO56" s="5" t="s"/>
       <x:c r="BP56" s="5" t="s"/>
       <x:c r="BQ56" s="5" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR56" s="5" t="s"/>
+      <x:c r="BS56" s="5" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A57" s="5" t="s"/>
       <x:c r="B57" s="5" t="s"/>
       <x:c r="C57" s="6" t="s"/>
       <x:c r="D57" s="6" t="s"/>
-      <x:c r="E57" s="2" t="s"/>
-      <x:c r="F57" s="2" t="s"/>
+      <x:c r="E57" s="6" t="s"/>
+      <x:c r="F57" s="6" t="s"/>
       <x:c r="G57" s="2" t="s"/>
       <x:c r="H57" s="2" t="s"/>
       <x:c r="I57" s="2" t="s"/>
@@ -4284,8 +4353,8 @@
       <x:c r="K57" s="2" t="s"/>
       <x:c r="L57" s="2" t="s"/>
       <x:c r="M57" s="2" t="s"/>
-      <x:c r="N57" s="1" t="s"/>
-      <x:c r="O57" s="1" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
       <x:c r="P57" s="1" t="s"/>
       <x:c r="Q57" s="1" t="s"/>
       <x:c r="R57" s="1" t="s"/>
@@ -4332,22 +4401,24 @@
       <x:c r="BG57" s="1" t="s"/>
       <x:c r="BH57" s="1" t="s"/>
       <x:c r="BI57" s="1" t="s"/>
-      <x:c r="BJ57" s="5" t="s"/>
-      <x:c r="BK57" s="5" t="s"/>
+      <x:c r="BJ57" s="1" t="s"/>
+      <x:c r="BK57" s="1" t="s"/>
       <x:c r="BL57" s="5" t="s"/>
       <x:c r="BM57" s="5" t="s"/>
       <x:c r="BN57" s="5" t="s"/>
       <x:c r="BO57" s="5" t="s"/>
       <x:c r="BP57" s="5" t="s"/>
       <x:c r="BQ57" s="5" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR57" s="5" t="s"/>
+      <x:c r="BS57" s="5" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A58" s="5" t="s"/>
       <x:c r="B58" s="7" t="s"/>
       <x:c r="C58" s="6" t="s"/>
       <x:c r="D58" s="6" t="s"/>
-      <x:c r="E58" s="2" t="s"/>
-      <x:c r="F58" s="2" t="s"/>
+      <x:c r="E58" s="6" t="s"/>
+      <x:c r="F58" s="6" t="s"/>
       <x:c r="G58" s="2" t="s"/>
       <x:c r="H58" s="2" t="s"/>
       <x:c r="I58" s="2" t="s"/>
@@ -4355,8 +4426,8 @@
       <x:c r="K58" s="2" t="s"/>
       <x:c r="L58" s="2" t="s"/>
       <x:c r="M58" s="2" t="s"/>
-      <x:c r="N58" s="1" t="s"/>
-      <x:c r="O58" s="1" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
       <x:c r="P58" s="1" t="s"/>
       <x:c r="Q58" s="1" t="s"/>
       <x:c r="R58" s="1" t="s"/>
@@ -4403,22 +4474,24 @@
       <x:c r="BG58" s="1" t="s"/>
       <x:c r="BH58" s="1" t="s"/>
       <x:c r="BI58" s="1" t="s"/>
-      <x:c r="BJ58" s="5" t="s"/>
-      <x:c r="BK58" s="5" t="s"/>
+      <x:c r="BJ58" s="1" t="s"/>
+      <x:c r="BK58" s="1" t="s"/>
       <x:c r="BL58" s="5" t="s"/>
       <x:c r="BM58" s="5" t="s"/>
       <x:c r="BN58" s="5" t="s"/>
       <x:c r="BO58" s="5" t="s"/>
       <x:c r="BP58" s="5" t="s"/>
       <x:c r="BQ58" s="5" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR58" s="5" t="s"/>
+      <x:c r="BS58" s="5" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A59" s="5" t="s"/>
       <x:c r="B59" s="7" t="s"/>
       <x:c r="C59" s="6" t="s"/>
       <x:c r="D59" s="6" t="s"/>
-      <x:c r="E59" s="2" t="s"/>
-      <x:c r="F59" s="2" t="s"/>
+      <x:c r="E59" s="6" t="s"/>
+      <x:c r="F59" s="6" t="s"/>
       <x:c r="G59" s="2" t="s"/>
       <x:c r="H59" s="2" t="s"/>
       <x:c r="I59" s="2" t="s"/>
@@ -4426,8 +4499,8 @@
       <x:c r="K59" s="2" t="s"/>
       <x:c r="L59" s="2" t="s"/>
       <x:c r="M59" s="2" t="s"/>
-      <x:c r="N59" s="1" t="s"/>
-      <x:c r="O59" s="1" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
       <x:c r="P59" s="1" t="s"/>
       <x:c r="Q59" s="1" t="s"/>
       <x:c r="R59" s="1" t="s"/>
@@ -4474,22 +4547,24 @@
       <x:c r="BG59" s="1" t="s"/>
       <x:c r="BH59" s="1" t="s"/>
       <x:c r="BI59" s="1" t="s"/>
-      <x:c r="BJ59" s="5" t="s"/>
-      <x:c r="BK59" s="5" t="s"/>
+      <x:c r="BJ59" s="1" t="s"/>
+      <x:c r="BK59" s="1" t="s"/>
       <x:c r="BL59" s="5" t="s"/>
       <x:c r="BM59" s="5" t="s"/>
       <x:c r="BN59" s="5" t="s"/>
       <x:c r="BO59" s="5" t="s"/>
       <x:c r="BP59" s="5" t="s"/>
       <x:c r="BQ59" s="5" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR59" s="5" t="s"/>
+      <x:c r="BS59" s="5" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A60" s="5" t="s"/>
       <x:c r="B60" s="5" t="s"/>
       <x:c r="C60" s="6" t="s"/>
       <x:c r="D60" s="6" t="s"/>
-      <x:c r="E60" s="2" t="s"/>
-      <x:c r="F60" s="2" t="s"/>
+      <x:c r="E60" s="6" t="s"/>
+      <x:c r="F60" s="6" t="s"/>
       <x:c r="G60" s="2" t="s"/>
       <x:c r="H60" s="2" t="s"/>
       <x:c r="I60" s="2" t="s"/>
@@ -4497,8 +4572,8 @@
       <x:c r="K60" s="2" t="s"/>
       <x:c r="L60" s="2" t="s"/>
       <x:c r="M60" s="2" t="s"/>
-      <x:c r="N60" s="1" t="s"/>
-      <x:c r="O60" s="1" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
       <x:c r="P60" s="1" t="s"/>
       <x:c r="Q60" s="1" t="s"/>
       <x:c r="R60" s="1" t="s"/>
@@ -4545,22 +4620,24 @@
       <x:c r="BG60" s="1" t="s"/>
       <x:c r="BH60" s="1" t="s"/>
       <x:c r="BI60" s="1" t="s"/>
-      <x:c r="BJ60" s="5" t="s"/>
-      <x:c r="BK60" s="5" t="s"/>
+      <x:c r="BJ60" s="1" t="s"/>
+      <x:c r="BK60" s="1" t="s"/>
       <x:c r="BL60" s="5" t="s"/>
       <x:c r="BM60" s="5" t="s"/>
       <x:c r="BN60" s="5" t="s"/>
       <x:c r="BO60" s="5" t="s"/>
       <x:c r="BP60" s="5" t="s"/>
       <x:c r="BQ60" s="5" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR60" s="5" t="s"/>
+      <x:c r="BS60" s="5" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A61" s="5" t="s"/>
       <x:c r="B61" s="5" t="s"/>
       <x:c r="C61" s="6" t="s"/>
       <x:c r="D61" s="6" t="s"/>
-      <x:c r="E61" s="2" t="s"/>
-      <x:c r="F61" s="2" t="s"/>
+      <x:c r="E61" s="6" t="s"/>
+      <x:c r="F61" s="6" t="s"/>
       <x:c r="G61" s="2" t="s"/>
       <x:c r="H61" s="2" t="s"/>
       <x:c r="I61" s="2" t="s"/>
@@ -4568,8 +4645,8 @@
       <x:c r="K61" s="2" t="s"/>
       <x:c r="L61" s="2" t="s"/>
       <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="1" t="s"/>
-      <x:c r="O61" s="1" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
       <x:c r="P61" s="1" t="s"/>
       <x:c r="Q61" s="1" t="s"/>
       <x:c r="R61" s="1" t="s"/>
@@ -4616,22 +4693,24 @@
       <x:c r="BG61" s="1" t="s"/>
       <x:c r="BH61" s="1" t="s"/>
       <x:c r="BI61" s="1" t="s"/>
-      <x:c r="BJ61" s="5" t="s"/>
-      <x:c r="BK61" s="5" t="s"/>
+      <x:c r="BJ61" s="1" t="s"/>
+      <x:c r="BK61" s="1" t="s"/>
       <x:c r="BL61" s="5" t="s"/>
       <x:c r="BM61" s="5" t="s"/>
       <x:c r="BN61" s="5" t="s"/>
       <x:c r="BO61" s="5" t="s"/>
       <x:c r="BP61" s="5" t="s"/>
       <x:c r="BQ61" s="5" t="s"/>
-    </x:row>
-    <x:row r="62" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR61" s="5" t="s"/>
+      <x:c r="BS61" s="5" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A62" s="5" t="s"/>
       <x:c r="B62" s="5" t="s"/>
       <x:c r="C62" s="6" t="s"/>
       <x:c r="D62" s="6" t="s"/>
-      <x:c r="E62" s="2" t="s"/>
-      <x:c r="F62" s="2" t="s"/>
+      <x:c r="E62" s="6" t="s"/>
+      <x:c r="F62" s="6" t="s"/>
       <x:c r="G62" s="2" t="s"/>
       <x:c r="H62" s="2" t="s"/>
       <x:c r="I62" s="2" t="s"/>
@@ -4639,8 +4718,8 @@
       <x:c r="K62" s="2" t="s"/>
       <x:c r="L62" s="2" t="s"/>
       <x:c r="M62" s="2" t="s"/>
-      <x:c r="N62" s="1" t="s"/>
-      <x:c r="O62" s="1" t="s"/>
+      <x:c r="N62" s="2" t="s"/>
+      <x:c r="O62" s="2" t="s"/>
       <x:c r="P62" s="1" t="s"/>
       <x:c r="Q62" s="1" t="s"/>
       <x:c r="R62" s="1" t="s"/>
@@ -4687,22 +4766,24 @@
       <x:c r="BG62" s="1" t="s"/>
       <x:c r="BH62" s="1" t="s"/>
       <x:c r="BI62" s="1" t="s"/>
-      <x:c r="BJ62" s="5" t="s"/>
-      <x:c r="BK62" s="5" t="s"/>
+      <x:c r="BJ62" s="1" t="s"/>
+      <x:c r="BK62" s="1" t="s"/>
       <x:c r="BL62" s="5" t="s"/>
       <x:c r="BM62" s="5" t="s"/>
       <x:c r="BN62" s="5" t="s"/>
       <x:c r="BO62" s="5" t="s"/>
       <x:c r="BP62" s="5" t="s"/>
       <x:c r="BQ62" s="5" t="s"/>
-    </x:row>
-    <x:row r="63" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR62" s="5" t="s"/>
+      <x:c r="BS62" s="5" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A63" s="5" t="s"/>
       <x:c r="B63" s="5" t="s"/>
       <x:c r="C63" s="6" t="s"/>
       <x:c r="D63" s="6" t="s"/>
-      <x:c r="E63" s="2" t="s"/>
-      <x:c r="F63" s="2" t="s"/>
+      <x:c r="E63" s="6" t="s"/>
+      <x:c r="F63" s="6" t="s"/>
       <x:c r="G63" s="2" t="s"/>
       <x:c r="H63" s="2" t="s"/>
       <x:c r="I63" s="2" t="s"/>
@@ -4710,8 +4791,8 @@
       <x:c r="K63" s="2" t="s"/>
       <x:c r="L63" s="2" t="s"/>
       <x:c r="M63" s="2" t="s"/>
-      <x:c r="N63" s="1" t="s"/>
-      <x:c r="O63" s="1" t="s"/>
+      <x:c r="N63" s="2" t="s"/>
+      <x:c r="O63" s="2" t="s"/>
       <x:c r="P63" s="1" t="s"/>
       <x:c r="Q63" s="1" t="s"/>
       <x:c r="R63" s="1" t="s"/>
@@ -4758,22 +4839,24 @@
       <x:c r="BG63" s="1" t="s"/>
       <x:c r="BH63" s="1" t="s"/>
       <x:c r="BI63" s="1" t="s"/>
-      <x:c r="BJ63" s="5" t="s"/>
-      <x:c r="BK63" s="5" t="s"/>
+      <x:c r="BJ63" s="1" t="s"/>
+      <x:c r="BK63" s="1" t="s"/>
       <x:c r="BL63" s="5" t="s"/>
       <x:c r="BM63" s="5" t="s"/>
       <x:c r="BN63" s="5" t="s"/>
       <x:c r="BO63" s="5" t="s"/>
       <x:c r="BP63" s="5" t="s"/>
       <x:c r="BQ63" s="5" t="s"/>
-    </x:row>
-    <x:row r="64" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR63" s="5" t="s"/>
+      <x:c r="BS63" s="5" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A64" s="5" t="s"/>
       <x:c r="B64" s="5" t="s"/>
       <x:c r="C64" s="6" t="s"/>
       <x:c r="D64" s="6" t="s"/>
-      <x:c r="E64" s="2" t="s"/>
-      <x:c r="F64" s="2" t="s"/>
+      <x:c r="E64" s="6" t="s"/>
+      <x:c r="F64" s="6" t="s"/>
       <x:c r="G64" s="2" t="s"/>
       <x:c r="H64" s="2" t="s"/>
       <x:c r="I64" s="2" t="s"/>
@@ -4781,8 +4864,8 @@
       <x:c r="K64" s="2" t="s"/>
       <x:c r="L64" s="2" t="s"/>
       <x:c r="M64" s="2" t="s"/>
-      <x:c r="N64" s="1" t="s"/>
-      <x:c r="O64" s="1" t="s"/>
+      <x:c r="N64" s="2" t="s"/>
+      <x:c r="O64" s="2" t="s"/>
       <x:c r="P64" s="1" t="s"/>
       <x:c r="Q64" s="1" t="s"/>
       <x:c r="R64" s="1" t="s"/>
@@ -4829,22 +4912,24 @@
       <x:c r="BG64" s="1" t="s"/>
       <x:c r="BH64" s="1" t="s"/>
       <x:c r="BI64" s="1" t="s"/>
-      <x:c r="BJ64" s="5" t="s"/>
-      <x:c r="BK64" s="5" t="s"/>
+      <x:c r="BJ64" s="1" t="s"/>
+      <x:c r="BK64" s="1" t="s"/>
       <x:c r="BL64" s="5" t="s"/>
       <x:c r="BM64" s="5" t="s"/>
       <x:c r="BN64" s="5" t="s"/>
       <x:c r="BO64" s="5" t="s"/>
       <x:c r="BP64" s="5" t="s"/>
       <x:c r="BQ64" s="5" t="s"/>
-    </x:row>
-    <x:row r="65" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR64" s="5" t="s"/>
+      <x:c r="BS64" s="5" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A65" s="5" t="s"/>
       <x:c r="B65" s="5" t="s"/>
       <x:c r="C65" s="6" t="s"/>
       <x:c r="D65" s="6" t="s"/>
-      <x:c r="E65" s="2" t="s"/>
-      <x:c r="F65" s="2" t="s"/>
+      <x:c r="E65" s="6" t="s"/>
+      <x:c r="F65" s="6" t="s"/>
       <x:c r="G65" s="2" t="s"/>
       <x:c r="H65" s="2" t="s"/>
       <x:c r="I65" s="2" t="s"/>
@@ -4852,8 +4937,8 @@
       <x:c r="K65" s="2" t="s"/>
       <x:c r="L65" s="2" t="s"/>
       <x:c r="M65" s="2" t="s"/>
-      <x:c r="N65" s="1" t="s"/>
-      <x:c r="O65" s="1" t="s"/>
+      <x:c r="N65" s="2" t="s"/>
+      <x:c r="O65" s="2" t="s"/>
       <x:c r="P65" s="1" t="s"/>
       <x:c r="Q65" s="1" t="s"/>
       <x:c r="R65" s="1" t="s"/>
@@ -4900,22 +4985,24 @@
       <x:c r="BG65" s="1" t="s"/>
       <x:c r="BH65" s="1" t="s"/>
       <x:c r="BI65" s="1" t="s"/>
-      <x:c r="BJ65" s="5" t="s"/>
-      <x:c r="BK65" s="5" t="s"/>
+      <x:c r="BJ65" s="1" t="s"/>
+      <x:c r="BK65" s="1" t="s"/>
       <x:c r="BL65" s="5" t="s"/>
       <x:c r="BM65" s="5" t="s"/>
       <x:c r="BN65" s="5" t="s"/>
       <x:c r="BO65" s="5" t="s"/>
       <x:c r="BP65" s="5" t="s"/>
       <x:c r="BQ65" s="5" t="s"/>
-    </x:row>
-    <x:row r="66" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR65" s="5" t="s"/>
+      <x:c r="BS65" s="5" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A66" s="5" t="s"/>
       <x:c r="B66" s="5" t="s"/>
       <x:c r="C66" s="6" t="s"/>
       <x:c r="D66" s="6" t="s"/>
-      <x:c r="E66" s="2" t="s"/>
-      <x:c r="F66" s="2" t="s"/>
+      <x:c r="E66" s="6" t="s"/>
+      <x:c r="F66" s="6" t="s"/>
       <x:c r="G66" s="2" t="s"/>
       <x:c r="H66" s="2" t="s"/>
       <x:c r="I66" s="2" t="s"/>
@@ -4923,8 +5010,8 @@
       <x:c r="K66" s="2" t="s"/>
       <x:c r="L66" s="2" t="s"/>
       <x:c r="M66" s="2" t="s"/>
-      <x:c r="N66" s="1" t="s"/>
-      <x:c r="O66" s="1" t="s"/>
+      <x:c r="N66" s="2" t="s"/>
+      <x:c r="O66" s="2" t="s"/>
       <x:c r="P66" s="1" t="s"/>
       <x:c r="Q66" s="1" t="s"/>
       <x:c r="R66" s="1" t="s"/>
@@ -4971,22 +5058,24 @@
       <x:c r="BG66" s="1" t="s"/>
       <x:c r="BH66" s="1" t="s"/>
       <x:c r="BI66" s="1" t="s"/>
-      <x:c r="BJ66" s="5" t="s"/>
-      <x:c r="BK66" s="5" t="s"/>
+      <x:c r="BJ66" s="1" t="s"/>
+      <x:c r="BK66" s="1" t="s"/>
       <x:c r="BL66" s="5" t="s"/>
       <x:c r="BM66" s="5" t="s"/>
       <x:c r="BN66" s="5" t="s"/>
       <x:c r="BO66" s="5" t="s"/>
       <x:c r="BP66" s="5" t="s"/>
       <x:c r="BQ66" s="5" t="s"/>
-    </x:row>
-    <x:row r="67" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR66" s="5" t="s"/>
+      <x:c r="BS66" s="5" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A67" s="5" t="s"/>
       <x:c r="B67" s="5" t="s"/>
       <x:c r="C67" s="6" t="s"/>
       <x:c r="D67" s="6" t="s"/>
-      <x:c r="E67" s="2" t="s"/>
-      <x:c r="F67" s="2" t="s"/>
+      <x:c r="E67" s="6" t="s"/>
+      <x:c r="F67" s="6" t="s"/>
       <x:c r="G67" s="2" t="s"/>
       <x:c r="H67" s="2" t="s"/>
       <x:c r="I67" s="2" t="s"/>
@@ -4994,8 +5083,8 @@
       <x:c r="K67" s="2" t="s"/>
       <x:c r="L67" s="2" t="s"/>
       <x:c r="M67" s="2" t="s"/>
-      <x:c r="N67" s="1" t="s"/>
-      <x:c r="O67" s="1" t="s"/>
+      <x:c r="N67" s="2" t="s"/>
+      <x:c r="O67" s="2" t="s"/>
       <x:c r="P67" s="1" t="s"/>
       <x:c r="Q67" s="1" t="s"/>
       <x:c r="R67" s="1" t="s"/>
@@ -5042,22 +5131,24 @@
       <x:c r="BG67" s="1" t="s"/>
       <x:c r="BH67" s="1" t="s"/>
       <x:c r="BI67" s="1" t="s"/>
-      <x:c r="BJ67" s="5" t="s"/>
-      <x:c r="BK67" s="5" t="s"/>
+      <x:c r="BJ67" s="1" t="s"/>
+      <x:c r="BK67" s="1" t="s"/>
       <x:c r="BL67" s="5" t="s"/>
       <x:c r="BM67" s="5" t="s"/>
       <x:c r="BN67" s="5" t="s"/>
       <x:c r="BO67" s="5" t="s"/>
       <x:c r="BP67" s="5" t="s"/>
       <x:c r="BQ67" s="5" t="s"/>
-    </x:row>
-    <x:row r="68" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR67" s="5" t="s"/>
+      <x:c r="BS67" s="5" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A68" s="5" t="s"/>
       <x:c r="B68" s="5" t="s"/>
       <x:c r="C68" s="6" t="s"/>
       <x:c r="D68" s="6" t="s"/>
-      <x:c r="E68" s="2" t="s"/>
-      <x:c r="F68" s="2" t="s"/>
+      <x:c r="E68" s="6" t="s"/>
+      <x:c r="F68" s="6" t="s"/>
       <x:c r="G68" s="2" t="s"/>
       <x:c r="H68" s="2" t="s"/>
       <x:c r="I68" s="2" t="s"/>
@@ -5065,8 +5156,8 @@
       <x:c r="K68" s="2" t="s"/>
       <x:c r="L68" s="2" t="s"/>
       <x:c r="M68" s="2" t="s"/>
-      <x:c r="N68" s="1" t="s"/>
-      <x:c r="O68" s="1" t="s"/>
+      <x:c r="N68" s="2" t="s"/>
+      <x:c r="O68" s="2" t="s"/>
       <x:c r="P68" s="1" t="s"/>
       <x:c r="Q68" s="1" t="s"/>
       <x:c r="R68" s="1" t="s"/>
@@ -5113,21 +5204,21 @@
       <x:c r="BG68" s="1" t="s"/>
       <x:c r="BH68" s="1" t="s"/>
       <x:c r="BI68" s="1" t="s"/>
-      <x:c r="BJ68" s="5" t="s"/>
-      <x:c r="BK68" s="5" t="s"/>
+      <x:c r="BJ68" s="1" t="s"/>
+      <x:c r="BK68" s="1" t="s"/>
       <x:c r="BL68" s="5" t="s"/>
       <x:c r="BM68" s="5" t="s"/>
       <x:c r="BN68" s="5" t="s"/>
       <x:c r="BO68" s="5" t="s"/>
       <x:c r="BP68" s="5" t="s"/>
       <x:c r="BQ68" s="5" t="s"/>
-    </x:row>
-    <x:row r="69" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR68" s="5" t="s"/>
+      <x:c r="BS68" s="5" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A69" s="5" t="s"/>
       <x:c r="B69" s="5" t="s"/>
       <x:c r="C69" s="9" t="s"/>
-      <x:c r="E69" s="2" t="s"/>
-      <x:c r="F69" s="2" t="s"/>
       <x:c r="G69" s="2" t="s"/>
       <x:c r="H69" s="2" t="s"/>
       <x:c r="I69" s="2" t="s"/>
@@ -5135,8 +5226,8 @@
       <x:c r="K69" s="2" t="s"/>
       <x:c r="L69" s="2" t="s"/>
       <x:c r="M69" s="2" t="s"/>
-      <x:c r="N69" s="1" t="s"/>
-      <x:c r="O69" s="1" t="s"/>
+      <x:c r="N69" s="2" t="s"/>
+      <x:c r="O69" s="2" t="s"/>
       <x:c r="P69" s="1" t="s"/>
       <x:c r="Q69" s="1" t="s"/>
       <x:c r="R69" s="1" t="s"/>
@@ -5183,22 +5274,24 @@
       <x:c r="BG69" s="1" t="s"/>
       <x:c r="BH69" s="1" t="s"/>
       <x:c r="BI69" s="1" t="s"/>
-      <x:c r="BJ69" s="5" t="s"/>
-      <x:c r="BK69" s="5" t="s"/>
+      <x:c r="BJ69" s="1" t="s"/>
+      <x:c r="BK69" s="1" t="s"/>
       <x:c r="BL69" s="5" t="s"/>
       <x:c r="BM69" s="5" t="s"/>
       <x:c r="BN69" s="5" t="s"/>
       <x:c r="BO69" s="5" t="s"/>
       <x:c r="BP69" s="5" t="s"/>
       <x:c r="BQ69" s="5" t="s"/>
-    </x:row>
-    <x:row r="70" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR69" s="5" t="s"/>
+      <x:c r="BS69" s="5" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A70" s="5" t="s"/>
       <x:c r="B70" s="5" t="s"/>
       <x:c r="C70" s="6" t="s"/>
       <x:c r="D70" s="6" t="s"/>
-      <x:c r="E70" s="2" t="s"/>
-      <x:c r="F70" s="2" t="s"/>
+      <x:c r="E70" s="6" t="s"/>
+      <x:c r="F70" s="6" t="s"/>
       <x:c r="G70" s="2" t="s"/>
       <x:c r="H70" s="2" t="s"/>
       <x:c r="I70" s="2" t="s"/>
@@ -5206,8 +5299,8 @@
       <x:c r="K70" s="2" t="s"/>
       <x:c r="L70" s="2" t="s"/>
       <x:c r="M70" s="2" t="s"/>
-      <x:c r="N70" s="1" t="s"/>
-      <x:c r="O70" s="1" t="s"/>
+      <x:c r="N70" s="2" t="s"/>
+      <x:c r="O70" s="2" t="s"/>
       <x:c r="P70" s="1" t="s"/>
       <x:c r="Q70" s="1" t="s"/>
       <x:c r="R70" s="1" t="s"/>
@@ -5254,22 +5347,24 @@
       <x:c r="BG70" s="1" t="s"/>
       <x:c r="BH70" s="1" t="s"/>
       <x:c r="BI70" s="1" t="s"/>
-      <x:c r="BJ70" s="5" t="s"/>
-      <x:c r="BK70" s="5" t="s"/>
+      <x:c r="BJ70" s="1" t="s"/>
+      <x:c r="BK70" s="1" t="s"/>
       <x:c r="BL70" s="5" t="s"/>
       <x:c r="BM70" s="5" t="s"/>
       <x:c r="BN70" s="5" t="s"/>
       <x:c r="BO70" s="5" t="s"/>
       <x:c r="BP70" s="5" t="s"/>
       <x:c r="BQ70" s="5" t="s"/>
-    </x:row>
-    <x:row r="71" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR70" s="5" t="s"/>
+      <x:c r="BS70" s="5" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A71" s="5" t="s"/>
       <x:c r="B71" s="5" t="s"/>
       <x:c r="C71" s="6" t="s"/>
       <x:c r="D71" s="6" t="s"/>
-      <x:c r="E71" s="2" t="s"/>
-      <x:c r="F71" s="2" t="s"/>
+      <x:c r="E71" s="6" t="s"/>
+      <x:c r="F71" s="6" t="s"/>
       <x:c r="G71" s="2" t="s"/>
       <x:c r="H71" s="2" t="s"/>
       <x:c r="I71" s="2" t="s"/>
@@ -5277,8 +5372,8 @@
       <x:c r="K71" s="2" t="s"/>
       <x:c r="L71" s="2" t="s"/>
       <x:c r="M71" s="2" t="s"/>
-      <x:c r="N71" s="1" t="s"/>
-      <x:c r="O71" s="1" t="s"/>
+      <x:c r="N71" s="2" t="s"/>
+      <x:c r="O71" s="2" t="s"/>
       <x:c r="P71" s="1" t="s"/>
       <x:c r="Q71" s="1" t="s"/>
       <x:c r="R71" s="1" t="s"/>
@@ -5325,22 +5420,24 @@
       <x:c r="BG71" s="1" t="s"/>
       <x:c r="BH71" s="1" t="s"/>
       <x:c r="BI71" s="1" t="s"/>
-      <x:c r="BJ71" s="5" t="s"/>
-      <x:c r="BK71" s="5" t="s"/>
+      <x:c r="BJ71" s="1" t="s"/>
+      <x:c r="BK71" s="1" t="s"/>
       <x:c r="BL71" s="5" t="s"/>
       <x:c r="BM71" s="5" t="s"/>
       <x:c r="BN71" s="5" t="s"/>
       <x:c r="BO71" s="5" t="s"/>
       <x:c r="BP71" s="5" t="s"/>
       <x:c r="BQ71" s="5" t="s"/>
-    </x:row>
-    <x:row r="72" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR71" s="5" t="s"/>
+      <x:c r="BS71" s="5" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A72" s="5" t="s"/>
       <x:c r="B72" s="5" t="s"/>
       <x:c r="C72" s="6" t="s"/>
       <x:c r="D72" s="6" t="s"/>
-      <x:c r="E72" s="2" t="s"/>
-      <x:c r="F72" s="2" t="s"/>
+      <x:c r="E72" s="6" t="s"/>
+      <x:c r="F72" s="6" t="s"/>
       <x:c r="G72" s="2" t="s"/>
       <x:c r="H72" s="2" t="s"/>
       <x:c r="I72" s="2" t="s"/>
@@ -5348,8 +5445,8 @@
       <x:c r="K72" s="2" t="s"/>
       <x:c r="L72" s="2" t="s"/>
       <x:c r="M72" s="2" t="s"/>
-      <x:c r="N72" s="1" t="s"/>
-      <x:c r="O72" s="1" t="s"/>
+      <x:c r="N72" s="2" t="s"/>
+      <x:c r="O72" s="2" t="s"/>
       <x:c r="P72" s="1" t="s"/>
       <x:c r="Q72" s="1" t="s"/>
       <x:c r="R72" s="1" t="s"/>
@@ -5396,22 +5493,24 @@
       <x:c r="BG72" s="1" t="s"/>
       <x:c r="BH72" s="1" t="s"/>
       <x:c r="BI72" s="1" t="s"/>
-      <x:c r="BJ72" s="5" t="s"/>
-      <x:c r="BK72" s="5" t="s"/>
+      <x:c r="BJ72" s="1" t="s"/>
+      <x:c r="BK72" s="1" t="s"/>
       <x:c r="BL72" s="5" t="s"/>
       <x:c r="BM72" s="5" t="s"/>
       <x:c r="BN72" s="5" t="s"/>
       <x:c r="BO72" s="5" t="s"/>
       <x:c r="BP72" s="5" t="s"/>
       <x:c r="BQ72" s="5" t="s"/>
-    </x:row>
-    <x:row r="73" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR72" s="5" t="s"/>
+      <x:c r="BS72" s="5" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A73" s="5" t="s"/>
       <x:c r="B73" s="5" t="s"/>
       <x:c r="C73" s="6" t="s"/>
       <x:c r="D73" s="6" t="s"/>
-      <x:c r="E73" s="2" t="s"/>
-      <x:c r="F73" s="2" t="s"/>
+      <x:c r="E73" s="6" t="s"/>
+      <x:c r="F73" s="6" t="s"/>
       <x:c r="G73" s="2" t="s"/>
       <x:c r="H73" s="2" t="s"/>
       <x:c r="I73" s="2" t="s"/>
@@ -5419,8 +5518,8 @@
       <x:c r="K73" s="2" t="s"/>
       <x:c r="L73" s="2" t="s"/>
       <x:c r="M73" s="2" t="s"/>
-      <x:c r="N73" s="1" t="s"/>
-      <x:c r="O73" s="1" t="s"/>
+      <x:c r="N73" s="2" t="s"/>
+      <x:c r="O73" s="2" t="s"/>
       <x:c r="P73" s="1" t="s"/>
       <x:c r="Q73" s="1" t="s"/>
       <x:c r="R73" s="1" t="s"/>
@@ -5467,22 +5566,24 @@
       <x:c r="BG73" s="1" t="s"/>
       <x:c r="BH73" s="1" t="s"/>
       <x:c r="BI73" s="1" t="s"/>
-      <x:c r="BJ73" s="5" t="s"/>
-      <x:c r="BK73" s="5" t="s"/>
+      <x:c r="BJ73" s="1" t="s"/>
+      <x:c r="BK73" s="1" t="s"/>
       <x:c r="BL73" s="5" t="s"/>
       <x:c r="BM73" s="5" t="s"/>
       <x:c r="BN73" s="5" t="s"/>
       <x:c r="BO73" s="5" t="s"/>
       <x:c r="BP73" s="5" t="s"/>
       <x:c r="BQ73" s="5" t="s"/>
-    </x:row>
-    <x:row r="74" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR73" s="5" t="s"/>
+      <x:c r="BS73" s="5" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A74" s="5" t="s"/>
       <x:c r="B74" s="5" t="s"/>
       <x:c r="C74" s="6" t="s"/>
       <x:c r="D74" s="6" t="s"/>
-      <x:c r="E74" s="2" t="s"/>
-      <x:c r="F74" s="2" t="s"/>
+      <x:c r="E74" s="6" t="s"/>
+      <x:c r="F74" s="6" t="s"/>
       <x:c r="G74" s="2" t="s"/>
       <x:c r="H74" s="2" t="s"/>
       <x:c r="I74" s="2" t="s"/>
@@ -5490,8 +5591,8 @@
       <x:c r="K74" s="2" t="s"/>
       <x:c r="L74" s="2" t="s"/>
       <x:c r="M74" s="2" t="s"/>
-      <x:c r="N74" s="1" t="s"/>
-      <x:c r="O74" s="1" t="s"/>
+      <x:c r="N74" s="2" t="s"/>
+      <x:c r="O74" s="2" t="s"/>
       <x:c r="P74" s="1" t="s"/>
       <x:c r="Q74" s="1" t="s"/>
       <x:c r="R74" s="1" t="s"/>
@@ -5538,22 +5639,24 @@
       <x:c r="BG74" s="1" t="s"/>
       <x:c r="BH74" s="1" t="s"/>
       <x:c r="BI74" s="1" t="s"/>
-      <x:c r="BJ74" s="5" t="s"/>
-      <x:c r="BK74" s="5" t="s"/>
+      <x:c r="BJ74" s="1" t="s"/>
+      <x:c r="BK74" s="1" t="s"/>
       <x:c r="BL74" s="5" t="s"/>
       <x:c r="BM74" s="5" t="s"/>
       <x:c r="BN74" s="5" t="s"/>
       <x:c r="BO74" s="5" t="s"/>
       <x:c r="BP74" s="5" t="s"/>
       <x:c r="BQ74" s="5" t="s"/>
-    </x:row>
-    <x:row r="75" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR74" s="5" t="s"/>
+      <x:c r="BS74" s="5" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A75" s="5" t="s"/>
       <x:c r="B75" s="5" t="s"/>
       <x:c r="C75" s="6" t="s"/>
       <x:c r="D75" s="6" t="s"/>
-      <x:c r="E75" s="2" t="s"/>
-      <x:c r="F75" s="2" t="s"/>
+      <x:c r="E75" s="6" t="s"/>
+      <x:c r="F75" s="6" t="s"/>
       <x:c r="G75" s="2" t="s"/>
       <x:c r="H75" s="2" t="s"/>
       <x:c r="I75" s="2" t="s"/>
@@ -5561,8 +5664,8 @@
       <x:c r="K75" s="2" t="s"/>
       <x:c r="L75" s="2" t="s"/>
       <x:c r="M75" s="2" t="s"/>
-      <x:c r="N75" s="1" t="s"/>
-      <x:c r="O75" s="1" t="s"/>
+      <x:c r="N75" s="2" t="s"/>
+      <x:c r="O75" s="2" t="s"/>
       <x:c r="P75" s="1" t="s"/>
       <x:c r="Q75" s="1" t="s"/>
       <x:c r="R75" s="1" t="s"/>
@@ -5609,22 +5712,24 @@
       <x:c r="BG75" s="1" t="s"/>
       <x:c r="BH75" s="1" t="s"/>
       <x:c r="BI75" s="1" t="s"/>
-      <x:c r="BJ75" s="5" t="s"/>
-      <x:c r="BK75" s="5" t="s"/>
+      <x:c r="BJ75" s="1" t="s"/>
+      <x:c r="BK75" s="1" t="s"/>
       <x:c r="BL75" s="5" t="s"/>
       <x:c r="BM75" s="5" t="s"/>
       <x:c r="BN75" s="5" t="s"/>
       <x:c r="BO75" s="5" t="s"/>
       <x:c r="BP75" s="5" t="s"/>
       <x:c r="BQ75" s="5" t="s"/>
-    </x:row>
-    <x:row r="76" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR75" s="5" t="s"/>
+      <x:c r="BS75" s="5" t="s"/>
+    </x:row>
+    <x:row r="76" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A76" s="5" t="s"/>
       <x:c r="B76" s="5" t="s"/>
       <x:c r="C76" s="6" t="s"/>
       <x:c r="D76" s="8" t="s"/>
-      <x:c r="E76" s="2" t="s"/>
-      <x:c r="F76" s="2" t="s"/>
+      <x:c r="E76" s="8" t="s"/>
+      <x:c r="F76" s="8" t="s"/>
       <x:c r="G76" s="2" t="s"/>
       <x:c r="H76" s="2" t="s"/>
       <x:c r="I76" s="2" t="s"/>
@@ -5632,8 +5737,8 @@
       <x:c r="K76" s="2" t="s"/>
       <x:c r="L76" s="2" t="s"/>
       <x:c r="M76" s="2" t="s"/>
-      <x:c r="N76" s="1" t="s"/>
-      <x:c r="O76" s="1" t="s"/>
+      <x:c r="N76" s="2" t="s"/>
+      <x:c r="O76" s="2" t="s"/>
       <x:c r="P76" s="1" t="s"/>
       <x:c r="Q76" s="1" t="s"/>
       <x:c r="R76" s="1" t="s"/>
@@ -5680,22 +5785,24 @@
       <x:c r="BG76" s="1" t="s"/>
       <x:c r="BH76" s="1" t="s"/>
       <x:c r="BI76" s="1" t="s"/>
-      <x:c r="BJ76" s="5" t="s"/>
-      <x:c r="BK76" s="5" t="s"/>
+      <x:c r="BJ76" s="1" t="s"/>
+      <x:c r="BK76" s="1" t="s"/>
       <x:c r="BL76" s="5" t="s"/>
       <x:c r="BM76" s="5" t="s"/>
       <x:c r="BN76" s="5" t="s"/>
       <x:c r="BO76" s="5" t="s"/>
       <x:c r="BP76" s="5" t="s"/>
       <x:c r="BQ76" s="5" t="s"/>
-    </x:row>
-    <x:row r="77" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR76" s="5" t="s"/>
+      <x:c r="BS76" s="5" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A77" s="5" t="s"/>
       <x:c r="B77" s="7" t="s"/>
       <x:c r="C77" s="6" t="s"/>
       <x:c r="D77" s="6" t="s"/>
-      <x:c r="E77" s="2" t="s"/>
-      <x:c r="F77" s="2" t="s"/>
+      <x:c r="E77" s="6" t="s"/>
+      <x:c r="F77" s="6" t="s"/>
       <x:c r="G77" s="2" t="s"/>
       <x:c r="H77" s="2" t="s"/>
       <x:c r="I77" s="2" t="s"/>
@@ -5703,8 +5810,8 @@
       <x:c r="K77" s="2" t="s"/>
       <x:c r="L77" s="2" t="s"/>
       <x:c r="M77" s="2" t="s"/>
-      <x:c r="N77" s="1" t="s"/>
-      <x:c r="O77" s="1" t="s"/>
+      <x:c r="N77" s="2" t="s"/>
+      <x:c r="O77" s="2" t="s"/>
       <x:c r="P77" s="1" t="s"/>
       <x:c r="Q77" s="1" t="s"/>
       <x:c r="R77" s="1" t="s"/>
@@ -5751,22 +5858,24 @@
       <x:c r="BG77" s="1" t="s"/>
       <x:c r="BH77" s="1" t="s"/>
       <x:c r="BI77" s="1" t="s"/>
-      <x:c r="BJ77" s="5" t="s"/>
-      <x:c r="BK77" s="5" t="s"/>
+      <x:c r="BJ77" s="1" t="s"/>
+      <x:c r="BK77" s="1" t="s"/>
       <x:c r="BL77" s="5" t="s"/>
       <x:c r="BM77" s="5" t="s"/>
       <x:c r="BN77" s="5" t="s"/>
       <x:c r="BO77" s="5" t="s"/>
       <x:c r="BP77" s="5" t="s"/>
       <x:c r="BQ77" s="5" t="s"/>
-    </x:row>
-    <x:row r="78" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR77" s="5" t="s"/>
+      <x:c r="BS77" s="5" t="s"/>
+    </x:row>
+    <x:row r="78" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A78" s="5" t="s"/>
       <x:c r="B78" s="5" t="s"/>
       <x:c r="C78" s="6" t="s"/>
       <x:c r="D78" s="6" t="s"/>
-      <x:c r="E78" s="2" t="s"/>
-      <x:c r="F78" s="2" t="s"/>
+      <x:c r="E78" s="6" t="s"/>
+      <x:c r="F78" s="6" t="s"/>
       <x:c r="G78" s="2" t="s"/>
       <x:c r="H78" s="2" t="s"/>
       <x:c r="I78" s="2" t="s"/>
@@ -5774,8 +5883,8 @@
       <x:c r="K78" s="2" t="s"/>
       <x:c r="L78" s="2" t="s"/>
       <x:c r="M78" s="2" t="s"/>
-      <x:c r="N78" s="1" t="s"/>
-      <x:c r="O78" s="1" t="s"/>
+      <x:c r="N78" s="2" t="s"/>
+      <x:c r="O78" s="2" t="s"/>
       <x:c r="P78" s="1" t="s"/>
       <x:c r="Q78" s="1" t="s"/>
       <x:c r="R78" s="1" t="s"/>
@@ -5822,22 +5931,24 @@
       <x:c r="BG78" s="1" t="s"/>
       <x:c r="BH78" s="1" t="s"/>
       <x:c r="BI78" s="1" t="s"/>
-      <x:c r="BJ78" s="5" t="s"/>
-      <x:c r="BK78" s="5" t="s"/>
+      <x:c r="BJ78" s="1" t="s"/>
+      <x:c r="BK78" s="1" t="s"/>
       <x:c r="BL78" s="5" t="s"/>
       <x:c r="BM78" s="5" t="s"/>
       <x:c r="BN78" s="5" t="s"/>
       <x:c r="BO78" s="5" t="s"/>
       <x:c r="BP78" s="5" t="s"/>
       <x:c r="BQ78" s="5" t="s"/>
-    </x:row>
-    <x:row r="79" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR78" s="5" t="s"/>
+      <x:c r="BS78" s="5" t="s"/>
+    </x:row>
+    <x:row r="79" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A79" s="5" t="s"/>
       <x:c r="B79" s="5" t="s"/>
       <x:c r="C79" s="6" t="s"/>
       <x:c r="D79" s="8" t="s"/>
-      <x:c r="E79" s="2" t="s"/>
-      <x:c r="F79" s="2" t="s"/>
+      <x:c r="E79" s="8" t="s"/>
+      <x:c r="F79" s="8" t="s"/>
       <x:c r="G79" s="2" t="s"/>
       <x:c r="H79" s="2" t="s"/>
       <x:c r="I79" s="2" t="s"/>
@@ -5845,8 +5956,8 @@
       <x:c r="K79" s="2" t="s"/>
       <x:c r="L79" s="2" t="s"/>
       <x:c r="M79" s="2" t="s"/>
-      <x:c r="N79" s="1" t="s"/>
-      <x:c r="O79" s="1" t="s"/>
+      <x:c r="N79" s="2" t="s"/>
+      <x:c r="O79" s="2" t="s"/>
       <x:c r="P79" s="1" t="s"/>
       <x:c r="Q79" s="1" t="s"/>
       <x:c r="R79" s="1" t="s"/>
@@ -5893,22 +6004,24 @@
       <x:c r="BG79" s="1" t="s"/>
       <x:c r="BH79" s="1" t="s"/>
       <x:c r="BI79" s="1" t="s"/>
-      <x:c r="BJ79" s="5" t="s"/>
-      <x:c r="BK79" s="5" t="s"/>
+      <x:c r="BJ79" s="1" t="s"/>
+      <x:c r="BK79" s="1" t="s"/>
       <x:c r="BL79" s="5" t="s"/>
       <x:c r="BM79" s="5" t="s"/>
       <x:c r="BN79" s="5" t="s"/>
       <x:c r="BO79" s="5" t="s"/>
       <x:c r="BP79" s="5" t="s"/>
       <x:c r="BQ79" s="5" t="s"/>
-    </x:row>
-    <x:row r="80" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR79" s="5" t="s"/>
+      <x:c r="BS79" s="5" t="s"/>
+    </x:row>
+    <x:row r="80" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A80" s="5" t="s"/>
       <x:c r="B80" s="5" t="s"/>
       <x:c r="C80" s="6" t="s"/>
       <x:c r="D80" s="6" t="s"/>
-      <x:c r="E80" s="2" t="s"/>
-      <x:c r="F80" s="2" t="s"/>
+      <x:c r="E80" s="6" t="s"/>
+      <x:c r="F80" s="6" t="s"/>
       <x:c r="G80" s="2" t="s"/>
       <x:c r="H80" s="2" t="s"/>
       <x:c r="I80" s="2" t="s"/>
@@ -5916,8 +6029,8 @@
       <x:c r="K80" s="2" t="s"/>
       <x:c r="L80" s="2" t="s"/>
       <x:c r="M80" s="2" t="s"/>
-      <x:c r="N80" s="1" t="s"/>
-      <x:c r="O80" s="1" t="s"/>
+      <x:c r="N80" s="2" t="s"/>
+      <x:c r="O80" s="2" t="s"/>
       <x:c r="P80" s="1" t="s"/>
       <x:c r="Q80" s="1" t="s"/>
       <x:c r="R80" s="1" t="s"/>
@@ -5964,22 +6077,24 @@
       <x:c r="BG80" s="1" t="s"/>
       <x:c r="BH80" s="1" t="s"/>
       <x:c r="BI80" s="1" t="s"/>
-      <x:c r="BJ80" s="5" t="s"/>
-      <x:c r="BK80" s="5" t="s"/>
+      <x:c r="BJ80" s="1" t="s"/>
+      <x:c r="BK80" s="1" t="s"/>
       <x:c r="BL80" s="5" t="s"/>
       <x:c r="BM80" s="5" t="s"/>
       <x:c r="BN80" s="5" t="s"/>
       <x:c r="BO80" s="5" t="s"/>
       <x:c r="BP80" s="5" t="s"/>
       <x:c r="BQ80" s="5" t="s"/>
-    </x:row>
-    <x:row r="81" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR80" s="5" t="s"/>
+      <x:c r="BS80" s="5" t="s"/>
+    </x:row>
+    <x:row r="81" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A81" s="5" t="s"/>
       <x:c r="B81" s="7" t="s"/>
       <x:c r="C81" s="6" t="s"/>
       <x:c r="D81" s="8" t="s"/>
-      <x:c r="E81" s="2" t="s"/>
-      <x:c r="F81" s="2" t="s"/>
+      <x:c r="E81" s="8" t="s"/>
+      <x:c r="F81" s="8" t="s"/>
       <x:c r="G81" s="2" t="s"/>
       <x:c r="H81" s="2" t="s"/>
       <x:c r="I81" s="2" t="s"/>
@@ -5987,8 +6102,8 @@
       <x:c r="K81" s="2" t="s"/>
       <x:c r="L81" s="2" t="s"/>
       <x:c r="M81" s="2" t="s"/>
-      <x:c r="N81" s="1" t="s"/>
-      <x:c r="O81" s="1" t="s"/>
+      <x:c r="N81" s="2" t="s"/>
+      <x:c r="O81" s="2" t="s"/>
       <x:c r="P81" s="1" t="s"/>
       <x:c r="Q81" s="1" t="s"/>
       <x:c r="R81" s="1" t="s"/>
@@ -6035,22 +6150,24 @@
       <x:c r="BG81" s="1" t="s"/>
       <x:c r="BH81" s="1" t="s"/>
       <x:c r="BI81" s="1" t="s"/>
-      <x:c r="BJ81" s="5" t="s"/>
-      <x:c r="BK81" s="5" t="s"/>
+      <x:c r="BJ81" s="1" t="s"/>
+      <x:c r="BK81" s="1" t="s"/>
       <x:c r="BL81" s="5" t="s"/>
       <x:c r="BM81" s="5" t="s"/>
       <x:c r="BN81" s="5" t="s"/>
       <x:c r="BO81" s="5" t="s"/>
       <x:c r="BP81" s="5" t="s"/>
       <x:c r="BQ81" s="5" t="s"/>
-    </x:row>
-    <x:row r="82" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR81" s="5" t="s"/>
+      <x:c r="BS81" s="5" t="s"/>
+    </x:row>
+    <x:row r="82" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A82" s="5" t="s"/>
       <x:c r="B82" s="5" t="s"/>
       <x:c r="C82" s="6" t="s"/>
       <x:c r="D82" s="6" t="s"/>
-      <x:c r="E82" s="2" t="s"/>
-      <x:c r="F82" s="2" t="s"/>
+      <x:c r="E82" s="6" t="s"/>
+      <x:c r="F82" s="6" t="s"/>
       <x:c r="G82" s="2" t="s"/>
       <x:c r="H82" s="2" t="s"/>
       <x:c r="I82" s="2" t="s"/>
@@ -6058,8 +6175,8 @@
       <x:c r="K82" s="2" t="s"/>
       <x:c r="L82" s="2" t="s"/>
       <x:c r="M82" s="2" t="s"/>
-      <x:c r="N82" s="1" t="s"/>
-      <x:c r="O82" s="1" t="s"/>
+      <x:c r="N82" s="2" t="s"/>
+      <x:c r="O82" s="2" t="s"/>
       <x:c r="P82" s="1" t="s"/>
       <x:c r="Q82" s="1" t="s"/>
       <x:c r="R82" s="1" t="s"/>
@@ -6106,22 +6223,24 @@
       <x:c r="BG82" s="1" t="s"/>
       <x:c r="BH82" s="1" t="s"/>
       <x:c r="BI82" s="1" t="s"/>
-      <x:c r="BJ82" s="5" t="s"/>
-      <x:c r="BK82" s="5" t="s"/>
+      <x:c r="BJ82" s="1" t="s"/>
+      <x:c r="BK82" s="1" t="s"/>
       <x:c r="BL82" s="5" t="s"/>
       <x:c r="BM82" s="5" t="s"/>
       <x:c r="BN82" s="5" t="s"/>
       <x:c r="BO82" s="5" t="s"/>
       <x:c r="BP82" s="5" t="s"/>
       <x:c r="BQ82" s="5" t="s"/>
-    </x:row>
-    <x:row r="83" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR82" s="5" t="s"/>
+      <x:c r="BS82" s="5" t="s"/>
+    </x:row>
+    <x:row r="83" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A83" s="5" t="s"/>
       <x:c r="B83" s="6" t="s"/>
       <x:c r="C83" s="6" t="s"/>
       <x:c r="D83" s="6" t="s"/>
-      <x:c r="E83" s="2" t="s"/>
-      <x:c r="F83" s="2" t="s"/>
+      <x:c r="E83" s="6" t="s"/>
+      <x:c r="F83" s="6" t="s"/>
       <x:c r="G83" s="2" t="s"/>
       <x:c r="H83" s="2" t="s"/>
       <x:c r="I83" s="2" t="s"/>
@@ -6129,8 +6248,8 @@
       <x:c r="K83" s="2" t="s"/>
       <x:c r="L83" s="2" t="s"/>
       <x:c r="M83" s="2" t="s"/>
-      <x:c r="N83" s="1" t="s"/>
-      <x:c r="O83" s="1" t="s"/>
+      <x:c r="N83" s="2" t="s"/>
+      <x:c r="O83" s="2" t="s"/>
       <x:c r="P83" s="1" t="s"/>
       <x:c r="Q83" s="1" t="s"/>
       <x:c r="R83" s="1" t="s"/>
@@ -6177,22 +6296,24 @@
       <x:c r="BG83" s="1" t="s"/>
       <x:c r="BH83" s="1" t="s"/>
       <x:c r="BI83" s="1" t="s"/>
-      <x:c r="BJ83" s="5" t="s"/>
-      <x:c r="BK83" s="5" t="s"/>
+      <x:c r="BJ83" s="1" t="s"/>
+      <x:c r="BK83" s="1" t="s"/>
       <x:c r="BL83" s="5" t="s"/>
       <x:c r="BM83" s="5" t="s"/>
       <x:c r="BN83" s="5" t="s"/>
       <x:c r="BO83" s="5" t="s"/>
       <x:c r="BP83" s="5" t="s"/>
       <x:c r="BQ83" s="5" t="s"/>
-    </x:row>
-    <x:row r="84" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR83" s="5" t="s"/>
+      <x:c r="BS83" s="5" t="s"/>
+    </x:row>
+    <x:row r="84" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A84" s="5" t="s"/>
       <x:c r="B84" s="6" t="s"/>
       <x:c r="C84" s="6" t="s"/>
       <x:c r="D84" s="6" t="s"/>
-      <x:c r="E84" s="2" t="s"/>
-      <x:c r="F84" s="2" t="s"/>
+      <x:c r="E84" s="6" t="s"/>
+      <x:c r="F84" s="6" t="s"/>
       <x:c r="G84" s="2" t="s"/>
       <x:c r="H84" s="2" t="s"/>
       <x:c r="I84" s="2" t="s"/>
@@ -6200,8 +6321,8 @@
       <x:c r="K84" s="2" t="s"/>
       <x:c r="L84" s="2" t="s"/>
       <x:c r="M84" s="2" t="s"/>
-      <x:c r="N84" s="1" t="s"/>
-      <x:c r="O84" s="1" t="s"/>
+      <x:c r="N84" s="2" t="s"/>
+      <x:c r="O84" s="2" t="s"/>
       <x:c r="P84" s="1" t="s"/>
       <x:c r="Q84" s="1" t="s"/>
       <x:c r="R84" s="1" t="s"/>
@@ -6248,22 +6369,24 @@
       <x:c r="BG84" s="1" t="s"/>
       <x:c r="BH84" s="1" t="s"/>
       <x:c r="BI84" s="1" t="s"/>
-      <x:c r="BJ84" s="5" t="s"/>
-      <x:c r="BK84" s="5" t="s"/>
+      <x:c r="BJ84" s="1" t="s"/>
+      <x:c r="BK84" s="1" t="s"/>
       <x:c r="BL84" s="5" t="s"/>
       <x:c r="BM84" s="5" t="s"/>
       <x:c r="BN84" s="5" t="s"/>
       <x:c r="BO84" s="5" t="s"/>
       <x:c r="BP84" s="5" t="s"/>
       <x:c r="BQ84" s="5" t="s"/>
-    </x:row>
-    <x:row r="85" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR84" s="5" t="s"/>
+      <x:c r="BS84" s="5" t="s"/>
+    </x:row>
+    <x:row r="85" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A85" s="5" t="s"/>
       <x:c r="B85" s="6" t="s"/>
       <x:c r="C85" s="6" t="s"/>
       <x:c r="D85" s="6" t="s"/>
-      <x:c r="E85" s="2" t="s"/>
-      <x:c r="F85" s="2" t="s"/>
+      <x:c r="E85" s="6" t="s"/>
+      <x:c r="F85" s="6" t="s"/>
       <x:c r="G85" s="2" t="s"/>
       <x:c r="H85" s="2" t="s"/>
       <x:c r="I85" s="2" t="s"/>
@@ -6271,8 +6394,8 @@
       <x:c r="K85" s="2" t="s"/>
       <x:c r="L85" s="2" t="s"/>
       <x:c r="M85" s="2" t="s"/>
-      <x:c r="N85" s="1" t="s"/>
-      <x:c r="O85" s="1" t="s"/>
+      <x:c r="N85" s="2" t="s"/>
+      <x:c r="O85" s="2" t="s"/>
       <x:c r="P85" s="1" t="s"/>
       <x:c r="Q85" s="1" t="s"/>
       <x:c r="R85" s="1" t="s"/>
@@ -6319,22 +6442,24 @@
       <x:c r="BG85" s="1" t="s"/>
       <x:c r="BH85" s="1" t="s"/>
       <x:c r="BI85" s="1" t="s"/>
-      <x:c r="BJ85" s="5" t="s"/>
-      <x:c r="BK85" s="5" t="s"/>
+      <x:c r="BJ85" s="1" t="s"/>
+      <x:c r="BK85" s="1" t="s"/>
       <x:c r="BL85" s="5" t="s"/>
       <x:c r="BM85" s="5" t="s"/>
       <x:c r="BN85" s="5" t="s"/>
       <x:c r="BO85" s="5" t="s"/>
       <x:c r="BP85" s="5" t="s"/>
       <x:c r="BQ85" s="5" t="s"/>
-    </x:row>
-    <x:row r="86" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR85" s="5" t="s"/>
+      <x:c r="BS85" s="5" t="s"/>
+    </x:row>
+    <x:row r="86" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A86" s="5" t="s"/>
       <x:c r="B86" s="6" t="s"/>
       <x:c r="C86" s="6" t="s"/>
       <x:c r="D86" s="6" t="s"/>
-      <x:c r="E86" s="2" t="s"/>
-      <x:c r="F86" s="2" t="s"/>
+      <x:c r="E86" s="6" t="s"/>
+      <x:c r="F86" s="6" t="s"/>
       <x:c r="G86" s="2" t="s"/>
       <x:c r="H86" s="2" t="s"/>
       <x:c r="I86" s="2" t="s"/>
@@ -6342,8 +6467,8 @@
       <x:c r="K86" s="2" t="s"/>
       <x:c r="L86" s="2" t="s"/>
       <x:c r="M86" s="2" t="s"/>
-      <x:c r="N86" s="1" t="s"/>
-      <x:c r="O86" s="1" t="s"/>
+      <x:c r="N86" s="2" t="s"/>
+      <x:c r="O86" s="2" t="s"/>
       <x:c r="P86" s="1" t="s"/>
       <x:c r="Q86" s="1" t="s"/>
       <x:c r="R86" s="1" t="s"/>
@@ -6390,22 +6515,24 @@
       <x:c r="BG86" s="1" t="s"/>
       <x:c r="BH86" s="1" t="s"/>
       <x:c r="BI86" s="1" t="s"/>
-      <x:c r="BJ86" s="5" t="s"/>
-      <x:c r="BK86" s="5" t="s"/>
+      <x:c r="BJ86" s="1" t="s"/>
+      <x:c r="BK86" s="1" t="s"/>
       <x:c r="BL86" s="5" t="s"/>
       <x:c r="BM86" s="5" t="s"/>
       <x:c r="BN86" s="5" t="s"/>
       <x:c r="BO86" s="5" t="s"/>
       <x:c r="BP86" s="5" t="s"/>
       <x:c r="BQ86" s="5" t="s"/>
-    </x:row>
-    <x:row r="87" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR86" s="5" t="s"/>
+      <x:c r="BS86" s="5" t="s"/>
+    </x:row>
+    <x:row r="87" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A87" s="5" t="s"/>
       <x:c r="B87" s="6" t="s"/>
       <x:c r="C87" s="6" t="s"/>
       <x:c r="D87" s="6" t="s"/>
-      <x:c r="E87" s="2" t="s"/>
-      <x:c r="F87" s="2" t="s"/>
+      <x:c r="E87" s="6" t="s"/>
+      <x:c r="F87" s="6" t="s"/>
       <x:c r="G87" s="2" t="s"/>
       <x:c r="H87" s="2" t="s"/>
       <x:c r="I87" s="2" t="s"/>
@@ -6413,8 +6540,8 @@
       <x:c r="K87" s="2" t="s"/>
       <x:c r="L87" s="2" t="s"/>
       <x:c r="M87" s="2" t="s"/>
-      <x:c r="N87" s="1" t="s"/>
-      <x:c r="O87" s="1" t="s"/>
+      <x:c r="N87" s="2" t="s"/>
+      <x:c r="O87" s="2" t="s"/>
       <x:c r="P87" s="1" t="s"/>
       <x:c r="Q87" s="1" t="s"/>
       <x:c r="R87" s="1" t="s"/>
@@ -6461,22 +6588,24 @@
       <x:c r="BG87" s="1" t="s"/>
       <x:c r="BH87" s="1" t="s"/>
       <x:c r="BI87" s="1" t="s"/>
-      <x:c r="BJ87" s="5" t="s"/>
-      <x:c r="BK87" s="5" t="s"/>
+      <x:c r="BJ87" s="1" t="s"/>
+      <x:c r="BK87" s="1" t="s"/>
       <x:c r="BL87" s="5" t="s"/>
       <x:c r="BM87" s="5" t="s"/>
       <x:c r="BN87" s="5" t="s"/>
       <x:c r="BO87" s="5" t="s"/>
       <x:c r="BP87" s="5" t="s"/>
       <x:c r="BQ87" s="5" t="s"/>
-    </x:row>
-    <x:row r="88" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR87" s="5" t="s"/>
+      <x:c r="BS87" s="5" t="s"/>
+    </x:row>
+    <x:row r="88" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A88" s="5" t="s"/>
       <x:c r="B88" s="6" t="s"/>
       <x:c r="C88" s="6" t="s"/>
       <x:c r="D88" s="6" t="s"/>
-      <x:c r="E88" s="2" t="s"/>
-      <x:c r="F88" s="2" t="s"/>
+      <x:c r="E88" s="6" t="s"/>
+      <x:c r="F88" s="6" t="s"/>
       <x:c r="G88" s="2" t="s"/>
       <x:c r="H88" s="2" t="s"/>
       <x:c r="I88" s="2" t="s"/>
@@ -6484,8 +6613,8 @@
       <x:c r="K88" s="2" t="s"/>
       <x:c r="L88" s="2" t="s"/>
       <x:c r="M88" s="2" t="s"/>
-      <x:c r="N88" s="1" t="s"/>
-      <x:c r="O88" s="1" t="s"/>
+      <x:c r="N88" s="2" t="s"/>
+      <x:c r="O88" s="2" t="s"/>
       <x:c r="P88" s="1" t="s"/>
       <x:c r="Q88" s="1" t="s"/>
       <x:c r="R88" s="1" t="s"/>
@@ -6532,22 +6661,24 @@
       <x:c r="BG88" s="1" t="s"/>
       <x:c r="BH88" s="1" t="s"/>
       <x:c r="BI88" s="1" t="s"/>
-      <x:c r="BJ88" s="5" t="s"/>
-      <x:c r="BK88" s="5" t="s"/>
+      <x:c r="BJ88" s="1" t="s"/>
+      <x:c r="BK88" s="1" t="s"/>
       <x:c r="BL88" s="5" t="s"/>
       <x:c r="BM88" s="5" t="s"/>
       <x:c r="BN88" s="5" t="s"/>
       <x:c r="BO88" s="5" t="s"/>
       <x:c r="BP88" s="5" t="s"/>
       <x:c r="BQ88" s="5" t="s"/>
-    </x:row>
-    <x:row r="89" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR88" s="5" t="s"/>
+      <x:c r="BS88" s="5" t="s"/>
+    </x:row>
+    <x:row r="89" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A89" s="5" t="s"/>
       <x:c r="B89" s="6" t="s"/>
       <x:c r="C89" s="6" t="s"/>
       <x:c r="D89" s="6" t="s"/>
-      <x:c r="E89" s="2" t="s"/>
-      <x:c r="F89" s="2" t="s"/>
+      <x:c r="E89" s="6" t="s"/>
+      <x:c r="F89" s="6" t="s"/>
       <x:c r="G89" s="2" t="s"/>
       <x:c r="H89" s="2" t="s"/>
       <x:c r="I89" s="2" t="s"/>
@@ -6555,8 +6686,8 @@
       <x:c r="K89" s="2" t="s"/>
       <x:c r="L89" s="2" t="s"/>
       <x:c r="M89" s="2" t="s"/>
-      <x:c r="N89" s="1" t="s"/>
-      <x:c r="O89" s="1" t="s"/>
+      <x:c r="N89" s="2" t="s"/>
+      <x:c r="O89" s="2" t="s"/>
       <x:c r="P89" s="1" t="s"/>
       <x:c r="Q89" s="1" t="s"/>
       <x:c r="R89" s="1" t="s"/>
@@ -6603,22 +6734,24 @@
       <x:c r="BG89" s="1" t="s"/>
       <x:c r="BH89" s="1" t="s"/>
       <x:c r="BI89" s="1" t="s"/>
-      <x:c r="BJ89" s="5" t="s"/>
-      <x:c r="BK89" s="5" t="s"/>
+      <x:c r="BJ89" s="1" t="s"/>
+      <x:c r="BK89" s="1" t="s"/>
       <x:c r="BL89" s="5" t="s"/>
       <x:c r="BM89" s="5" t="s"/>
       <x:c r="BN89" s="5" t="s"/>
       <x:c r="BO89" s="5" t="s"/>
       <x:c r="BP89" s="5" t="s"/>
       <x:c r="BQ89" s="5" t="s"/>
-    </x:row>
-    <x:row r="90" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR89" s="5" t="s"/>
+      <x:c r="BS89" s="5" t="s"/>
+    </x:row>
+    <x:row r="90" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A90" s="5" t="s"/>
       <x:c r="B90" s="6" t="s"/>
       <x:c r="C90" s="6" t="s"/>
       <x:c r="D90" s="6" t="s"/>
-      <x:c r="E90" s="2" t="s"/>
-      <x:c r="F90" s="2" t="s"/>
+      <x:c r="E90" s="6" t="s"/>
+      <x:c r="F90" s="6" t="s"/>
       <x:c r="G90" s="2" t="s"/>
       <x:c r="H90" s="2" t="s"/>
       <x:c r="I90" s="2" t="s"/>
@@ -6626,8 +6759,8 @@
       <x:c r="K90" s="2" t="s"/>
       <x:c r="L90" s="2" t="s"/>
       <x:c r="M90" s="2" t="s"/>
-      <x:c r="N90" s="1" t="s"/>
-      <x:c r="O90" s="1" t="s"/>
+      <x:c r="N90" s="2" t="s"/>
+      <x:c r="O90" s="2" t="s"/>
       <x:c r="P90" s="1" t="s"/>
       <x:c r="Q90" s="1" t="s"/>
       <x:c r="R90" s="1" t="s"/>
@@ -6674,22 +6807,24 @@
       <x:c r="BG90" s="1" t="s"/>
       <x:c r="BH90" s="1" t="s"/>
       <x:c r="BI90" s="1" t="s"/>
-      <x:c r="BJ90" s="5" t="s"/>
-      <x:c r="BK90" s="5" t="s"/>
+      <x:c r="BJ90" s="1" t="s"/>
+      <x:c r="BK90" s="1" t="s"/>
       <x:c r="BL90" s="5" t="s"/>
       <x:c r="BM90" s="5" t="s"/>
       <x:c r="BN90" s="5" t="s"/>
       <x:c r="BO90" s="5" t="s"/>
       <x:c r="BP90" s="5" t="s"/>
       <x:c r="BQ90" s="5" t="s"/>
-    </x:row>
-    <x:row r="91" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR90" s="5" t="s"/>
+      <x:c r="BS90" s="5" t="s"/>
+    </x:row>
+    <x:row r="91" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A91" s="5" t="s"/>
       <x:c r="B91" s="6" t="s"/>
       <x:c r="C91" s="6" t="s"/>
       <x:c r="D91" s="6" t="s"/>
-      <x:c r="E91" s="2" t="s"/>
-      <x:c r="F91" s="2" t="s"/>
+      <x:c r="E91" s="6" t="s"/>
+      <x:c r="F91" s="6" t="s"/>
       <x:c r="G91" s="2" t="s"/>
       <x:c r="H91" s="2" t="s"/>
       <x:c r="I91" s="2" t="s"/>
@@ -6697,8 +6832,8 @@
       <x:c r="K91" s="2" t="s"/>
       <x:c r="L91" s="2" t="s"/>
       <x:c r="M91" s="2" t="s"/>
-      <x:c r="N91" s="1" t="s"/>
-      <x:c r="O91" s="1" t="s"/>
+      <x:c r="N91" s="2" t="s"/>
+      <x:c r="O91" s="2" t="s"/>
       <x:c r="P91" s="1" t="s"/>
       <x:c r="Q91" s="1" t="s"/>
       <x:c r="R91" s="1" t="s"/>
@@ -6745,22 +6880,24 @@
       <x:c r="BG91" s="1" t="s"/>
       <x:c r="BH91" s="1" t="s"/>
       <x:c r="BI91" s="1" t="s"/>
-      <x:c r="BJ91" s="5" t="s"/>
-      <x:c r="BK91" s="5" t="s"/>
+      <x:c r="BJ91" s="1" t="s"/>
+      <x:c r="BK91" s="1" t="s"/>
       <x:c r="BL91" s="5" t="s"/>
       <x:c r="BM91" s="5" t="s"/>
       <x:c r="BN91" s="5" t="s"/>
       <x:c r="BO91" s="5" t="s"/>
       <x:c r="BP91" s="5" t="s"/>
       <x:c r="BQ91" s="5" t="s"/>
-    </x:row>
-    <x:row r="92" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR91" s="5" t="s"/>
+      <x:c r="BS91" s="5" t="s"/>
+    </x:row>
+    <x:row r="92" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A92" s="5" t="s"/>
       <x:c r="B92" s="5" t="s"/>
       <x:c r="C92" s="5" t="s"/>
       <x:c r="D92" s="5" t="s"/>
-      <x:c r="E92" s="1" t="s"/>
-      <x:c r="F92" s="1" t="s"/>
+      <x:c r="E92" s="5" t="s"/>
+      <x:c r="F92" s="5" t="s"/>
       <x:c r="G92" s="1" t="s"/>
       <x:c r="H92" s="1" t="s"/>
       <x:c r="I92" s="1" t="s"/>
@@ -6816,22 +6953,24 @@
       <x:c r="BG92" s="1" t="s"/>
       <x:c r="BH92" s="1" t="s"/>
       <x:c r="BI92" s="1" t="s"/>
-      <x:c r="BJ92" s="5" t="s"/>
-      <x:c r="BK92" s="5" t="s"/>
+      <x:c r="BJ92" s="1" t="s"/>
+      <x:c r="BK92" s="1" t="s"/>
       <x:c r="BL92" s="5" t="s"/>
       <x:c r="BM92" s="5" t="s"/>
       <x:c r="BN92" s="5" t="s"/>
       <x:c r="BO92" s="5" t="s"/>
       <x:c r="BP92" s="5" t="s"/>
       <x:c r="BQ92" s="5" t="s"/>
-    </x:row>
-    <x:row r="93" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR92" s="5" t="s"/>
+      <x:c r="BS92" s="5" t="s"/>
+    </x:row>
+    <x:row r="93" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A93" s="5" t="s"/>
       <x:c r="B93" s="5" t="s"/>
       <x:c r="C93" s="5" t="s"/>
       <x:c r="D93" s="5" t="s"/>
-      <x:c r="E93" s="1" t="s"/>
-      <x:c r="F93" s="1" t="s"/>
+      <x:c r="E93" s="5" t="s"/>
+      <x:c r="F93" s="5" t="s"/>
       <x:c r="G93" s="1" t="s"/>
       <x:c r="H93" s="1" t="s"/>
       <x:c r="I93" s="1" t="s"/>
@@ -6887,22 +7026,24 @@
       <x:c r="BG93" s="1" t="s"/>
       <x:c r="BH93" s="1" t="s"/>
       <x:c r="BI93" s="1" t="s"/>
-      <x:c r="BJ93" s="5" t="s"/>
-      <x:c r="BK93" s="5" t="s"/>
+      <x:c r="BJ93" s="1" t="s"/>
+      <x:c r="BK93" s="1" t="s"/>
       <x:c r="BL93" s="5" t="s"/>
       <x:c r="BM93" s="5" t="s"/>
       <x:c r="BN93" s="5" t="s"/>
       <x:c r="BO93" s="5" t="s"/>
       <x:c r="BP93" s="5" t="s"/>
       <x:c r="BQ93" s="5" t="s"/>
-    </x:row>
-    <x:row r="94" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR93" s="5" t="s"/>
+      <x:c r="BS93" s="5" t="s"/>
+    </x:row>
+    <x:row r="94" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A94" s="5" t="s"/>
       <x:c r="B94" s="5" t="s"/>
       <x:c r="C94" s="5" t="s"/>
       <x:c r="D94" s="5" t="s"/>
-      <x:c r="E94" s="1" t="s"/>
-      <x:c r="F94" s="1" t="s"/>
+      <x:c r="E94" s="5" t="s"/>
+      <x:c r="F94" s="5" t="s"/>
       <x:c r="G94" s="1" t="s"/>
       <x:c r="H94" s="1" t="s"/>
       <x:c r="I94" s="1" t="s"/>
@@ -6958,22 +7099,24 @@
       <x:c r="BG94" s="1" t="s"/>
       <x:c r="BH94" s="1" t="s"/>
       <x:c r="BI94" s="1" t="s"/>
-      <x:c r="BJ94" s="5" t="s"/>
-      <x:c r="BK94" s="5" t="s"/>
+      <x:c r="BJ94" s="1" t="s"/>
+      <x:c r="BK94" s="1" t="s"/>
       <x:c r="BL94" s="5" t="s"/>
       <x:c r="BM94" s="5" t="s"/>
       <x:c r="BN94" s="5" t="s"/>
       <x:c r="BO94" s="5" t="s"/>
       <x:c r="BP94" s="5" t="s"/>
       <x:c r="BQ94" s="5" t="s"/>
-    </x:row>
-    <x:row r="95" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR94" s="5" t="s"/>
+      <x:c r="BS94" s="5" t="s"/>
+    </x:row>
+    <x:row r="95" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A95" s="5" t="s"/>
       <x:c r="B95" s="5" t="s"/>
       <x:c r="C95" s="5" t="s"/>
       <x:c r="D95" s="5" t="s"/>
-      <x:c r="E95" s="1" t="s"/>
-      <x:c r="F95" s="1" t="s"/>
+      <x:c r="E95" s="5" t="s"/>
+      <x:c r="F95" s="5" t="s"/>
       <x:c r="G95" s="1" t="s"/>
       <x:c r="H95" s="1" t="s"/>
       <x:c r="I95" s="1" t="s"/>
@@ -7029,22 +7172,24 @@
       <x:c r="BG95" s="1" t="s"/>
       <x:c r="BH95" s="1" t="s"/>
       <x:c r="BI95" s="1" t="s"/>
-      <x:c r="BJ95" s="5" t="s"/>
-      <x:c r="BK95" s="5" t="s"/>
+      <x:c r="BJ95" s="1" t="s"/>
+      <x:c r="BK95" s="1" t="s"/>
       <x:c r="BL95" s="5" t="s"/>
       <x:c r="BM95" s="5" t="s"/>
       <x:c r="BN95" s="5" t="s"/>
       <x:c r="BO95" s="5" t="s"/>
       <x:c r="BP95" s="5" t="s"/>
       <x:c r="BQ95" s="5" t="s"/>
-    </x:row>
-    <x:row r="96" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR95" s="5" t="s"/>
+      <x:c r="BS95" s="5" t="s"/>
+    </x:row>
+    <x:row r="96" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A96" s="5" t="s"/>
       <x:c r="B96" s="5" t="s"/>
       <x:c r="C96" s="5" t="s"/>
       <x:c r="D96" s="5" t="s"/>
-      <x:c r="E96" s="1" t="s"/>
-      <x:c r="F96" s="1" t="s"/>
+      <x:c r="E96" s="5" t="s"/>
+      <x:c r="F96" s="5" t="s"/>
       <x:c r="G96" s="1" t="s"/>
       <x:c r="H96" s="1" t="s"/>
       <x:c r="I96" s="1" t="s"/>
@@ -7100,22 +7245,24 @@
       <x:c r="BG96" s="1" t="s"/>
       <x:c r="BH96" s="1" t="s"/>
       <x:c r="BI96" s="1" t="s"/>
-      <x:c r="BJ96" s="5" t="s"/>
-      <x:c r="BK96" s="5" t="s"/>
+      <x:c r="BJ96" s="1" t="s"/>
+      <x:c r="BK96" s="1" t="s"/>
       <x:c r="BL96" s="5" t="s"/>
       <x:c r="BM96" s="5" t="s"/>
       <x:c r="BN96" s="5" t="s"/>
       <x:c r="BO96" s="5" t="s"/>
       <x:c r="BP96" s="5" t="s"/>
       <x:c r="BQ96" s="5" t="s"/>
-    </x:row>
-    <x:row r="97" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR96" s="5" t="s"/>
+      <x:c r="BS96" s="5" t="s"/>
+    </x:row>
+    <x:row r="97" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A97" s="5" t="s"/>
       <x:c r="B97" s="5" t="s"/>
       <x:c r="C97" s="5" t="s"/>
       <x:c r="D97" s="5" t="s"/>
-      <x:c r="E97" s="1" t="s"/>
-      <x:c r="F97" s="1" t="s"/>
+      <x:c r="E97" s="5" t="s"/>
+      <x:c r="F97" s="5" t="s"/>
       <x:c r="G97" s="1" t="s"/>
       <x:c r="H97" s="1" t="s"/>
       <x:c r="I97" s="1" t="s"/>
@@ -7171,22 +7318,24 @@
       <x:c r="BG97" s="1" t="s"/>
       <x:c r="BH97" s="1" t="s"/>
       <x:c r="BI97" s="1" t="s"/>
-      <x:c r="BJ97" s="5" t="s"/>
-      <x:c r="BK97" s="5" t="s"/>
+      <x:c r="BJ97" s="1" t="s"/>
+      <x:c r="BK97" s="1" t="s"/>
       <x:c r="BL97" s="5" t="s"/>
       <x:c r="BM97" s="5" t="s"/>
       <x:c r="BN97" s="5" t="s"/>
       <x:c r="BO97" s="5" t="s"/>
       <x:c r="BP97" s="5" t="s"/>
       <x:c r="BQ97" s="5" t="s"/>
-    </x:row>
-    <x:row r="98" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR97" s="5" t="s"/>
+      <x:c r="BS97" s="5" t="s"/>
+    </x:row>
+    <x:row r="98" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A98" s="5" t="s"/>
       <x:c r="B98" s="5" t="s"/>
       <x:c r="C98" s="5" t="s"/>
       <x:c r="D98" s="5" t="s"/>
-      <x:c r="E98" s="1" t="s"/>
-      <x:c r="F98" s="1" t="s"/>
+      <x:c r="E98" s="5" t="s"/>
+      <x:c r="F98" s="5" t="s"/>
       <x:c r="G98" s="1" t="s"/>
       <x:c r="H98" s="1" t="s"/>
       <x:c r="I98" s="1" t="s"/>
@@ -7242,22 +7391,24 @@
       <x:c r="BG98" s="1" t="s"/>
       <x:c r="BH98" s="1" t="s"/>
       <x:c r="BI98" s="1" t="s"/>
-      <x:c r="BJ98" s="5" t="s"/>
-      <x:c r="BK98" s="5" t="s"/>
+      <x:c r="BJ98" s="1" t="s"/>
+      <x:c r="BK98" s="1" t="s"/>
       <x:c r="BL98" s="5" t="s"/>
       <x:c r="BM98" s="5" t="s"/>
       <x:c r="BN98" s="5" t="s"/>
       <x:c r="BO98" s="5" t="s"/>
       <x:c r="BP98" s="5" t="s"/>
       <x:c r="BQ98" s="5" t="s"/>
-    </x:row>
-    <x:row r="99" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR98" s="5" t="s"/>
+      <x:c r="BS98" s="5" t="s"/>
+    </x:row>
+    <x:row r="99" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A99" s="5" t="s"/>
       <x:c r="B99" s="5" t="s"/>
       <x:c r="C99" s="5" t="s"/>
       <x:c r="D99" s="5" t="s"/>
-      <x:c r="E99" s="1" t="s"/>
-      <x:c r="F99" s="1" t="s"/>
+      <x:c r="E99" s="5" t="s"/>
+      <x:c r="F99" s="5" t="s"/>
       <x:c r="G99" s="1" t="s"/>
       <x:c r="H99" s="1" t="s"/>
       <x:c r="I99" s="1" t="s"/>
@@ -7313,22 +7464,24 @@
       <x:c r="BG99" s="1" t="s"/>
       <x:c r="BH99" s="1" t="s"/>
       <x:c r="BI99" s="1" t="s"/>
-      <x:c r="BJ99" s="5" t="s"/>
-      <x:c r="BK99" s="5" t="s"/>
+      <x:c r="BJ99" s="1" t="s"/>
+      <x:c r="BK99" s="1" t="s"/>
       <x:c r="BL99" s="5" t="s"/>
       <x:c r="BM99" s="5" t="s"/>
       <x:c r="BN99" s="5" t="s"/>
       <x:c r="BO99" s="5" t="s"/>
       <x:c r="BP99" s="5" t="s"/>
       <x:c r="BQ99" s="5" t="s"/>
-    </x:row>
-    <x:row r="100" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR99" s="5" t="s"/>
+      <x:c r="BS99" s="5" t="s"/>
+    </x:row>
+    <x:row r="100" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A100" s="5" t="s"/>
       <x:c r="B100" s="5" t="s"/>
       <x:c r="C100" s="5" t="s"/>
       <x:c r="D100" s="5" t="s"/>
-      <x:c r="E100" s="1" t="s"/>
-      <x:c r="F100" s="1" t="s"/>
+      <x:c r="E100" s="5" t="s"/>
+      <x:c r="F100" s="5" t="s"/>
       <x:c r="G100" s="1" t="s"/>
       <x:c r="H100" s="1" t="s"/>
       <x:c r="I100" s="1" t="s"/>
@@ -7384,22 +7537,24 @@
       <x:c r="BG100" s="1" t="s"/>
       <x:c r="BH100" s="1" t="s"/>
       <x:c r="BI100" s="1" t="s"/>
-      <x:c r="BJ100" s="5" t="s"/>
-      <x:c r="BK100" s="5" t="s"/>
+      <x:c r="BJ100" s="1" t="s"/>
+      <x:c r="BK100" s="1" t="s"/>
       <x:c r="BL100" s="5" t="s"/>
       <x:c r="BM100" s="5" t="s"/>
       <x:c r="BN100" s="5" t="s"/>
       <x:c r="BO100" s="5" t="s"/>
       <x:c r="BP100" s="5" t="s"/>
       <x:c r="BQ100" s="5" t="s"/>
-    </x:row>
-    <x:row r="101" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR100" s="5" t="s"/>
+      <x:c r="BS100" s="5" t="s"/>
+    </x:row>
+    <x:row r="101" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A101" s="5" t="s"/>
       <x:c r="B101" s="5" t="s"/>
       <x:c r="C101" s="5" t="s"/>
       <x:c r="D101" s="5" t="s"/>
-      <x:c r="E101" s="1" t="s"/>
-      <x:c r="F101" s="1" t="s"/>
+      <x:c r="E101" s="5" t="s"/>
+      <x:c r="F101" s="5" t="s"/>
       <x:c r="G101" s="1" t="s"/>
       <x:c r="H101" s="1" t="s"/>
       <x:c r="I101" s="1" t="s"/>
@@ -7455,22 +7610,24 @@
       <x:c r="BG101" s="1" t="s"/>
       <x:c r="BH101" s="1" t="s"/>
       <x:c r="BI101" s="1" t="s"/>
-      <x:c r="BJ101" s="5" t="s"/>
-      <x:c r="BK101" s="5" t="s"/>
+      <x:c r="BJ101" s="1" t="s"/>
+      <x:c r="BK101" s="1" t="s"/>
       <x:c r="BL101" s="5" t="s"/>
       <x:c r="BM101" s="5" t="s"/>
       <x:c r="BN101" s="5" t="s"/>
       <x:c r="BO101" s="5" t="s"/>
       <x:c r="BP101" s="5" t="s"/>
       <x:c r="BQ101" s="5" t="s"/>
-    </x:row>
-    <x:row r="102" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR101" s="5" t="s"/>
+      <x:c r="BS101" s="5" t="s"/>
+    </x:row>
+    <x:row r="102" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A102" s="5" t="s"/>
       <x:c r="B102" s="5" t="s"/>
       <x:c r="C102" s="5" t="s"/>
       <x:c r="D102" s="5" t="s"/>
-      <x:c r="E102" s="1" t="s"/>
-      <x:c r="F102" s="1" t="s"/>
+      <x:c r="E102" s="5" t="s"/>
+      <x:c r="F102" s="5" t="s"/>
       <x:c r="G102" s="1" t="s"/>
       <x:c r="H102" s="1" t="s"/>
       <x:c r="I102" s="1" t="s"/>
@@ -7526,22 +7683,24 @@
       <x:c r="BG102" s="1" t="s"/>
       <x:c r="BH102" s="1" t="s"/>
       <x:c r="BI102" s="1" t="s"/>
-      <x:c r="BJ102" s="5" t="s"/>
-      <x:c r="BK102" s="5" t="s"/>
+      <x:c r="BJ102" s="1" t="s"/>
+      <x:c r="BK102" s="1" t="s"/>
       <x:c r="BL102" s="5" t="s"/>
       <x:c r="BM102" s="5" t="s"/>
       <x:c r="BN102" s="5" t="s"/>
       <x:c r="BO102" s="5" t="s"/>
       <x:c r="BP102" s="5" t="s"/>
       <x:c r="BQ102" s="5" t="s"/>
-    </x:row>
-    <x:row r="103" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR102" s="5" t="s"/>
+      <x:c r="BS102" s="5" t="s"/>
+    </x:row>
+    <x:row r="103" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A103" s="5" t="s"/>
       <x:c r="B103" s="5" t="s"/>
       <x:c r="C103" s="5" t="s"/>
       <x:c r="D103" s="5" t="s"/>
-      <x:c r="E103" s="1" t="s"/>
-      <x:c r="F103" s="1" t="s"/>
+      <x:c r="E103" s="5" t="s"/>
+      <x:c r="F103" s="5" t="s"/>
       <x:c r="G103" s="1" t="s"/>
       <x:c r="H103" s="1" t="s"/>
       <x:c r="I103" s="1" t="s"/>
@@ -7597,22 +7756,24 @@
       <x:c r="BG103" s="1" t="s"/>
       <x:c r="BH103" s="1" t="s"/>
       <x:c r="BI103" s="1" t="s"/>
-      <x:c r="BJ103" s="5" t="s"/>
-      <x:c r="BK103" s="5" t="s"/>
+      <x:c r="BJ103" s="1" t="s"/>
+      <x:c r="BK103" s="1" t="s"/>
       <x:c r="BL103" s="5" t="s"/>
       <x:c r="BM103" s="5" t="s"/>
       <x:c r="BN103" s="5" t="s"/>
       <x:c r="BO103" s="5" t="s"/>
       <x:c r="BP103" s="5" t="s"/>
       <x:c r="BQ103" s="5" t="s"/>
-    </x:row>
-    <x:row r="104" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR103" s="5" t="s"/>
+      <x:c r="BS103" s="5" t="s"/>
+    </x:row>
+    <x:row r="104" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A104" s="5" t="s"/>
       <x:c r="B104" s="5" t="s"/>
       <x:c r="C104" s="5" t="s"/>
       <x:c r="D104" s="5" t="s"/>
-      <x:c r="E104" s="1" t="s"/>
-      <x:c r="F104" s="1" t="s"/>
+      <x:c r="E104" s="5" t="s"/>
+      <x:c r="F104" s="5" t="s"/>
       <x:c r="G104" s="1" t="s"/>
       <x:c r="H104" s="1" t="s"/>
       <x:c r="I104" s="1" t="s"/>
@@ -7668,22 +7829,24 @@
       <x:c r="BG104" s="1" t="s"/>
       <x:c r="BH104" s="1" t="s"/>
       <x:c r="BI104" s="1" t="s"/>
-      <x:c r="BJ104" s="5" t="s"/>
-      <x:c r="BK104" s="5" t="s"/>
+      <x:c r="BJ104" s="1" t="s"/>
+      <x:c r="BK104" s="1" t="s"/>
       <x:c r="BL104" s="5" t="s"/>
       <x:c r="BM104" s="5" t="s"/>
       <x:c r="BN104" s="5" t="s"/>
       <x:c r="BO104" s="5" t="s"/>
       <x:c r="BP104" s="5" t="s"/>
       <x:c r="BQ104" s="5" t="s"/>
-    </x:row>
-    <x:row r="105" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR104" s="5" t="s"/>
+      <x:c r="BS104" s="5" t="s"/>
+    </x:row>
+    <x:row r="105" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A105" s="5" t="s"/>
       <x:c r="B105" s="5" t="s"/>
       <x:c r="C105" s="5" t="s"/>
       <x:c r="D105" s="5" t="s"/>
-      <x:c r="E105" s="1" t="s"/>
-      <x:c r="F105" s="1" t="s"/>
+      <x:c r="E105" s="5" t="s"/>
+      <x:c r="F105" s="5" t="s"/>
       <x:c r="G105" s="1" t="s"/>
       <x:c r="H105" s="1" t="s"/>
       <x:c r="I105" s="1" t="s"/>
@@ -7739,22 +7902,24 @@
       <x:c r="BG105" s="1" t="s"/>
       <x:c r="BH105" s="1" t="s"/>
       <x:c r="BI105" s="1" t="s"/>
-      <x:c r="BJ105" s="5" t="s"/>
-      <x:c r="BK105" s="5" t="s"/>
+      <x:c r="BJ105" s="1" t="s"/>
+      <x:c r="BK105" s="1" t="s"/>
       <x:c r="BL105" s="5" t="s"/>
       <x:c r="BM105" s="5" t="s"/>
       <x:c r="BN105" s="5" t="s"/>
       <x:c r="BO105" s="5" t="s"/>
       <x:c r="BP105" s="5" t="s"/>
       <x:c r="BQ105" s="5" t="s"/>
-    </x:row>
-    <x:row r="106" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR105" s="5" t="s"/>
+      <x:c r="BS105" s="5" t="s"/>
+    </x:row>
+    <x:row r="106" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A106" s="5" t="s"/>
       <x:c r="B106" s="5" t="s"/>
       <x:c r="C106" s="5" t="s"/>
       <x:c r="D106" s="5" t="s"/>
-      <x:c r="E106" s="1" t="s"/>
-      <x:c r="F106" s="1" t="s"/>
+      <x:c r="E106" s="5" t="s"/>
+      <x:c r="F106" s="5" t="s"/>
       <x:c r="G106" s="1" t="s"/>
       <x:c r="H106" s="1" t="s"/>
       <x:c r="I106" s="1" t="s"/>
@@ -7810,22 +7975,24 @@
       <x:c r="BG106" s="1" t="s"/>
       <x:c r="BH106" s="1" t="s"/>
       <x:c r="BI106" s="1" t="s"/>
-      <x:c r="BJ106" s="5" t="s"/>
-      <x:c r="BK106" s="5" t="s"/>
+      <x:c r="BJ106" s="1" t="s"/>
+      <x:c r="BK106" s="1" t="s"/>
       <x:c r="BL106" s="5" t="s"/>
       <x:c r="BM106" s="5" t="s"/>
       <x:c r="BN106" s="5" t="s"/>
       <x:c r="BO106" s="5" t="s"/>
       <x:c r="BP106" s="5" t="s"/>
       <x:c r="BQ106" s="5" t="s"/>
-    </x:row>
-    <x:row r="107" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR106" s="5" t="s"/>
+      <x:c r="BS106" s="5" t="s"/>
+    </x:row>
+    <x:row r="107" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A107" s="5" t="s"/>
       <x:c r="B107" s="5" t="s"/>
       <x:c r="C107" s="5" t="s"/>
       <x:c r="D107" s="5" t="s"/>
-      <x:c r="E107" s="1" t="s"/>
-      <x:c r="F107" s="1" t="s"/>
+      <x:c r="E107" s="5" t="s"/>
+      <x:c r="F107" s="5" t="s"/>
       <x:c r="G107" s="1" t="s"/>
       <x:c r="H107" s="1" t="s"/>
       <x:c r="I107" s="1" t="s"/>
@@ -7881,22 +8048,24 @@
       <x:c r="BG107" s="1" t="s"/>
       <x:c r="BH107" s="1" t="s"/>
       <x:c r="BI107" s="1" t="s"/>
-      <x:c r="BJ107" s="5" t="s"/>
-      <x:c r="BK107" s="5" t="s"/>
+      <x:c r="BJ107" s="1" t="s"/>
+      <x:c r="BK107" s="1" t="s"/>
       <x:c r="BL107" s="5" t="s"/>
       <x:c r="BM107" s="5" t="s"/>
       <x:c r="BN107" s="5" t="s"/>
       <x:c r="BO107" s="5" t="s"/>
       <x:c r="BP107" s="5" t="s"/>
       <x:c r="BQ107" s="5" t="s"/>
-    </x:row>
-    <x:row r="108" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR107" s="5" t="s"/>
+      <x:c r="BS107" s="5" t="s"/>
+    </x:row>
+    <x:row r="108" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A108" s="5" t="s"/>
       <x:c r="B108" s="5" t="s"/>
       <x:c r="C108" s="5" t="s"/>
       <x:c r="D108" s="5" t="s"/>
-      <x:c r="E108" s="1" t="s"/>
-      <x:c r="F108" s="1" t="s"/>
+      <x:c r="E108" s="5" t="s"/>
+      <x:c r="F108" s="5" t="s"/>
       <x:c r="G108" s="1" t="s"/>
       <x:c r="H108" s="1" t="s"/>
       <x:c r="I108" s="1" t="s"/>
@@ -7952,22 +8121,24 @@
       <x:c r="BG108" s="1" t="s"/>
       <x:c r="BH108" s="1" t="s"/>
       <x:c r="BI108" s="1" t="s"/>
-      <x:c r="BJ108" s="5" t="s"/>
-      <x:c r="BK108" s="5" t="s"/>
+      <x:c r="BJ108" s="1" t="s"/>
+      <x:c r="BK108" s="1" t="s"/>
       <x:c r="BL108" s="5" t="s"/>
       <x:c r="BM108" s="5" t="s"/>
       <x:c r="BN108" s="5" t="s"/>
       <x:c r="BO108" s="5" t="s"/>
       <x:c r="BP108" s="5" t="s"/>
       <x:c r="BQ108" s="5" t="s"/>
-    </x:row>
-    <x:row r="109" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR108" s="5" t="s"/>
+      <x:c r="BS108" s="5" t="s"/>
+    </x:row>
+    <x:row r="109" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A109" s="5" t="s"/>
       <x:c r="B109" s="5" t="s"/>
       <x:c r="C109" s="5" t="s"/>
       <x:c r="D109" s="5" t="s"/>
-      <x:c r="E109" s="1" t="s"/>
-      <x:c r="F109" s="1" t="s"/>
+      <x:c r="E109" s="5" t="s"/>
+      <x:c r="F109" s="5" t="s"/>
       <x:c r="G109" s="1" t="s"/>
       <x:c r="H109" s="1" t="s"/>
       <x:c r="I109" s="1" t="s"/>
@@ -8023,22 +8194,24 @@
       <x:c r="BG109" s="1" t="s"/>
       <x:c r="BH109" s="1" t="s"/>
       <x:c r="BI109" s="1" t="s"/>
-      <x:c r="BJ109" s="5" t="s"/>
-      <x:c r="BK109" s="5" t="s"/>
+      <x:c r="BJ109" s="1" t="s"/>
+      <x:c r="BK109" s="1" t="s"/>
       <x:c r="BL109" s="5" t="s"/>
       <x:c r="BM109" s="5" t="s"/>
       <x:c r="BN109" s="5" t="s"/>
       <x:c r="BO109" s="5" t="s"/>
       <x:c r="BP109" s="5" t="s"/>
       <x:c r="BQ109" s="5" t="s"/>
-    </x:row>
-    <x:row r="110" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR109" s="5" t="s"/>
+      <x:c r="BS109" s="5" t="s"/>
+    </x:row>
+    <x:row r="110" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A110" s="5" t="s"/>
       <x:c r="B110" s="5" t="s"/>
       <x:c r="C110" s="5" t="s"/>
       <x:c r="D110" s="5" t="s"/>
-      <x:c r="E110" s="1" t="s"/>
-      <x:c r="F110" s="1" t="s"/>
+      <x:c r="E110" s="5" t="s"/>
+      <x:c r="F110" s="5" t="s"/>
       <x:c r="G110" s="1" t="s"/>
       <x:c r="H110" s="1" t="s"/>
       <x:c r="I110" s="1" t="s"/>
@@ -8094,22 +8267,24 @@
       <x:c r="BG110" s="1" t="s"/>
       <x:c r="BH110" s="1" t="s"/>
       <x:c r="BI110" s="1" t="s"/>
-      <x:c r="BJ110" s="5" t="s"/>
-      <x:c r="BK110" s="5" t="s"/>
+      <x:c r="BJ110" s="1" t="s"/>
+      <x:c r="BK110" s="1" t="s"/>
       <x:c r="BL110" s="5" t="s"/>
       <x:c r="BM110" s="5" t="s"/>
       <x:c r="BN110" s="5" t="s"/>
       <x:c r="BO110" s="5" t="s"/>
       <x:c r="BP110" s="5" t="s"/>
       <x:c r="BQ110" s="5" t="s"/>
-    </x:row>
-    <x:row r="111" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR110" s="5" t="s"/>
+      <x:c r="BS110" s="5" t="s"/>
+    </x:row>
+    <x:row r="111" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A111" s="5" t="s"/>
       <x:c r="B111" s="5" t="s"/>
       <x:c r="C111" s="5" t="s"/>
       <x:c r="D111" s="5" t="s"/>
-      <x:c r="E111" s="1" t="s"/>
-      <x:c r="F111" s="1" t="s"/>
+      <x:c r="E111" s="5" t="s"/>
+      <x:c r="F111" s="5" t="s"/>
       <x:c r="G111" s="1" t="s"/>
       <x:c r="H111" s="1" t="s"/>
       <x:c r="I111" s="1" t="s"/>
@@ -8165,22 +8340,24 @@
       <x:c r="BG111" s="1" t="s"/>
       <x:c r="BH111" s="1" t="s"/>
       <x:c r="BI111" s="1" t="s"/>
-      <x:c r="BJ111" s="5" t="s"/>
-      <x:c r="BK111" s="5" t="s"/>
+      <x:c r="BJ111" s="1" t="s"/>
+      <x:c r="BK111" s="1" t="s"/>
       <x:c r="BL111" s="5" t="s"/>
       <x:c r="BM111" s="5" t="s"/>
       <x:c r="BN111" s="5" t="s"/>
       <x:c r="BO111" s="5" t="s"/>
       <x:c r="BP111" s="5" t="s"/>
       <x:c r="BQ111" s="5" t="s"/>
-    </x:row>
-    <x:row r="112" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR111" s="5" t="s"/>
+      <x:c r="BS111" s="5" t="s"/>
+    </x:row>
+    <x:row r="112" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A112" s="5" t="s"/>
       <x:c r="B112" s="5" t="s"/>
       <x:c r="C112" s="5" t="s"/>
       <x:c r="D112" s="5" t="s"/>
-      <x:c r="E112" s="1" t="s"/>
-      <x:c r="F112" s="1" t="s"/>
+      <x:c r="E112" s="5" t="s"/>
+      <x:c r="F112" s="5" t="s"/>
       <x:c r="G112" s="1" t="s"/>
       <x:c r="H112" s="1" t="s"/>
       <x:c r="I112" s="1" t="s"/>
@@ -8236,22 +8413,24 @@
       <x:c r="BG112" s="1" t="s"/>
       <x:c r="BH112" s="1" t="s"/>
       <x:c r="BI112" s="1" t="s"/>
-      <x:c r="BJ112" s="5" t="s"/>
-      <x:c r="BK112" s="5" t="s"/>
+      <x:c r="BJ112" s="1" t="s"/>
+      <x:c r="BK112" s="1" t="s"/>
       <x:c r="BL112" s="5" t="s"/>
       <x:c r="BM112" s="5" t="s"/>
       <x:c r="BN112" s="5" t="s"/>
       <x:c r="BO112" s="5" t="s"/>
       <x:c r="BP112" s="5" t="s"/>
       <x:c r="BQ112" s="5" t="s"/>
-    </x:row>
-    <x:row r="113" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR112" s="5" t="s"/>
+      <x:c r="BS112" s="5" t="s"/>
+    </x:row>
+    <x:row r="113" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A113" s="5" t="s"/>
       <x:c r="B113" s="5" t="s"/>
       <x:c r="C113" s="5" t="s"/>
       <x:c r="D113" s="5" t="s"/>
-      <x:c r="E113" s="1" t="s"/>
-      <x:c r="F113" s="1" t="s"/>
+      <x:c r="E113" s="5" t="s"/>
+      <x:c r="F113" s="5" t="s"/>
       <x:c r="G113" s="1" t="s"/>
       <x:c r="H113" s="1" t="s"/>
       <x:c r="I113" s="1" t="s"/>
@@ -8307,22 +8486,24 @@
       <x:c r="BG113" s="1" t="s"/>
       <x:c r="BH113" s="1" t="s"/>
       <x:c r="BI113" s="1" t="s"/>
-      <x:c r="BJ113" s="5" t="s"/>
-      <x:c r="BK113" s="5" t="s"/>
+      <x:c r="BJ113" s="1" t="s"/>
+      <x:c r="BK113" s="1" t="s"/>
       <x:c r="BL113" s="5" t="s"/>
       <x:c r="BM113" s="5" t="s"/>
       <x:c r="BN113" s="5" t="s"/>
       <x:c r="BO113" s="5" t="s"/>
       <x:c r="BP113" s="5" t="s"/>
       <x:c r="BQ113" s="5" t="s"/>
-    </x:row>
-    <x:row r="114" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR113" s="5" t="s"/>
+      <x:c r="BS113" s="5" t="s"/>
+    </x:row>
+    <x:row r="114" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A114" s="5" t="s"/>
       <x:c r="B114" s="5" t="s"/>
       <x:c r="C114" s="5" t="s"/>
       <x:c r="D114" s="5" t="s"/>
-      <x:c r="E114" s="1" t="s"/>
-      <x:c r="F114" s="1" t="s"/>
+      <x:c r="E114" s="5" t="s"/>
+      <x:c r="F114" s="5" t="s"/>
       <x:c r="G114" s="1" t="s"/>
       <x:c r="H114" s="1" t="s"/>
       <x:c r="I114" s="1" t="s"/>
@@ -8378,22 +8559,24 @@
       <x:c r="BG114" s="1" t="s"/>
       <x:c r="BH114" s="1" t="s"/>
       <x:c r="BI114" s="1" t="s"/>
-      <x:c r="BJ114" s="5" t="s"/>
-      <x:c r="BK114" s="5" t="s"/>
+      <x:c r="BJ114" s="1" t="s"/>
+      <x:c r="BK114" s="1" t="s"/>
       <x:c r="BL114" s="5" t="s"/>
       <x:c r="BM114" s="5" t="s"/>
       <x:c r="BN114" s="5" t="s"/>
       <x:c r="BO114" s="5" t="s"/>
       <x:c r="BP114" s="5" t="s"/>
       <x:c r="BQ114" s="5" t="s"/>
-    </x:row>
-    <x:row r="115" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR114" s="5" t="s"/>
+      <x:c r="BS114" s="5" t="s"/>
+    </x:row>
+    <x:row r="115" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A115" s="5" t="s"/>
       <x:c r="B115" s="5" t="s"/>
       <x:c r="C115" s="5" t="s"/>
       <x:c r="D115" s="5" t="s"/>
-      <x:c r="E115" s="1" t="s"/>
-      <x:c r="F115" s="1" t="s"/>
+      <x:c r="E115" s="5" t="s"/>
+      <x:c r="F115" s="5" t="s"/>
       <x:c r="G115" s="1" t="s"/>
       <x:c r="H115" s="1" t="s"/>
       <x:c r="I115" s="1" t="s"/>
@@ -8449,22 +8632,24 @@
       <x:c r="BG115" s="1" t="s"/>
       <x:c r="BH115" s="1" t="s"/>
       <x:c r="BI115" s="1" t="s"/>
-      <x:c r="BJ115" s="5" t="s"/>
-      <x:c r="BK115" s="5" t="s"/>
+      <x:c r="BJ115" s="1" t="s"/>
+      <x:c r="BK115" s="1" t="s"/>
       <x:c r="BL115" s="5" t="s"/>
       <x:c r="BM115" s="5" t="s"/>
       <x:c r="BN115" s="5" t="s"/>
       <x:c r="BO115" s="5" t="s"/>
       <x:c r="BP115" s="5" t="s"/>
       <x:c r="BQ115" s="5" t="s"/>
-    </x:row>
-    <x:row r="116" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR115" s="5" t="s"/>
+      <x:c r="BS115" s="5" t="s"/>
+    </x:row>
+    <x:row r="116" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A116" s="5" t="s"/>
       <x:c r="B116" s="5" t="s"/>
       <x:c r="C116" s="5" t="s"/>
       <x:c r="D116" s="5" t="s"/>
-      <x:c r="E116" s="1" t="s"/>
-      <x:c r="F116" s="1" t="s"/>
+      <x:c r="E116" s="5" t="s"/>
+      <x:c r="F116" s="5" t="s"/>
       <x:c r="G116" s="1" t="s"/>
       <x:c r="H116" s="1" t="s"/>
       <x:c r="I116" s="1" t="s"/>
@@ -8520,22 +8705,24 @@
       <x:c r="BG116" s="1" t="s"/>
       <x:c r="BH116" s="1" t="s"/>
       <x:c r="BI116" s="1" t="s"/>
-      <x:c r="BJ116" s="5" t="s"/>
-      <x:c r="BK116" s="5" t="s"/>
+      <x:c r="BJ116" s="1" t="s"/>
+      <x:c r="BK116" s="1" t="s"/>
       <x:c r="BL116" s="5" t="s"/>
       <x:c r="BM116" s="5" t="s"/>
       <x:c r="BN116" s="5" t="s"/>
       <x:c r="BO116" s="5" t="s"/>
       <x:c r="BP116" s="5" t="s"/>
       <x:c r="BQ116" s="5" t="s"/>
-    </x:row>
-    <x:row r="117" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR116" s="5" t="s"/>
+      <x:c r="BS116" s="5" t="s"/>
+    </x:row>
+    <x:row r="117" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A117" s="5" t="s"/>
       <x:c r="B117" s="5" t="s"/>
       <x:c r="C117" s="5" t="s"/>
       <x:c r="D117" s="5" t="s"/>
-      <x:c r="E117" s="1" t="s"/>
-      <x:c r="F117" s="1" t="s"/>
+      <x:c r="E117" s="5" t="s"/>
+      <x:c r="F117" s="5" t="s"/>
       <x:c r="G117" s="1" t="s"/>
       <x:c r="H117" s="1" t="s"/>
       <x:c r="I117" s="1" t="s"/>
@@ -8591,22 +8778,24 @@
       <x:c r="BG117" s="1" t="s"/>
       <x:c r="BH117" s="1" t="s"/>
       <x:c r="BI117" s="1" t="s"/>
-      <x:c r="BJ117" s="5" t="s"/>
-      <x:c r="BK117" s="5" t="s"/>
+      <x:c r="BJ117" s="1" t="s"/>
+      <x:c r="BK117" s="1" t="s"/>
       <x:c r="BL117" s="5" t="s"/>
       <x:c r="BM117" s="5" t="s"/>
       <x:c r="BN117" s="5" t="s"/>
       <x:c r="BO117" s="5" t="s"/>
       <x:c r="BP117" s="5" t="s"/>
       <x:c r="BQ117" s="5" t="s"/>
-    </x:row>
-    <x:row r="118" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR117" s="5" t="s"/>
+      <x:c r="BS117" s="5" t="s"/>
+    </x:row>
+    <x:row r="118" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A118" s="5" t="s"/>
       <x:c r="B118" s="5" t="s"/>
       <x:c r="C118" s="5" t="s"/>
       <x:c r="D118" s="5" t="s"/>
-      <x:c r="E118" s="1" t="s"/>
-      <x:c r="F118" s="1" t="s"/>
+      <x:c r="E118" s="5" t="s"/>
+      <x:c r="F118" s="5" t="s"/>
       <x:c r="G118" s="1" t="s"/>
       <x:c r="H118" s="1" t="s"/>
       <x:c r="I118" s="1" t="s"/>
@@ -8662,22 +8851,24 @@
       <x:c r="BG118" s="1" t="s"/>
       <x:c r="BH118" s="1" t="s"/>
       <x:c r="BI118" s="1" t="s"/>
-      <x:c r="BJ118" s="5" t="s"/>
-      <x:c r="BK118" s="5" t="s"/>
+      <x:c r="BJ118" s="1" t="s"/>
+      <x:c r="BK118" s="1" t="s"/>
       <x:c r="BL118" s="5" t="s"/>
       <x:c r="BM118" s="5" t="s"/>
       <x:c r="BN118" s="5" t="s"/>
       <x:c r="BO118" s="5" t="s"/>
       <x:c r="BP118" s="5" t="s"/>
       <x:c r="BQ118" s="5" t="s"/>
-    </x:row>
-    <x:row r="119" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR118" s="5" t="s"/>
+      <x:c r="BS118" s="5" t="s"/>
+    </x:row>
+    <x:row r="119" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A119" s="5" t="s"/>
       <x:c r="B119" s="5" t="s"/>
       <x:c r="C119" s="5" t="s"/>
       <x:c r="D119" s="5" t="s"/>
-      <x:c r="E119" s="1" t="s"/>
-      <x:c r="F119" s="1" t="s"/>
+      <x:c r="E119" s="5" t="s"/>
+      <x:c r="F119" s="5" t="s"/>
       <x:c r="G119" s="1" t="s"/>
       <x:c r="H119" s="1" t="s"/>
       <x:c r="I119" s="1" t="s"/>
@@ -8733,22 +8924,24 @@
       <x:c r="BG119" s="1" t="s"/>
       <x:c r="BH119" s="1" t="s"/>
       <x:c r="BI119" s="1" t="s"/>
-      <x:c r="BJ119" s="5" t="s"/>
-      <x:c r="BK119" s="5" t="s"/>
+      <x:c r="BJ119" s="1" t="s"/>
+      <x:c r="BK119" s="1" t="s"/>
       <x:c r="BL119" s="5" t="s"/>
       <x:c r="BM119" s="5" t="s"/>
       <x:c r="BN119" s="5" t="s"/>
       <x:c r="BO119" s="5" t="s"/>
       <x:c r="BP119" s="5" t="s"/>
       <x:c r="BQ119" s="5" t="s"/>
-    </x:row>
-    <x:row r="120" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR119" s="5" t="s"/>
+      <x:c r="BS119" s="5" t="s"/>
+    </x:row>
+    <x:row r="120" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A120" s="5" t="s"/>
       <x:c r="B120" s="5" t="s"/>
       <x:c r="C120" s="5" t="s"/>
       <x:c r="D120" s="5" t="s"/>
-      <x:c r="E120" s="1" t="s"/>
-      <x:c r="F120" s="1" t="s"/>
+      <x:c r="E120" s="5" t="s"/>
+      <x:c r="F120" s="5" t="s"/>
       <x:c r="G120" s="1" t="s"/>
       <x:c r="H120" s="1" t="s"/>
       <x:c r="I120" s="1" t="s"/>
@@ -8804,22 +8997,24 @@
       <x:c r="BG120" s="1" t="s"/>
       <x:c r="BH120" s="1" t="s"/>
       <x:c r="BI120" s="1" t="s"/>
-      <x:c r="BJ120" s="5" t="s"/>
-      <x:c r="BK120" s="5" t="s"/>
+      <x:c r="BJ120" s="1" t="s"/>
+      <x:c r="BK120" s="1" t="s"/>
       <x:c r="BL120" s="5" t="s"/>
       <x:c r="BM120" s="5" t="s"/>
       <x:c r="BN120" s="5" t="s"/>
       <x:c r="BO120" s="5" t="s"/>
       <x:c r="BP120" s="5" t="s"/>
       <x:c r="BQ120" s="5" t="s"/>
-    </x:row>
-    <x:row r="121" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR120" s="5" t="s"/>
+      <x:c r="BS120" s="5" t="s"/>
+    </x:row>
+    <x:row r="121" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A121" s="5" t="s"/>
       <x:c r="B121" s="5" t="s"/>
       <x:c r="C121" s="5" t="s"/>
       <x:c r="D121" s="5" t="s"/>
-      <x:c r="E121" s="1" t="s"/>
-      <x:c r="F121" s="1" t="s"/>
+      <x:c r="E121" s="5" t="s"/>
+      <x:c r="F121" s="5" t="s"/>
       <x:c r="G121" s="1" t="s"/>
       <x:c r="H121" s="1" t="s"/>
       <x:c r="I121" s="1" t="s"/>
@@ -8875,22 +9070,24 @@
       <x:c r="BG121" s="1" t="s"/>
       <x:c r="BH121" s="1" t="s"/>
       <x:c r="BI121" s="1" t="s"/>
-      <x:c r="BJ121" s="5" t="s"/>
-      <x:c r="BK121" s="5" t="s"/>
+      <x:c r="BJ121" s="1" t="s"/>
+      <x:c r="BK121" s="1" t="s"/>
       <x:c r="BL121" s="5" t="s"/>
       <x:c r="BM121" s="5" t="s"/>
       <x:c r="BN121" s="5" t="s"/>
       <x:c r="BO121" s="5" t="s"/>
       <x:c r="BP121" s="5" t="s"/>
       <x:c r="BQ121" s="5" t="s"/>
-    </x:row>
-    <x:row r="122" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR121" s="5" t="s"/>
+      <x:c r="BS121" s="5" t="s"/>
+    </x:row>
+    <x:row r="122" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A122" s="5" t="s"/>
       <x:c r="B122" s="5" t="s"/>
       <x:c r="C122" s="5" t="s"/>
       <x:c r="D122" s="5" t="s"/>
-      <x:c r="E122" s="1" t="s"/>
-      <x:c r="F122" s="1" t="s"/>
+      <x:c r="E122" s="5" t="s"/>
+      <x:c r="F122" s="5" t="s"/>
       <x:c r="G122" s="1" t="s"/>
       <x:c r="H122" s="1" t="s"/>
       <x:c r="I122" s="1" t="s"/>
@@ -8946,22 +9143,24 @@
       <x:c r="BG122" s="1" t="s"/>
       <x:c r="BH122" s="1" t="s"/>
       <x:c r="BI122" s="1" t="s"/>
-      <x:c r="BJ122" s="5" t="s"/>
-      <x:c r="BK122" s="5" t="s"/>
+      <x:c r="BJ122" s="1" t="s"/>
+      <x:c r="BK122" s="1" t="s"/>
       <x:c r="BL122" s="5" t="s"/>
       <x:c r="BM122" s="5" t="s"/>
       <x:c r="BN122" s="5" t="s"/>
       <x:c r="BO122" s="5" t="s"/>
       <x:c r="BP122" s="5" t="s"/>
       <x:c r="BQ122" s="5" t="s"/>
-    </x:row>
-    <x:row r="123" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR122" s="5" t="s"/>
+      <x:c r="BS122" s="5" t="s"/>
+    </x:row>
+    <x:row r="123" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A123" s="5" t="s"/>
       <x:c r="B123" s="5" t="s"/>
       <x:c r="C123" s="5" t="s"/>
       <x:c r="D123" s="5" t="s"/>
-      <x:c r="E123" s="1" t="s"/>
-      <x:c r="F123" s="1" t="s"/>
+      <x:c r="E123" s="5" t="s"/>
+      <x:c r="F123" s="5" t="s"/>
       <x:c r="G123" s="1" t="s"/>
       <x:c r="H123" s="1" t="s"/>
       <x:c r="I123" s="1" t="s"/>
@@ -9017,22 +9216,24 @@
       <x:c r="BG123" s="1" t="s"/>
       <x:c r="BH123" s="1" t="s"/>
       <x:c r="BI123" s="1" t="s"/>
-      <x:c r="BJ123" s="5" t="s"/>
-      <x:c r="BK123" s="5" t="s"/>
+      <x:c r="BJ123" s="1" t="s"/>
+      <x:c r="BK123" s="1" t="s"/>
       <x:c r="BL123" s="5" t="s"/>
       <x:c r="BM123" s="5" t="s"/>
       <x:c r="BN123" s="5" t="s"/>
       <x:c r="BO123" s="5" t="s"/>
       <x:c r="BP123" s="5" t="s"/>
       <x:c r="BQ123" s="5" t="s"/>
-    </x:row>
-    <x:row r="124" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR123" s="5" t="s"/>
+      <x:c r="BS123" s="5" t="s"/>
+    </x:row>
+    <x:row r="124" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A124" s="5" t="s"/>
       <x:c r="B124" s="5" t="s"/>
       <x:c r="C124" s="5" t="s"/>
       <x:c r="D124" s="5" t="s"/>
-      <x:c r="E124" s="1" t="s"/>
-      <x:c r="F124" s="1" t="s"/>
+      <x:c r="E124" s="5" t="s"/>
+      <x:c r="F124" s="5" t="s"/>
       <x:c r="G124" s="1" t="s"/>
       <x:c r="H124" s="1" t="s"/>
       <x:c r="I124" s="1" t="s"/>
@@ -9088,22 +9289,24 @@
       <x:c r="BG124" s="1" t="s"/>
       <x:c r="BH124" s="1" t="s"/>
       <x:c r="BI124" s="1" t="s"/>
-      <x:c r="BJ124" s="5" t="s"/>
-      <x:c r="BK124" s="5" t="s"/>
+      <x:c r="BJ124" s="1" t="s"/>
+      <x:c r="BK124" s="1" t="s"/>
       <x:c r="BL124" s="5" t="s"/>
       <x:c r="BM124" s="5" t="s"/>
       <x:c r="BN124" s="5" t="s"/>
       <x:c r="BO124" s="5" t="s"/>
       <x:c r="BP124" s="5" t="s"/>
       <x:c r="BQ124" s="5" t="s"/>
-    </x:row>
-    <x:row r="125" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR124" s="5" t="s"/>
+      <x:c r="BS124" s="5" t="s"/>
+    </x:row>
+    <x:row r="125" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A125" s="5" t="s"/>
       <x:c r="B125" s="5" t="s"/>
       <x:c r="C125" s="5" t="s"/>
       <x:c r="D125" s="5" t="s"/>
-      <x:c r="E125" s="1" t="s"/>
-      <x:c r="F125" s="1" t="s"/>
+      <x:c r="E125" s="5" t="s"/>
+      <x:c r="F125" s="5" t="s"/>
       <x:c r="G125" s="1" t="s"/>
       <x:c r="H125" s="1" t="s"/>
       <x:c r="I125" s="1" t="s"/>
@@ -9159,22 +9362,24 @@
       <x:c r="BG125" s="1" t="s"/>
       <x:c r="BH125" s="1" t="s"/>
       <x:c r="BI125" s="1" t="s"/>
-      <x:c r="BJ125" s="5" t="s"/>
-      <x:c r="BK125" s="5" t="s"/>
+      <x:c r="BJ125" s="1" t="s"/>
+      <x:c r="BK125" s="1" t="s"/>
       <x:c r="BL125" s="5" t="s"/>
       <x:c r="BM125" s="5" t="s"/>
       <x:c r="BN125" s="5" t="s"/>
       <x:c r="BO125" s="5" t="s"/>
       <x:c r="BP125" s="5" t="s"/>
       <x:c r="BQ125" s="5" t="s"/>
-    </x:row>
-    <x:row r="126" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR125" s="5" t="s"/>
+      <x:c r="BS125" s="5" t="s"/>
+    </x:row>
+    <x:row r="126" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A126" s="5" t="s"/>
       <x:c r="B126" s="5" t="s"/>
       <x:c r="C126" s="5" t="s"/>
       <x:c r="D126" s="5" t="s"/>
-      <x:c r="E126" s="1" t="s"/>
-      <x:c r="F126" s="1" t="s"/>
+      <x:c r="E126" s="5" t="s"/>
+      <x:c r="F126" s="5" t="s"/>
       <x:c r="G126" s="1" t="s"/>
       <x:c r="H126" s="1" t="s"/>
       <x:c r="I126" s="1" t="s"/>
@@ -9230,22 +9435,24 @@
       <x:c r="BG126" s="1" t="s"/>
       <x:c r="BH126" s="1" t="s"/>
       <x:c r="BI126" s="1" t="s"/>
-      <x:c r="BJ126" s="5" t="s"/>
-      <x:c r="BK126" s="5" t="s"/>
+      <x:c r="BJ126" s="1" t="s"/>
+      <x:c r="BK126" s="1" t="s"/>
       <x:c r="BL126" s="5" t="s"/>
       <x:c r="BM126" s="5" t="s"/>
       <x:c r="BN126" s="5" t="s"/>
       <x:c r="BO126" s="5" t="s"/>
       <x:c r="BP126" s="5" t="s"/>
       <x:c r="BQ126" s="5" t="s"/>
-    </x:row>
-    <x:row r="127" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR126" s="5" t="s"/>
+      <x:c r="BS126" s="5" t="s"/>
+    </x:row>
+    <x:row r="127" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A127" s="5" t="s"/>
       <x:c r="B127" s="5" t="s"/>
       <x:c r="C127" s="5" t="s"/>
       <x:c r="D127" s="5" t="s"/>
-      <x:c r="E127" s="1" t="s"/>
-      <x:c r="F127" s="1" t="s"/>
+      <x:c r="E127" s="5" t="s"/>
+      <x:c r="F127" s="5" t="s"/>
       <x:c r="G127" s="1" t="s"/>
       <x:c r="H127" s="1" t="s"/>
       <x:c r="I127" s="1" t="s"/>
@@ -9301,22 +9508,24 @@
       <x:c r="BG127" s="1" t="s"/>
       <x:c r="BH127" s="1" t="s"/>
       <x:c r="BI127" s="1" t="s"/>
-      <x:c r="BJ127" s="5" t="s"/>
-      <x:c r="BK127" s="5" t="s"/>
+      <x:c r="BJ127" s="1" t="s"/>
+      <x:c r="BK127" s="1" t="s"/>
       <x:c r="BL127" s="5" t="s"/>
       <x:c r="BM127" s="5" t="s"/>
       <x:c r="BN127" s="5" t="s"/>
       <x:c r="BO127" s="5" t="s"/>
       <x:c r="BP127" s="5" t="s"/>
       <x:c r="BQ127" s="5" t="s"/>
-    </x:row>
-    <x:row r="128" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR127" s="5" t="s"/>
+      <x:c r="BS127" s="5" t="s"/>
+    </x:row>
+    <x:row r="128" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A128" s="5" t="s"/>
       <x:c r="B128" s="5" t="s"/>
       <x:c r="C128" s="5" t="s"/>
       <x:c r="D128" s="5" t="s"/>
-      <x:c r="E128" s="1" t="s"/>
-      <x:c r="F128" s="1" t="s"/>
+      <x:c r="E128" s="5" t="s"/>
+      <x:c r="F128" s="5" t="s"/>
       <x:c r="G128" s="1" t="s"/>
       <x:c r="H128" s="1" t="s"/>
       <x:c r="I128" s="1" t="s"/>
@@ -9372,22 +9581,24 @@
       <x:c r="BG128" s="1" t="s"/>
       <x:c r="BH128" s="1" t="s"/>
       <x:c r="BI128" s="1" t="s"/>
-      <x:c r="BJ128" s="5" t="s"/>
-      <x:c r="BK128" s="5" t="s"/>
+      <x:c r="BJ128" s="1" t="s"/>
+      <x:c r="BK128" s="1" t="s"/>
       <x:c r="BL128" s="5" t="s"/>
       <x:c r="BM128" s="5" t="s"/>
       <x:c r="BN128" s="5" t="s"/>
       <x:c r="BO128" s="5" t="s"/>
       <x:c r="BP128" s="5" t="s"/>
       <x:c r="BQ128" s="5" t="s"/>
-    </x:row>
-    <x:row r="129" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR128" s="5" t="s"/>
+      <x:c r="BS128" s="5" t="s"/>
+    </x:row>
+    <x:row r="129" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A129" s="5" t="s"/>
       <x:c r="B129" s="5" t="s"/>
       <x:c r="C129" s="5" t="s"/>
       <x:c r="D129" s="5" t="s"/>
-      <x:c r="E129" s="1" t="s"/>
-      <x:c r="F129" s="1" t="s"/>
+      <x:c r="E129" s="5" t="s"/>
+      <x:c r="F129" s="5" t="s"/>
       <x:c r="G129" s="1" t="s"/>
       <x:c r="H129" s="1" t="s"/>
       <x:c r="I129" s="1" t="s"/>
@@ -9443,22 +9654,24 @@
       <x:c r="BG129" s="1" t="s"/>
       <x:c r="BH129" s="1" t="s"/>
       <x:c r="BI129" s="1" t="s"/>
-      <x:c r="BJ129" s="5" t="s"/>
-      <x:c r="BK129" s="5" t="s"/>
+      <x:c r="BJ129" s="1" t="s"/>
+      <x:c r="BK129" s="1" t="s"/>
       <x:c r="BL129" s="5" t="s"/>
       <x:c r="BM129" s="5" t="s"/>
       <x:c r="BN129" s="5" t="s"/>
       <x:c r="BO129" s="5" t="s"/>
       <x:c r="BP129" s="5" t="s"/>
       <x:c r="BQ129" s="5" t="s"/>
-    </x:row>
-    <x:row r="130" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR129" s="5" t="s"/>
+      <x:c r="BS129" s="5" t="s"/>
+    </x:row>
+    <x:row r="130" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A130" s="5" t="s"/>
       <x:c r="B130" s="5" t="s"/>
       <x:c r="C130" s="5" t="s"/>
       <x:c r="D130" s="5" t="s"/>
-      <x:c r="E130" s="1" t="s"/>
-      <x:c r="F130" s="1" t="s"/>
+      <x:c r="E130" s="5" t="s"/>
+      <x:c r="F130" s="5" t="s"/>
       <x:c r="G130" s="1" t="s"/>
       <x:c r="H130" s="1" t="s"/>
       <x:c r="I130" s="1" t="s"/>
@@ -9514,22 +9727,24 @@
       <x:c r="BG130" s="1" t="s"/>
       <x:c r="BH130" s="1" t="s"/>
       <x:c r="BI130" s="1" t="s"/>
-      <x:c r="BJ130" s="5" t="s"/>
-      <x:c r="BK130" s="5" t="s"/>
+      <x:c r="BJ130" s="1" t="s"/>
+      <x:c r="BK130" s="1" t="s"/>
       <x:c r="BL130" s="5" t="s"/>
       <x:c r="BM130" s="5" t="s"/>
       <x:c r="BN130" s="5" t="s"/>
       <x:c r="BO130" s="5" t="s"/>
       <x:c r="BP130" s="5" t="s"/>
       <x:c r="BQ130" s="5" t="s"/>
-    </x:row>
-    <x:row r="131" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR130" s="5" t="s"/>
+      <x:c r="BS130" s="5" t="s"/>
+    </x:row>
+    <x:row r="131" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A131" s="5" t="s"/>
       <x:c r="B131" s="5" t="s"/>
       <x:c r="C131" s="5" t="s"/>
       <x:c r="D131" s="5" t="s"/>
-      <x:c r="E131" s="1" t="s"/>
-      <x:c r="F131" s="1" t="s"/>
+      <x:c r="E131" s="5" t="s"/>
+      <x:c r="F131" s="5" t="s"/>
       <x:c r="G131" s="1" t="s"/>
       <x:c r="H131" s="1" t="s"/>
       <x:c r="I131" s="1" t="s"/>
@@ -9585,22 +9800,24 @@
       <x:c r="BG131" s="1" t="s"/>
       <x:c r="BH131" s="1" t="s"/>
       <x:c r="BI131" s="1" t="s"/>
-      <x:c r="BJ131" s="5" t="s"/>
-      <x:c r="BK131" s="5" t="s"/>
+      <x:c r="BJ131" s="1" t="s"/>
+      <x:c r="BK131" s="1" t="s"/>
       <x:c r="BL131" s="5" t="s"/>
       <x:c r="BM131" s="5" t="s"/>
       <x:c r="BN131" s="5" t="s"/>
       <x:c r="BO131" s="5" t="s"/>
       <x:c r="BP131" s="5" t="s"/>
       <x:c r="BQ131" s="5" t="s"/>
-    </x:row>
-    <x:row r="132" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR131" s="5" t="s"/>
+      <x:c r="BS131" s="5" t="s"/>
+    </x:row>
+    <x:row r="132" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A132" s="5" t="s"/>
       <x:c r="B132" s="5" t="s"/>
       <x:c r="C132" s="5" t="s"/>
       <x:c r="D132" s="5" t="s"/>
-      <x:c r="E132" s="1" t="s"/>
-      <x:c r="F132" s="1" t="s"/>
+      <x:c r="E132" s="5" t="s"/>
+      <x:c r="F132" s="5" t="s"/>
       <x:c r="G132" s="1" t="s"/>
       <x:c r="H132" s="1" t="s"/>
       <x:c r="I132" s="1" t="s"/>
@@ -9656,22 +9873,24 @@
       <x:c r="BG132" s="1" t="s"/>
       <x:c r="BH132" s="1" t="s"/>
       <x:c r="BI132" s="1" t="s"/>
-      <x:c r="BJ132" s="5" t="s"/>
-      <x:c r="BK132" s="5" t="s"/>
+      <x:c r="BJ132" s="1" t="s"/>
+      <x:c r="BK132" s="1" t="s"/>
       <x:c r="BL132" s="5" t="s"/>
       <x:c r="BM132" s="5" t="s"/>
       <x:c r="BN132" s="5" t="s"/>
       <x:c r="BO132" s="5" t="s"/>
       <x:c r="BP132" s="5" t="s"/>
       <x:c r="BQ132" s="5" t="s"/>
-    </x:row>
-    <x:row r="133" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR132" s="5" t="s"/>
+      <x:c r="BS132" s="5" t="s"/>
+    </x:row>
+    <x:row r="133" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A133" s="5" t="s"/>
       <x:c r="B133" s="5" t="s"/>
       <x:c r="C133" s="5" t="s"/>
       <x:c r="D133" s="5" t="s"/>
-      <x:c r="E133" s="1" t="s"/>
-      <x:c r="F133" s="1" t="s"/>
+      <x:c r="E133" s="5" t="s"/>
+      <x:c r="F133" s="5" t="s"/>
       <x:c r="G133" s="1" t="s"/>
       <x:c r="H133" s="1" t="s"/>
       <x:c r="I133" s="1" t="s"/>
@@ -9727,22 +9946,24 @@
       <x:c r="BG133" s="1" t="s"/>
       <x:c r="BH133" s="1" t="s"/>
       <x:c r="BI133" s="1" t="s"/>
-      <x:c r="BJ133" s="5" t="s"/>
-      <x:c r="BK133" s="5" t="s"/>
+      <x:c r="BJ133" s="1" t="s"/>
+      <x:c r="BK133" s="1" t="s"/>
       <x:c r="BL133" s="5" t="s"/>
       <x:c r="BM133" s="5" t="s"/>
       <x:c r="BN133" s="5" t="s"/>
       <x:c r="BO133" s="5" t="s"/>
       <x:c r="BP133" s="5" t="s"/>
       <x:c r="BQ133" s="5" t="s"/>
-    </x:row>
-    <x:row r="134" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR133" s="5" t="s"/>
+      <x:c r="BS133" s="5" t="s"/>
+    </x:row>
+    <x:row r="134" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A134" s="5" t="s"/>
       <x:c r="B134" s="5" t="s"/>
       <x:c r="C134" s="5" t="s"/>
       <x:c r="D134" s="5" t="s"/>
-      <x:c r="E134" s="1" t="s"/>
-      <x:c r="F134" s="1" t="s"/>
+      <x:c r="E134" s="5" t="s"/>
+      <x:c r="F134" s="5" t="s"/>
       <x:c r="G134" s="1" t="s"/>
       <x:c r="H134" s="1" t="s"/>
       <x:c r="I134" s="1" t="s"/>
@@ -9798,22 +10019,24 @@
       <x:c r="BG134" s="1" t="s"/>
       <x:c r="BH134" s="1" t="s"/>
       <x:c r="BI134" s="1" t="s"/>
-      <x:c r="BJ134" s="5" t="s"/>
-      <x:c r="BK134" s="5" t="s"/>
+      <x:c r="BJ134" s="1" t="s"/>
+      <x:c r="BK134" s="1" t="s"/>
       <x:c r="BL134" s="5" t="s"/>
       <x:c r="BM134" s="5" t="s"/>
       <x:c r="BN134" s="5" t="s"/>
       <x:c r="BO134" s="5" t="s"/>
       <x:c r="BP134" s="5" t="s"/>
       <x:c r="BQ134" s="5" t="s"/>
-    </x:row>
-    <x:row r="135" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR134" s="5" t="s"/>
+      <x:c r="BS134" s="5" t="s"/>
+    </x:row>
+    <x:row r="135" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A135" s="5" t="s"/>
       <x:c r="B135" s="5" t="s"/>
       <x:c r="C135" s="5" t="s"/>
       <x:c r="D135" s="5" t="s"/>
-      <x:c r="E135" s="1" t="s"/>
-      <x:c r="F135" s="1" t="s"/>
+      <x:c r="E135" s="5" t="s"/>
+      <x:c r="F135" s="5" t="s"/>
       <x:c r="G135" s="1" t="s"/>
       <x:c r="H135" s="1" t="s"/>
       <x:c r="I135" s="1" t="s"/>
@@ -9869,22 +10092,24 @@
       <x:c r="BG135" s="1" t="s"/>
       <x:c r="BH135" s="1" t="s"/>
       <x:c r="BI135" s="1" t="s"/>
-      <x:c r="BJ135" s="5" t="s"/>
-      <x:c r="BK135" s="5" t="s"/>
+      <x:c r="BJ135" s="1" t="s"/>
+      <x:c r="BK135" s="1" t="s"/>
       <x:c r="BL135" s="5" t="s"/>
       <x:c r="BM135" s="5" t="s"/>
       <x:c r="BN135" s="5" t="s"/>
       <x:c r="BO135" s="5" t="s"/>
       <x:c r="BP135" s="5" t="s"/>
       <x:c r="BQ135" s="5" t="s"/>
-    </x:row>
-    <x:row r="136" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR135" s="5" t="s"/>
+      <x:c r="BS135" s="5" t="s"/>
+    </x:row>
+    <x:row r="136" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A136" s="5" t="s"/>
       <x:c r="B136" s="5" t="s"/>
       <x:c r="C136" s="5" t="s"/>
       <x:c r="D136" s="5" t="s"/>
-      <x:c r="E136" s="1" t="s"/>
-      <x:c r="F136" s="1" t="s"/>
+      <x:c r="E136" s="5" t="s"/>
+      <x:c r="F136" s="5" t="s"/>
       <x:c r="G136" s="1" t="s"/>
       <x:c r="H136" s="1" t="s"/>
       <x:c r="I136" s="1" t="s"/>
@@ -9940,22 +10165,24 @@
       <x:c r="BG136" s="1" t="s"/>
       <x:c r="BH136" s="1" t="s"/>
       <x:c r="BI136" s="1" t="s"/>
-      <x:c r="BJ136" s="5" t="s"/>
-      <x:c r="BK136" s="5" t="s"/>
+      <x:c r="BJ136" s="1" t="s"/>
+      <x:c r="BK136" s="1" t="s"/>
       <x:c r="BL136" s="5" t="s"/>
       <x:c r="BM136" s="5" t="s"/>
       <x:c r="BN136" s="5" t="s"/>
       <x:c r="BO136" s="5" t="s"/>
       <x:c r="BP136" s="5" t="s"/>
       <x:c r="BQ136" s="5" t="s"/>
-    </x:row>
-    <x:row r="137" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR136" s="5" t="s"/>
+      <x:c r="BS136" s="5" t="s"/>
+    </x:row>
+    <x:row r="137" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A137" s="5" t="s"/>
       <x:c r="B137" s="5" t="s"/>
       <x:c r="C137" s="5" t="s"/>
       <x:c r="D137" s="5" t="s"/>
-      <x:c r="E137" s="1" t="s"/>
-      <x:c r="F137" s="1" t="s"/>
+      <x:c r="E137" s="5" t="s"/>
+      <x:c r="F137" s="5" t="s"/>
       <x:c r="G137" s="1" t="s"/>
       <x:c r="H137" s="1" t="s"/>
       <x:c r="I137" s="1" t="s"/>
@@ -10011,22 +10238,24 @@
       <x:c r="BG137" s="1" t="s"/>
       <x:c r="BH137" s="1" t="s"/>
       <x:c r="BI137" s="1" t="s"/>
-      <x:c r="BJ137" s="5" t="s"/>
-      <x:c r="BK137" s="5" t="s"/>
+      <x:c r="BJ137" s="1" t="s"/>
+      <x:c r="BK137" s="1" t="s"/>
       <x:c r="BL137" s="5" t="s"/>
       <x:c r="BM137" s="5" t="s"/>
       <x:c r="BN137" s="5" t="s"/>
       <x:c r="BO137" s="5" t="s"/>
       <x:c r="BP137" s="5" t="s"/>
       <x:c r="BQ137" s="5" t="s"/>
-    </x:row>
-    <x:row r="138" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR137" s="5" t="s"/>
+      <x:c r="BS137" s="5" t="s"/>
+    </x:row>
+    <x:row r="138" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A138" s="5" t="s"/>
       <x:c r="B138" s="5" t="s"/>
       <x:c r="C138" s="5" t="s"/>
       <x:c r="D138" s="5" t="s"/>
-      <x:c r="E138" s="1" t="s"/>
-      <x:c r="F138" s="1" t="s"/>
+      <x:c r="E138" s="5" t="s"/>
+      <x:c r="F138" s="5" t="s"/>
       <x:c r="G138" s="1" t="s"/>
       <x:c r="H138" s="1" t="s"/>
       <x:c r="I138" s="1" t="s"/>
@@ -10082,22 +10311,24 @@
       <x:c r="BG138" s="1" t="s"/>
       <x:c r="BH138" s="1" t="s"/>
       <x:c r="BI138" s="1" t="s"/>
-      <x:c r="BJ138" s="5" t="s"/>
-      <x:c r="BK138" s="5" t="s"/>
+      <x:c r="BJ138" s="1" t="s"/>
+      <x:c r="BK138" s="1" t="s"/>
       <x:c r="BL138" s="5" t="s"/>
       <x:c r="BM138" s="5" t="s"/>
       <x:c r="BN138" s="5" t="s"/>
       <x:c r="BO138" s="5" t="s"/>
       <x:c r="BP138" s="5" t="s"/>
       <x:c r="BQ138" s="5" t="s"/>
-    </x:row>
-    <x:row r="139" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR138" s="5" t="s"/>
+      <x:c r="BS138" s="5" t="s"/>
+    </x:row>
+    <x:row r="139" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A139" s="5" t="s"/>
       <x:c r="B139" s="5" t="s"/>
       <x:c r="C139" s="5" t="s"/>
       <x:c r="D139" s="5" t="s"/>
-      <x:c r="E139" s="1" t="s"/>
-      <x:c r="F139" s="1" t="s"/>
+      <x:c r="E139" s="5" t="s"/>
+      <x:c r="F139" s="5" t="s"/>
       <x:c r="G139" s="1" t="s"/>
       <x:c r="H139" s="1" t="s"/>
       <x:c r="I139" s="1" t="s"/>
@@ -10153,22 +10384,24 @@
       <x:c r="BG139" s="1" t="s"/>
       <x:c r="BH139" s="1" t="s"/>
       <x:c r="BI139" s="1" t="s"/>
-      <x:c r="BJ139" s="5" t="s"/>
-      <x:c r="BK139" s="5" t="s"/>
+      <x:c r="BJ139" s="1" t="s"/>
+      <x:c r="BK139" s="1" t="s"/>
       <x:c r="BL139" s="5" t="s"/>
       <x:c r="BM139" s="5" t="s"/>
       <x:c r="BN139" s="5" t="s"/>
       <x:c r="BO139" s="5" t="s"/>
       <x:c r="BP139" s="5" t="s"/>
       <x:c r="BQ139" s="5" t="s"/>
-    </x:row>
-    <x:row r="140" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR139" s="5" t="s"/>
+      <x:c r="BS139" s="5" t="s"/>
+    </x:row>
+    <x:row r="140" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A140" s="5" t="s"/>
       <x:c r="B140" s="5" t="s"/>
       <x:c r="C140" s="5" t="s"/>
       <x:c r="D140" s="5" t="s"/>
-      <x:c r="E140" s="1" t="s"/>
-      <x:c r="F140" s="1" t="s"/>
+      <x:c r="E140" s="5" t="s"/>
+      <x:c r="F140" s="5" t="s"/>
       <x:c r="G140" s="1" t="s"/>
       <x:c r="H140" s="1" t="s"/>
       <x:c r="I140" s="1" t="s"/>
@@ -10224,22 +10457,24 @@
       <x:c r="BG140" s="1" t="s"/>
       <x:c r="BH140" s="1" t="s"/>
       <x:c r="BI140" s="1" t="s"/>
-      <x:c r="BJ140" s="5" t="s"/>
-      <x:c r="BK140" s="5" t="s"/>
+      <x:c r="BJ140" s="1" t="s"/>
+      <x:c r="BK140" s="1" t="s"/>
       <x:c r="BL140" s="5" t="s"/>
       <x:c r="BM140" s="5" t="s"/>
       <x:c r="BN140" s="5" t="s"/>
       <x:c r="BO140" s="5" t="s"/>
       <x:c r="BP140" s="5" t="s"/>
       <x:c r="BQ140" s="5" t="s"/>
-    </x:row>
-    <x:row r="141" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR140" s="5" t="s"/>
+      <x:c r="BS140" s="5" t="s"/>
+    </x:row>
+    <x:row r="141" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A141" s="5" t="s"/>
       <x:c r="B141" s="5" t="s"/>
       <x:c r="C141" s="5" t="s"/>
       <x:c r="D141" s="5" t="s"/>
-      <x:c r="E141" s="1" t="s"/>
-      <x:c r="F141" s="1" t="s"/>
+      <x:c r="E141" s="5" t="s"/>
+      <x:c r="F141" s="5" t="s"/>
       <x:c r="G141" s="1" t="s"/>
       <x:c r="H141" s="1" t="s"/>
       <x:c r="I141" s="1" t="s"/>
@@ -10295,22 +10530,24 @@
       <x:c r="BG141" s="1" t="s"/>
       <x:c r="BH141" s="1" t="s"/>
       <x:c r="BI141" s="1" t="s"/>
-      <x:c r="BJ141" s="5" t="s"/>
-      <x:c r="BK141" s="5" t="s"/>
+      <x:c r="BJ141" s="1" t="s"/>
+      <x:c r="BK141" s="1" t="s"/>
       <x:c r="BL141" s="5" t="s"/>
       <x:c r="BM141" s="5" t="s"/>
       <x:c r="BN141" s="5" t="s"/>
       <x:c r="BO141" s="5" t="s"/>
       <x:c r="BP141" s="5" t="s"/>
       <x:c r="BQ141" s="5" t="s"/>
-    </x:row>
-    <x:row r="142" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR141" s="5" t="s"/>
+      <x:c r="BS141" s="5" t="s"/>
+    </x:row>
+    <x:row r="142" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A142" s="5" t="s"/>
       <x:c r="B142" s="5" t="s"/>
       <x:c r="C142" s="5" t="s"/>
       <x:c r="D142" s="5" t="s"/>
-      <x:c r="E142" s="1" t="s"/>
-      <x:c r="F142" s="1" t="s"/>
+      <x:c r="E142" s="5" t="s"/>
+      <x:c r="F142" s="5" t="s"/>
       <x:c r="G142" s="1" t="s"/>
       <x:c r="H142" s="1" t="s"/>
       <x:c r="I142" s="1" t="s"/>
@@ -10366,22 +10603,24 @@
       <x:c r="BG142" s="1" t="s"/>
       <x:c r="BH142" s="1" t="s"/>
       <x:c r="BI142" s="1" t="s"/>
-      <x:c r="BJ142" s="5" t="s"/>
-      <x:c r="BK142" s="5" t="s"/>
+      <x:c r="BJ142" s="1" t="s"/>
+      <x:c r="BK142" s="1" t="s"/>
       <x:c r="BL142" s="5" t="s"/>
       <x:c r="BM142" s="5" t="s"/>
       <x:c r="BN142" s="5" t="s"/>
       <x:c r="BO142" s="5" t="s"/>
       <x:c r="BP142" s="5" t="s"/>
       <x:c r="BQ142" s="5" t="s"/>
-    </x:row>
-    <x:row r="143" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR142" s="5" t="s"/>
+      <x:c r="BS142" s="5" t="s"/>
+    </x:row>
+    <x:row r="143" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A143" s="5" t="s"/>
       <x:c r="B143" s="5" t="s"/>
       <x:c r="C143" s="5" t="s"/>
       <x:c r="D143" s="5" t="s"/>
-      <x:c r="E143" s="1" t="s"/>
-      <x:c r="F143" s="1" t="s"/>
+      <x:c r="E143" s="5" t="s"/>
+      <x:c r="F143" s="5" t="s"/>
       <x:c r="G143" s="1" t="s"/>
       <x:c r="H143" s="1" t="s"/>
       <x:c r="I143" s="1" t="s"/>
@@ -10437,22 +10676,24 @@
       <x:c r="BG143" s="1" t="s"/>
       <x:c r="BH143" s="1" t="s"/>
       <x:c r="BI143" s="1" t="s"/>
-      <x:c r="BJ143" s="5" t="s"/>
-      <x:c r="BK143" s="5" t="s"/>
+      <x:c r="BJ143" s="1" t="s"/>
+      <x:c r="BK143" s="1" t="s"/>
       <x:c r="BL143" s="5" t="s"/>
       <x:c r="BM143" s="5" t="s"/>
       <x:c r="BN143" s="5" t="s"/>
       <x:c r="BO143" s="5" t="s"/>
       <x:c r="BP143" s="5" t="s"/>
       <x:c r="BQ143" s="5" t="s"/>
-    </x:row>
-    <x:row r="144" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR143" s="5" t="s"/>
+      <x:c r="BS143" s="5" t="s"/>
+    </x:row>
+    <x:row r="144" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A144" s="5" t="s"/>
       <x:c r="B144" s="5" t="s"/>
       <x:c r="C144" s="5" t="s"/>
       <x:c r="D144" s="5" t="s"/>
-      <x:c r="E144" s="1" t="s"/>
-      <x:c r="F144" s="1" t="s"/>
+      <x:c r="E144" s="5" t="s"/>
+      <x:c r="F144" s="5" t="s"/>
       <x:c r="G144" s="1" t="s"/>
       <x:c r="H144" s="1" t="s"/>
       <x:c r="I144" s="1" t="s"/>
@@ -10508,22 +10749,24 @@
       <x:c r="BG144" s="1" t="s"/>
       <x:c r="BH144" s="1" t="s"/>
       <x:c r="BI144" s="1" t="s"/>
-      <x:c r="BJ144" s="5" t="s"/>
-      <x:c r="BK144" s="5" t="s"/>
+      <x:c r="BJ144" s="1" t="s"/>
+      <x:c r="BK144" s="1" t="s"/>
       <x:c r="BL144" s="5" t="s"/>
       <x:c r="BM144" s="5" t="s"/>
       <x:c r="BN144" s="5" t="s"/>
       <x:c r="BO144" s="5" t="s"/>
       <x:c r="BP144" s="5" t="s"/>
       <x:c r="BQ144" s="5" t="s"/>
-    </x:row>
-    <x:row r="145" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR144" s="5" t="s"/>
+      <x:c r="BS144" s="5" t="s"/>
+    </x:row>
+    <x:row r="145" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A145" s="5" t="s"/>
       <x:c r="B145" s="5" t="s"/>
       <x:c r="C145" s="5" t="s"/>
       <x:c r="D145" s="5" t="s"/>
-      <x:c r="E145" s="1" t="s"/>
-      <x:c r="F145" s="1" t="s"/>
+      <x:c r="E145" s="5" t="s"/>
+      <x:c r="F145" s="5" t="s"/>
       <x:c r="G145" s="1" t="s"/>
       <x:c r="H145" s="1" t="s"/>
       <x:c r="I145" s="1" t="s"/>
@@ -10579,22 +10822,24 @@
       <x:c r="BG145" s="1" t="s"/>
       <x:c r="BH145" s="1" t="s"/>
       <x:c r="BI145" s="1" t="s"/>
-      <x:c r="BJ145" s="5" t="s"/>
-      <x:c r="BK145" s="5" t="s"/>
+      <x:c r="BJ145" s="1" t="s"/>
+      <x:c r="BK145" s="1" t="s"/>
       <x:c r="BL145" s="5" t="s"/>
       <x:c r="BM145" s="5" t="s"/>
       <x:c r="BN145" s="5" t="s"/>
       <x:c r="BO145" s="5" t="s"/>
       <x:c r="BP145" s="5" t="s"/>
       <x:c r="BQ145" s="5" t="s"/>
-    </x:row>
-    <x:row r="146" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR145" s="5" t="s"/>
+      <x:c r="BS145" s="5" t="s"/>
+    </x:row>
+    <x:row r="146" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A146" s="5" t="s"/>
       <x:c r="B146" s="5" t="s"/>
       <x:c r="C146" s="5" t="s"/>
       <x:c r="D146" s="5" t="s"/>
-      <x:c r="E146" s="1" t="s"/>
-      <x:c r="F146" s="1" t="s"/>
+      <x:c r="E146" s="5" t="s"/>
+      <x:c r="F146" s="5" t="s"/>
       <x:c r="G146" s="1" t="s"/>
       <x:c r="H146" s="1" t="s"/>
       <x:c r="I146" s="1" t="s"/>
@@ -10650,22 +10895,24 @@
       <x:c r="BG146" s="1" t="s"/>
       <x:c r="BH146" s="1" t="s"/>
       <x:c r="BI146" s="1" t="s"/>
-      <x:c r="BJ146" s="5" t="s"/>
-      <x:c r="BK146" s="5" t="s"/>
+      <x:c r="BJ146" s="1" t="s"/>
+      <x:c r="BK146" s="1" t="s"/>
       <x:c r="BL146" s="5" t="s"/>
       <x:c r="BM146" s="5" t="s"/>
       <x:c r="BN146" s="5" t="s"/>
       <x:c r="BO146" s="5" t="s"/>
       <x:c r="BP146" s="5" t="s"/>
       <x:c r="BQ146" s="5" t="s"/>
-    </x:row>
-    <x:row r="147" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR146" s="5" t="s"/>
+      <x:c r="BS146" s="5" t="s"/>
+    </x:row>
+    <x:row r="147" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A147" s="5" t="s"/>
       <x:c r="B147" s="5" t="s"/>
       <x:c r="C147" s="5" t="s"/>
       <x:c r="D147" s="5" t="s"/>
-      <x:c r="E147" s="1" t="s"/>
-      <x:c r="F147" s="1" t="s"/>
+      <x:c r="E147" s="5" t="s"/>
+      <x:c r="F147" s="5" t="s"/>
       <x:c r="G147" s="1" t="s"/>
       <x:c r="H147" s="1" t="s"/>
       <x:c r="I147" s="1" t="s"/>
@@ -10721,22 +10968,24 @@
       <x:c r="BG147" s="1" t="s"/>
       <x:c r="BH147" s="1" t="s"/>
       <x:c r="BI147" s="1" t="s"/>
-      <x:c r="BJ147" s="5" t="s"/>
-      <x:c r="BK147" s="5" t="s"/>
+      <x:c r="BJ147" s="1" t="s"/>
+      <x:c r="BK147" s="1" t="s"/>
       <x:c r="BL147" s="5" t="s"/>
       <x:c r="BM147" s="5" t="s"/>
       <x:c r="BN147" s="5" t="s"/>
       <x:c r="BO147" s="5" t="s"/>
       <x:c r="BP147" s="5" t="s"/>
       <x:c r="BQ147" s="5" t="s"/>
-    </x:row>
-    <x:row r="148" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR147" s="5" t="s"/>
+      <x:c r="BS147" s="5" t="s"/>
+    </x:row>
+    <x:row r="148" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A148" s="5" t="s"/>
       <x:c r="B148" s="5" t="s"/>
       <x:c r="C148" s="5" t="s"/>
       <x:c r="D148" s="5" t="s"/>
-      <x:c r="E148" s="1" t="s"/>
-      <x:c r="F148" s="1" t="s"/>
+      <x:c r="E148" s="5" t="s"/>
+      <x:c r="F148" s="5" t="s"/>
       <x:c r="G148" s="1" t="s"/>
       <x:c r="H148" s="1" t="s"/>
       <x:c r="I148" s="1" t="s"/>
@@ -10792,22 +11041,24 @@
       <x:c r="BG148" s="1" t="s"/>
       <x:c r="BH148" s="1" t="s"/>
       <x:c r="BI148" s="1" t="s"/>
-      <x:c r="BJ148" s="5" t="s"/>
-      <x:c r="BK148" s="5" t="s"/>
+      <x:c r="BJ148" s="1" t="s"/>
+      <x:c r="BK148" s="1" t="s"/>
       <x:c r="BL148" s="5" t="s"/>
       <x:c r="BM148" s="5" t="s"/>
       <x:c r="BN148" s="5" t="s"/>
       <x:c r="BO148" s="5" t="s"/>
       <x:c r="BP148" s="5" t="s"/>
       <x:c r="BQ148" s="5" t="s"/>
-    </x:row>
-    <x:row r="149" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR148" s="5" t="s"/>
+      <x:c r="BS148" s="5" t="s"/>
+    </x:row>
+    <x:row r="149" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A149" s="5" t="s"/>
       <x:c r="B149" s="5" t="s"/>
       <x:c r="C149" s="5" t="s"/>
       <x:c r="D149" s="5" t="s"/>
-      <x:c r="E149" s="1" t="s"/>
-      <x:c r="F149" s="1" t="s"/>
+      <x:c r="E149" s="5" t="s"/>
+      <x:c r="F149" s="5" t="s"/>
       <x:c r="G149" s="1" t="s"/>
       <x:c r="H149" s="1" t="s"/>
       <x:c r="I149" s="1" t="s"/>
@@ -10863,22 +11114,24 @@
       <x:c r="BG149" s="1" t="s"/>
       <x:c r="BH149" s="1" t="s"/>
       <x:c r="BI149" s="1" t="s"/>
-      <x:c r="BJ149" s="5" t="s"/>
-      <x:c r="BK149" s="5" t="s"/>
+      <x:c r="BJ149" s="1" t="s"/>
+      <x:c r="BK149" s="1" t="s"/>
       <x:c r="BL149" s="5" t="s"/>
       <x:c r="BM149" s="5" t="s"/>
       <x:c r="BN149" s="5" t="s"/>
       <x:c r="BO149" s="5" t="s"/>
       <x:c r="BP149" s="5" t="s"/>
       <x:c r="BQ149" s="5" t="s"/>
-    </x:row>
-    <x:row r="150" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR149" s="5" t="s"/>
+      <x:c r="BS149" s="5" t="s"/>
+    </x:row>
+    <x:row r="150" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A150" s="5" t="s"/>
       <x:c r="B150" s="5" t="s"/>
       <x:c r="C150" s="5" t="s"/>
       <x:c r="D150" s="5" t="s"/>
-      <x:c r="E150" s="1" t="s"/>
-      <x:c r="F150" s="1" t="s"/>
+      <x:c r="E150" s="5" t="s"/>
+      <x:c r="F150" s="5" t="s"/>
       <x:c r="G150" s="1" t="s"/>
       <x:c r="H150" s="1" t="s"/>
       <x:c r="I150" s="1" t="s"/>
@@ -10934,22 +11187,24 @@
       <x:c r="BG150" s="1" t="s"/>
       <x:c r="BH150" s="1" t="s"/>
       <x:c r="BI150" s="1" t="s"/>
-      <x:c r="BJ150" s="5" t="s"/>
-      <x:c r="BK150" s="5" t="s"/>
+      <x:c r="BJ150" s="1" t="s"/>
+      <x:c r="BK150" s="1" t="s"/>
       <x:c r="BL150" s="5" t="s"/>
       <x:c r="BM150" s="5" t="s"/>
       <x:c r="BN150" s="5" t="s"/>
       <x:c r="BO150" s="5" t="s"/>
       <x:c r="BP150" s="5" t="s"/>
       <x:c r="BQ150" s="5" t="s"/>
-    </x:row>
-    <x:row r="151" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR150" s="5" t="s"/>
+      <x:c r="BS150" s="5" t="s"/>
+    </x:row>
+    <x:row r="151" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A151" s="5" t="s"/>
       <x:c r="B151" s="5" t="s"/>
       <x:c r="C151" s="5" t="s"/>
       <x:c r="D151" s="5" t="s"/>
-      <x:c r="E151" s="1" t="s"/>
-      <x:c r="F151" s="1" t="s"/>
+      <x:c r="E151" s="5" t="s"/>
+      <x:c r="F151" s="5" t="s"/>
       <x:c r="G151" s="1" t="s"/>
       <x:c r="H151" s="1" t="s"/>
       <x:c r="I151" s="1" t="s"/>
@@ -11005,22 +11260,24 @@
       <x:c r="BG151" s="1" t="s"/>
       <x:c r="BH151" s="1" t="s"/>
       <x:c r="BI151" s="1" t="s"/>
-      <x:c r="BJ151" s="5" t="s"/>
-      <x:c r="BK151" s="5" t="s"/>
+      <x:c r="BJ151" s="1" t="s"/>
+      <x:c r="BK151" s="1" t="s"/>
       <x:c r="BL151" s="5" t="s"/>
       <x:c r="BM151" s="5" t="s"/>
       <x:c r="BN151" s="5" t="s"/>
       <x:c r="BO151" s="5" t="s"/>
       <x:c r="BP151" s="5" t="s"/>
       <x:c r="BQ151" s="5" t="s"/>
-    </x:row>
-    <x:row r="152" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR151" s="5" t="s"/>
+      <x:c r="BS151" s="5" t="s"/>
+    </x:row>
+    <x:row r="152" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A152" s="5" t="s"/>
       <x:c r="B152" s="5" t="s"/>
       <x:c r="C152" s="5" t="s"/>
       <x:c r="D152" s="5" t="s"/>
-      <x:c r="E152" s="1" t="s"/>
-      <x:c r="F152" s="1" t="s"/>
+      <x:c r="E152" s="5" t="s"/>
+      <x:c r="F152" s="5" t="s"/>
       <x:c r="G152" s="1" t="s"/>
       <x:c r="H152" s="1" t="s"/>
       <x:c r="I152" s="1" t="s"/>
@@ -11076,22 +11333,24 @@
       <x:c r="BG152" s="1" t="s"/>
       <x:c r="BH152" s="1" t="s"/>
       <x:c r="BI152" s="1" t="s"/>
-      <x:c r="BJ152" s="5" t="s"/>
-      <x:c r="BK152" s="5" t="s"/>
+      <x:c r="BJ152" s="1" t="s"/>
+      <x:c r="BK152" s="1" t="s"/>
       <x:c r="BL152" s="5" t="s"/>
       <x:c r="BM152" s="5" t="s"/>
       <x:c r="BN152" s="5" t="s"/>
       <x:c r="BO152" s="5" t="s"/>
       <x:c r="BP152" s="5" t="s"/>
       <x:c r="BQ152" s="5" t="s"/>
-    </x:row>
-    <x:row r="153" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR152" s="5" t="s"/>
+      <x:c r="BS152" s="5" t="s"/>
+    </x:row>
+    <x:row r="153" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A153" s="5" t="s"/>
       <x:c r="B153" s="5" t="s"/>
       <x:c r="C153" s="5" t="s"/>
       <x:c r="D153" s="5" t="s"/>
-      <x:c r="E153" s="1" t="s"/>
-      <x:c r="F153" s="1" t="s"/>
+      <x:c r="E153" s="5" t="s"/>
+      <x:c r="F153" s="5" t="s"/>
       <x:c r="G153" s="1" t="s"/>
       <x:c r="H153" s="1" t="s"/>
       <x:c r="I153" s="1" t="s"/>
@@ -11147,22 +11406,24 @@
       <x:c r="BG153" s="1" t="s"/>
       <x:c r="BH153" s="1" t="s"/>
       <x:c r="BI153" s="1" t="s"/>
-      <x:c r="BJ153" s="5" t="s"/>
-      <x:c r="BK153" s="5" t="s"/>
+      <x:c r="BJ153" s="1" t="s"/>
+      <x:c r="BK153" s="1" t="s"/>
       <x:c r="BL153" s="5" t="s"/>
       <x:c r="BM153" s="5" t="s"/>
       <x:c r="BN153" s="5" t="s"/>
       <x:c r="BO153" s="5" t="s"/>
       <x:c r="BP153" s="5" t="s"/>
       <x:c r="BQ153" s="5" t="s"/>
-    </x:row>
-    <x:row r="154" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR153" s="5" t="s"/>
+      <x:c r="BS153" s="5" t="s"/>
+    </x:row>
+    <x:row r="154" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A154" s="5" t="s"/>
       <x:c r="B154" s="5" t="s"/>
       <x:c r="C154" s="5" t="s"/>
       <x:c r="D154" s="5" t="s"/>
-      <x:c r="E154" s="1" t="s"/>
-      <x:c r="F154" s="1" t="s"/>
+      <x:c r="E154" s="5" t="s"/>
+      <x:c r="F154" s="5" t="s"/>
       <x:c r="G154" s="1" t="s"/>
       <x:c r="H154" s="1" t="s"/>
       <x:c r="I154" s="1" t="s"/>
@@ -11218,22 +11479,24 @@
       <x:c r="BG154" s="1" t="s"/>
       <x:c r="BH154" s="1" t="s"/>
       <x:c r="BI154" s="1" t="s"/>
-      <x:c r="BJ154" s="5" t="s"/>
-      <x:c r="BK154" s="5" t="s"/>
+      <x:c r="BJ154" s="1" t="s"/>
+      <x:c r="BK154" s="1" t="s"/>
       <x:c r="BL154" s="5" t="s"/>
       <x:c r="BM154" s="5" t="s"/>
       <x:c r="BN154" s="5" t="s"/>
       <x:c r="BO154" s="5" t="s"/>
       <x:c r="BP154" s="5" t="s"/>
       <x:c r="BQ154" s="5" t="s"/>
-    </x:row>
-    <x:row r="155" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR154" s="5" t="s"/>
+      <x:c r="BS154" s="5" t="s"/>
+    </x:row>
+    <x:row r="155" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A155" s="5" t="s"/>
       <x:c r="B155" s="5" t="s"/>
       <x:c r="C155" s="5" t="s"/>
       <x:c r="D155" s="5" t="s"/>
-      <x:c r="E155" s="1" t="s"/>
-      <x:c r="F155" s="1" t="s"/>
+      <x:c r="E155" s="5" t="s"/>
+      <x:c r="F155" s="5" t="s"/>
       <x:c r="G155" s="1" t="s"/>
       <x:c r="H155" s="1" t="s"/>
       <x:c r="I155" s="1" t="s"/>
@@ -11289,22 +11552,24 @@
       <x:c r="BG155" s="1" t="s"/>
       <x:c r="BH155" s="1" t="s"/>
       <x:c r="BI155" s="1" t="s"/>
-      <x:c r="BJ155" s="5" t="s"/>
-      <x:c r="BK155" s="5" t="s"/>
+      <x:c r="BJ155" s="1" t="s"/>
+      <x:c r="BK155" s="1" t="s"/>
       <x:c r="BL155" s="5" t="s"/>
       <x:c r="BM155" s="5" t="s"/>
       <x:c r="BN155" s="5" t="s"/>
       <x:c r="BO155" s="5" t="s"/>
       <x:c r="BP155" s="5" t="s"/>
       <x:c r="BQ155" s="5" t="s"/>
-    </x:row>
-    <x:row r="156" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR155" s="5" t="s"/>
+      <x:c r="BS155" s="5" t="s"/>
+    </x:row>
+    <x:row r="156" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A156" s="5" t="s"/>
       <x:c r="B156" s="5" t="s"/>
       <x:c r="C156" s="5" t="s"/>
       <x:c r="D156" s="5" t="s"/>
-      <x:c r="E156" s="1" t="s"/>
-      <x:c r="F156" s="1" t="s"/>
+      <x:c r="E156" s="5" t="s"/>
+      <x:c r="F156" s="5" t="s"/>
       <x:c r="G156" s="1" t="s"/>
       <x:c r="H156" s="1" t="s"/>
       <x:c r="I156" s="1" t="s"/>
@@ -11360,22 +11625,24 @@
       <x:c r="BG156" s="1" t="s"/>
       <x:c r="BH156" s="1" t="s"/>
       <x:c r="BI156" s="1" t="s"/>
-      <x:c r="BJ156" s="5" t="s"/>
-      <x:c r="BK156" s="5" t="s"/>
+      <x:c r="BJ156" s="1" t="s"/>
+      <x:c r="BK156" s="1" t="s"/>
       <x:c r="BL156" s="5" t="s"/>
       <x:c r="BM156" s="5" t="s"/>
       <x:c r="BN156" s="5" t="s"/>
       <x:c r="BO156" s="5" t="s"/>
       <x:c r="BP156" s="5" t="s"/>
       <x:c r="BQ156" s="5" t="s"/>
-    </x:row>
-    <x:row r="157" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR156" s="5" t="s"/>
+      <x:c r="BS156" s="5" t="s"/>
+    </x:row>
+    <x:row r="157" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A157" s="5" t="s"/>
       <x:c r="B157" s="5" t="s"/>
       <x:c r="C157" s="5" t="s"/>
       <x:c r="D157" s="5" t="s"/>
-      <x:c r="E157" s="1" t="s"/>
-      <x:c r="F157" s="1" t="s"/>
+      <x:c r="E157" s="5" t="s"/>
+      <x:c r="F157" s="5" t="s"/>
       <x:c r="G157" s="1" t="s"/>
       <x:c r="H157" s="1" t="s"/>
       <x:c r="I157" s="1" t="s"/>
@@ -11431,22 +11698,24 @@
       <x:c r="BG157" s="1" t="s"/>
       <x:c r="BH157" s="1" t="s"/>
       <x:c r="BI157" s="1" t="s"/>
-      <x:c r="BJ157" s="5" t="s"/>
-      <x:c r="BK157" s="5" t="s"/>
+      <x:c r="BJ157" s="1" t="s"/>
+      <x:c r="BK157" s="1" t="s"/>
       <x:c r="BL157" s="5" t="s"/>
       <x:c r="BM157" s="5" t="s"/>
       <x:c r="BN157" s="5" t="s"/>
       <x:c r="BO157" s="5" t="s"/>
       <x:c r="BP157" s="5" t="s"/>
       <x:c r="BQ157" s="5" t="s"/>
-    </x:row>
-    <x:row r="158" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR157" s="5" t="s"/>
+      <x:c r="BS157" s="5" t="s"/>
+    </x:row>
+    <x:row r="158" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A158" s="5" t="s"/>
       <x:c r="B158" s="5" t="s"/>
       <x:c r="C158" s="5" t="s"/>
       <x:c r="D158" s="5" t="s"/>
-      <x:c r="E158" s="1" t="s"/>
-      <x:c r="F158" s="1" t="s"/>
+      <x:c r="E158" s="5" t="s"/>
+      <x:c r="F158" s="5" t="s"/>
       <x:c r="G158" s="1" t="s"/>
       <x:c r="H158" s="1" t="s"/>
       <x:c r="I158" s="1" t="s"/>
@@ -11502,22 +11771,24 @@
       <x:c r="BG158" s="1" t="s"/>
       <x:c r="BH158" s="1" t="s"/>
       <x:c r="BI158" s="1" t="s"/>
-      <x:c r="BJ158" s="5" t="s"/>
-      <x:c r="BK158" s="5" t="s"/>
+      <x:c r="BJ158" s="1" t="s"/>
+      <x:c r="BK158" s="1" t="s"/>
       <x:c r="BL158" s="5" t="s"/>
       <x:c r="BM158" s="5" t="s"/>
       <x:c r="BN158" s="5" t="s"/>
       <x:c r="BO158" s="5" t="s"/>
       <x:c r="BP158" s="5" t="s"/>
       <x:c r="BQ158" s="5" t="s"/>
-    </x:row>
-    <x:row r="159" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR158" s="5" t="s"/>
+      <x:c r="BS158" s="5" t="s"/>
+    </x:row>
+    <x:row r="159" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A159" s="5" t="s"/>
       <x:c r="B159" s="5" t="s"/>
       <x:c r="C159" s="5" t="s"/>
       <x:c r="D159" s="5" t="s"/>
-      <x:c r="E159" s="1" t="s"/>
-      <x:c r="F159" s="1" t="s"/>
+      <x:c r="E159" s="5" t="s"/>
+      <x:c r="F159" s="5" t="s"/>
       <x:c r="G159" s="1" t="s"/>
       <x:c r="H159" s="1" t="s"/>
       <x:c r="I159" s="1" t="s"/>
@@ -11573,22 +11844,24 @@
       <x:c r="BG159" s="1" t="s"/>
       <x:c r="BH159" s="1" t="s"/>
       <x:c r="BI159" s="1" t="s"/>
-      <x:c r="BJ159" s="5" t="s"/>
-      <x:c r="BK159" s="5" t="s"/>
+      <x:c r="BJ159" s="1" t="s"/>
+      <x:c r="BK159" s="1" t="s"/>
       <x:c r="BL159" s="5" t="s"/>
       <x:c r="BM159" s="5" t="s"/>
       <x:c r="BN159" s="5" t="s"/>
       <x:c r="BO159" s="5" t="s"/>
       <x:c r="BP159" s="5" t="s"/>
       <x:c r="BQ159" s="5" t="s"/>
-    </x:row>
-    <x:row r="160" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR159" s="5" t="s"/>
+      <x:c r="BS159" s="5" t="s"/>
+    </x:row>
+    <x:row r="160" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A160" s="5" t="s"/>
       <x:c r="B160" s="5" t="s"/>
       <x:c r="C160" s="5" t="s"/>
       <x:c r="D160" s="5" t="s"/>
-      <x:c r="E160" s="1" t="s"/>
-      <x:c r="F160" s="1" t="s"/>
+      <x:c r="E160" s="5" t="s"/>
+      <x:c r="F160" s="5" t="s"/>
       <x:c r="G160" s="1" t="s"/>
       <x:c r="H160" s="1" t="s"/>
       <x:c r="I160" s="1" t="s"/>
@@ -11644,22 +11917,24 @@
       <x:c r="BG160" s="1" t="s"/>
       <x:c r="BH160" s="1" t="s"/>
       <x:c r="BI160" s="1" t="s"/>
-      <x:c r="BJ160" s="5" t="s"/>
-      <x:c r="BK160" s="5" t="s"/>
+      <x:c r="BJ160" s="1" t="s"/>
+      <x:c r="BK160" s="1" t="s"/>
       <x:c r="BL160" s="5" t="s"/>
       <x:c r="BM160" s="5" t="s"/>
       <x:c r="BN160" s="5" t="s"/>
       <x:c r="BO160" s="5" t="s"/>
       <x:c r="BP160" s="5" t="s"/>
       <x:c r="BQ160" s="5" t="s"/>
-    </x:row>
-    <x:row r="161" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR160" s="5" t="s"/>
+      <x:c r="BS160" s="5" t="s"/>
+    </x:row>
+    <x:row r="161" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A161" s="5" t="s"/>
       <x:c r="B161" s="5" t="s"/>
       <x:c r="C161" s="5" t="s"/>
       <x:c r="D161" s="5" t="s"/>
-      <x:c r="E161" s="1" t="s"/>
-      <x:c r="F161" s="1" t="s"/>
+      <x:c r="E161" s="5" t="s"/>
+      <x:c r="F161" s="5" t="s"/>
       <x:c r="G161" s="1" t="s"/>
       <x:c r="H161" s="1" t="s"/>
       <x:c r="I161" s="1" t="s"/>
@@ -11715,22 +11990,24 @@
       <x:c r="BG161" s="1" t="s"/>
       <x:c r="BH161" s="1" t="s"/>
       <x:c r="BI161" s="1" t="s"/>
-      <x:c r="BJ161" s="5" t="s"/>
-      <x:c r="BK161" s="5" t="s"/>
+      <x:c r="BJ161" s="1" t="s"/>
+      <x:c r="BK161" s="1" t="s"/>
       <x:c r="BL161" s="5" t="s"/>
       <x:c r="BM161" s="5" t="s"/>
       <x:c r="BN161" s="5" t="s"/>
       <x:c r="BO161" s="5" t="s"/>
       <x:c r="BP161" s="5" t="s"/>
       <x:c r="BQ161" s="5" t="s"/>
-    </x:row>
-    <x:row r="162" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR161" s="5" t="s"/>
+      <x:c r="BS161" s="5" t="s"/>
+    </x:row>
+    <x:row r="162" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A162" s="5" t="s"/>
       <x:c r="B162" s="5" t="s"/>
       <x:c r="C162" s="5" t="s"/>
       <x:c r="D162" s="5" t="s"/>
-      <x:c r="E162" s="1" t="s"/>
-      <x:c r="F162" s="1" t="s"/>
+      <x:c r="E162" s="5" t="s"/>
+      <x:c r="F162" s="5" t="s"/>
       <x:c r="G162" s="1" t="s"/>
       <x:c r="H162" s="1" t="s"/>
       <x:c r="I162" s="1" t="s"/>
@@ -11786,22 +12063,24 @@
       <x:c r="BG162" s="1" t="s"/>
       <x:c r="BH162" s="1" t="s"/>
       <x:c r="BI162" s="1" t="s"/>
-      <x:c r="BJ162" s="5" t="s"/>
-      <x:c r="BK162" s="5" t="s"/>
+      <x:c r="BJ162" s="1" t="s"/>
+      <x:c r="BK162" s="1" t="s"/>
       <x:c r="BL162" s="5" t="s"/>
       <x:c r="BM162" s="5" t="s"/>
       <x:c r="BN162" s="5" t="s"/>
       <x:c r="BO162" s="5" t="s"/>
       <x:c r="BP162" s="5" t="s"/>
       <x:c r="BQ162" s="5" t="s"/>
-    </x:row>
-    <x:row r="163" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR162" s="5" t="s"/>
+      <x:c r="BS162" s="5" t="s"/>
+    </x:row>
+    <x:row r="163" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A163" s="5" t="s"/>
       <x:c r="B163" s="5" t="s"/>
       <x:c r="C163" s="5" t="s"/>
       <x:c r="D163" s="5" t="s"/>
-      <x:c r="E163" s="1" t="s"/>
-      <x:c r="F163" s="1" t="s"/>
+      <x:c r="E163" s="5" t="s"/>
+      <x:c r="F163" s="5" t="s"/>
       <x:c r="G163" s="1" t="s"/>
       <x:c r="H163" s="1" t="s"/>
       <x:c r="I163" s="1" t="s"/>
@@ -11857,22 +12136,24 @@
       <x:c r="BG163" s="1" t="s"/>
       <x:c r="BH163" s="1" t="s"/>
       <x:c r="BI163" s="1" t="s"/>
-      <x:c r="BJ163" s="5" t="s"/>
-      <x:c r="BK163" s="5" t="s"/>
+      <x:c r="BJ163" s="1" t="s"/>
+      <x:c r="BK163" s="1" t="s"/>
       <x:c r="BL163" s="5" t="s"/>
       <x:c r="BM163" s="5" t="s"/>
       <x:c r="BN163" s="5" t="s"/>
       <x:c r="BO163" s="5" t="s"/>
       <x:c r="BP163" s="5" t="s"/>
       <x:c r="BQ163" s="5" t="s"/>
-    </x:row>
-    <x:row r="164" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR163" s="5" t="s"/>
+      <x:c r="BS163" s="5" t="s"/>
+    </x:row>
+    <x:row r="164" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A164" s="5" t="s"/>
       <x:c r="B164" s="5" t="s"/>
       <x:c r="C164" s="5" t="s"/>
       <x:c r="D164" s="5" t="s"/>
-      <x:c r="E164" s="1" t="s"/>
-      <x:c r="F164" s="1" t="s"/>
+      <x:c r="E164" s="5" t="s"/>
+      <x:c r="F164" s="5" t="s"/>
       <x:c r="G164" s="1" t="s"/>
       <x:c r="H164" s="1" t="s"/>
       <x:c r="I164" s="1" t="s"/>
@@ -11928,22 +12209,24 @@
       <x:c r="BG164" s="1" t="s"/>
       <x:c r="BH164" s="1" t="s"/>
       <x:c r="BI164" s="1" t="s"/>
-      <x:c r="BJ164" s="5" t="s"/>
-      <x:c r="BK164" s="5" t="s"/>
+      <x:c r="BJ164" s="1" t="s"/>
+      <x:c r="BK164" s="1" t="s"/>
       <x:c r="BL164" s="5" t="s"/>
       <x:c r="BM164" s="5" t="s"/>
       <x:c r="BN164" s="5" t="s"/>
       <x:c r="BO164" s="5" t="s"/>
       <x:c r="BP164" s="5" t="s"/>
       <x:c r="BQ164" s="5" t="s"/>
-    </x:row>
-    <x:row r="165" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR164" s="5" t="s"/>
+      <x:c r="BS164" s="5" t="s"/>
+    </x:row>
+    <x:row r="165" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A165" s="5" t="s"/>
       <x:c r="B165" s="5" t="s"/>
       <x:c r="C165" s="5" t="s"/>
       <x:c r="D165" s="5" t="s"/>
-      <x:c r="E165" s="1" t="s"/>
-      <x:c r="F165" s="1" t="s"/>
+      <x:c r="E165" s="5" t="s"/>
+      <x:c r="F165" s="5" t="s"/>
       <x:c r="G165" s="1" t="s"/>
       <x:c r="H165" s="1" t="s"/>
       <x:c r="I165" s="1" t="s"/>
@@ -11999,22 +12282,24 @@
       <x:c r="BG165" s="1" t="s"/>
       <x:c r="BH165" s="1" t="s"/>
       <x:c r="BI165" s="1" t="s"/>
-      <x:c r="BJ165" s="5" t="s"/>
-      <x:c r="BK165" s="5" t="s"/>
+      <x:c r="BJ165" s="1" t="s"/>
+      <x:c r="BK165" s="1" t="s"/>
       <x:c r="BL165" s="5" t="s"/>
       <x:c r="BM165" s="5" t="s"/>
       <x:c r="BN165" s="5" t="s"/>
       <x:c r="BO165" s="5" t="s"/>
       <x:c r="BP165" s="5" t="s"/>
       <x:c r="BQ165" s="5" t="s"/>
-    </x:row>
-    <x:row r="166" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR165" s="5" t="s"/>
+      <x:c r="BS165" s="5" t="s"/>
+    </x:row>
+    <x:row r="166" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A166" s="5" t="s"/>
       <x:c r="B166" s="5" t="s"/>
       <x:c r="C166" s="5" t="s"/>
       <x:c r="D166" s="5" t="s"/>
-      <x:c r="E166" s="1" t="s"/>
-      <x:c r="F166" s="1" t="s"/>
+      <x:c r="E166" s="5" t="s"/>
+      <x:c r="F166" s="5" t="s"/>
       <x:c r="G166" s="1" t="s"/>
       <x:c r="H166" s="1" t="s"/>
       <x:c r="I166" s="1" t="s"/>
@@ -12070,22 +12355,24 @@
       <x:c r="BG166" s="1" t="s"/>
       <x:c r="BH166" s="1" t="s"/>
       <x:c r="BI166" s="1" t="s"/>
-      <x:c r="BJ166" s="5" t="s"/>
-      <x:c r="BK166" s="5" t="s"/>
+      <x:c r="BJ166" s="1" t="s"/>
+      <x:c r="BK166" s="1" t="s"/>
       <x:c r="BL166" s="5" t="s"/>
       <x:c r="BM166" s="5" t="s"/>
       <x:c r="BN166" s="5" t="s"/>
       <x:c r="BO166" s="5" t="s"/>
       <x:c r="BP166" s="5" t="s"/>
       <x:c r="BQ166" s="5" t="s"/>
-    </x:row>
-    <x:row r="167" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR166" s="5" t="s"/>
+      <x:c r="BS166" s="5" t="s"/>
+    </x:row>
+    <x:row r="167" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A167" s="5" t="s"/>
       <x:c r="B167" s="5" t="s"/>
       <x:c r="C167" s="5" t="s"/>
       <x:c r="D167" s="5" t="s"/>
-      <x:c r="E167" s="1" t="s"/>
-      <x:c r="F167" s="1" t="s"/>
+      <x:c r="E167" s="5" t="s"/>
+      <x:c r="F167" s="5" t="s"/>
       <x:c r="G167" s="1" t="s"/>
       <x:c r="H167" s="1" t="s"/>
       <x:c r="I167" s="1" t="s"/>
@@ -12141,22 +12428,24 @@
       <x:c r="BG167" s="1" t="s"/>
       <x:c r="BH167" s="1" t="s"/>
       <x:c r="BI167" s="1" t="s"/>
-      <x:c r="BJ167" s="5" t="s"/>
-      <x:c r="BK167" s="5" t="s"/>
+      <x:c r="BJ167" s="1" t="s"/>
+      <x:c r="BK167" s="1" t="s"/>
       <x:c r="BL167" s="5" t="s"/>
       <x:c r="BM167" s="5" t="s"/>
       <x:c r="BN167" s="5" t="s"/>
       <x:c r="BO167" s="5" t="s"/>
       <x:c r="BP167" s="5" t="s"/>
       <x:c r="BQ167" s="5" t="s"/>
-    </x:row>
-    <x:row r="168" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR167" s="5" t="s"/>
+      <x:c r="BS167" s="5" t="s"/>
+    </x:row>
+    <x:row r="168" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A168" s="5" t="s"/>
       <x:c r="B168" s="5" t="s"/>
       <x:c r="C168" s="5" t="s"/>
       <x:c r="D168" s="5" t="s"/>
-      <x:c r="E168" s="1" t="s"/>
-      <x:c r="F168" s="1" t="s"/>
+      <x:c r="E168" s="5" t="s"/>
+      <x:c r="F168" s="5" t="s"/>
       <x:c r="G168" s="1" t="s"/>
       <x:c r="H168" s="1" t="s"/>
       <x:c r="I168" s="1" t="s"/>
@@ -12212,22 +12501,24 @@
       <x:c r="BG168" s="1" t="s"/>
       <x:c r="BH168" s="1" t="s"/>
       <x:c r="BI168" s="1" t="s"/>
-      <x:c r="BJ168" s="5" t="s"/>
-      <x:c r="BK168" s="5" t="s"/>
+      <x:c r="BJ168" s="1" t="s"/>
+      <x:c r="BK168" s="1" t="s"/>
       <x:c r="BL168" s="5" t="s"/>
       <x:c r="BM168" s="5" t="s"/>
       <x:c r="BN168" s="5" t="s"/>
       <x:c r="BO168" s="5" t="s"/>
       <x:c r="BP168" s="5" t="s"/>
       <x:c r="BQ168" s="5" t="s"/>
-    </x:row>
-    <x:row r="169" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR168" s="5" t="s"/>
+      <x:c r="BS168" s="5" t="s"/>
+    </x:row>
+    <x:row r="169" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A169" s="5" t="s"/>
       <x:c r="B169" s="5" t="s"/>
       <x:c r="C169" s="5" t="s"/>
       <x:c r="D169" s="5" t="s"/>
-      <x:c r="E169" s="1" t="s"/>
-      <x:c r="F169" s="1" t="s"/>
+      <x:c r="E169" s="5" t="s"/>
+      <x:c r="F169" s="5" t="s"/>
       <x:c r="G169" s="1" t="s"/>
       <x:c r="H169" s="1" t="s"/>
       <x:c r="I169" s="1" t="s"/>
@@ -12283,22 +12574,24 @@
       <x:c r="BG169" s="1" t="s"/>
       <x:c r="BH169" s="1" t="s"/>
       <x:c r="BI169" s="1" t="s"/>
-      <x:c r="BJ169" s="5" t="s"/>
-      <x:c r="BK169" s="5" t="s"/>
+      <x:c r="BJ169" s="1" t="s"/>
+      <x:c r="BK169" s="1" t="s"/>
       <x:c r="BL169" s="5" t="s"/>
       <x:c r="BM169" s="5" t="s"/>
       <x:c r="BN169" s="5" t="s"/>
       <x:c r="BO169" s="5" t="s"/>
       <x:c r="BP169" s="5" t="s"/>
       <x:c r="BQ169" s="5" t="s"/>
-    </x:row>
-    <x:row r="170" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR169" s="5" t="s"/>
+      <x:c r="BS169" s="5" t="s"/>
+    </x:row>
+    <x:row r="170" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A170" s="5" t="s"/>
       <x:c r="B170" s="5" t="s"/>
       <x:c r="C170" s="5" t="s"/>
       <x:c r="D170" s="5" t="s"/>
-      <x:c r="E170" s="1" t="s"/>
-      <x:c r="F170" s="1" t="s"/>
+      <x:c r="E170" s="5" t="s"/>
+      <x:c r="F170" s="5" t="s"/>
       <x:c r="G170" s="1" t="s"/>
       <x:c r="H170" s="1" t="s"/>
       <x:c r="I170" s="1" t="s"/>
@@ -12354,22 +12647,24 @@
       <x:c r="BG170" s="1" t="s"/>
       <x:c r="BH170" s="1" t="s"/>
       <x:c r="BI170" s="1" t="s"/>
-      <x:c r="BJ170" s="5" t="s"/>
-      <x:c r="BK170" s="5" t="s"/>
+      <x:c r="BJ170" s="1" t="s"/>
+      <x:c r="BK170" s="1" t="s"/>
       <x:c r="BL170" s="5" t="s"/>
       <x:c r="BM170" s="5" t="s"/>
       <x:c r="BN170" s="5" t="s"/>
       <x:c r="BO170" s="5" t="s"/>
       <x:c r="BP170" s="5" t="s"/>
       <x:c r="BQ170" s="5" t="s"/>
-    </x:row>
-    <x:row r="171" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR170" s="5" t="s"/>
+      <x:c r="BS170" s="5" t="s"/>
+    </x:row>
+    <x:row r="171" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A171" s="5" t="s"/>
       <x:c r="B171" s="5" t="s"/>
       <x:c r="C171" s="5" t="s"/>
       <x:c r="D171" s="5" t="s"/>
-      <x:c r="E171" s="1" t="s"/>
-      <x:c r="F171" s="1" t="s"/>
+      <x:c r="E171" s="5" t="s"/>
+      <x:c r="F171" s="5" t="s"/>
       <x:c r="G171" s="1" t="s"/>
       <x:c r="H171" s="1" t="s"/>
       <x:c r="I171" s="1" t="s"/>
@@ -12425,22 +12720,24 @@
       <x:c r="BG171" s="1" t="s"/>
       <x:c r="BH171" s="1" t="s"/>
       <x:c r="BI171" s="1" t="s"/>
-      <x:c r="BJ171" s="5" t="s"/>
-      <x:c r="BK171" s="5" t="s"/>
+      <x:c r="BJ171" s="1" t="s"/>
+      <x:c r="BK171" s="1" t="s"/>
       <x:c r="BL171" s="5" t="s"/>
       <x:c r="BM171" s="5" t="s"/>
       <x:c r="BN171" s="5" t="s"/>
       <x:c r="BO171" s="5" t="s"/>
       <x:c r="BP171" s="5" t="s"/>
       <x:c r="BQ171" s="5" t="s"/>
-    </x:row>
-    <x:row r="172" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR171" s="5" t="s"/>
+      <x:c r="BS171" s="5" t="s"/>
+    </x:row>
+    <x:row r="172" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A172" s="5" t="s"/>
       <x:c r="B172" s="5" t="s"/>
       <x:c r="C172" s="5" t="s"/>
       <x:c r="D172" s="5" t="s"/>
-      <x:c r="E172" s="1" t="s"/>
-      <x:c r="F172" s="1" t="s"/>
+      <x:c r="E172" s="5" t="s"/>
+      <x:c r="F172" s="5" t="s"/>
       <x:c r="G172" s="1" t="s"/>
       <x:c r="H172" s="1" t="s"/>
       <x:c r="I172" s="1" t="s"/>
@@ -12496,22 +12793,24 @@
       <x:c r="BG172" s="1" t="s"/>
       <x:c r="BH172" s="1" t="s"/>
       <x:c r="BI172" s="1" t="s"/>
-      <x:c r="BJ172" s="5" t="s"/>
-      <x:c r="BK172" s="5" t="s"/>
+      <x:c r="BJ172" s="1" t="s"/>
+      <x:c r="BK172" s="1" t="s"/>
       <x:c r="BL172" s="5" t="s"/>
       <x:c r="BM172" s="5" t="s"/>
       <x:c r="BN172" s="5" t="s"/>
       <x:c r="BO172" s="5" t="s"/>
       <x:c r="BP172" s="5" t="s"/>
       <x:c r="BQ172" s="5" t="s"/>
-    </x:row>
-    <x:row r="173" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR172" s="5" t="s"/>
+      <x:c r="BS172" s="5" t="s"/>
+    </x:row>
+    <x:row r="173" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A173" s="5" t="s"/>
       <x:c r="B173" s="5" t="s"/>
       <x:c r="C173" s="5" t="s"/>
       <x:c r="D173" s="5" t="s"/>
-      <x:c r="E173" s="1" t="s"/>
-      <x:c r="F173" s="1" t="s"/>
+      <x:c r="E173" s="5" t="s"/>
+      <x:c r="F173" s="5" t="s"/>
       <x:c r="G173" s="1" t="s"/>
       <x:c r="H173" s="1" t="s"/>
       <x:c r="I173" s="1" t="s"/>
@@ -12567,22 +12866,24 @@
       <x:c r="BG173" s="1" t="s"/>
       <x:c r="BH173" s="1" t="s"/>
       <x:c r="BI173" s="1" t="s"/>
-      <x:c r="BJ173" s="5" t="s"/>
-      <x:c r="BK173" s="5" t="s"/>
+      <x:c r="BJ173" s="1" t="s"/>
+      <x:c r="BK173" s="1" t="s"/>
       <x:c r="BL173" s="5" t="s"/>
       <x:c r="BM173" s="5" t="s"/>
       <x:c r="BN173" s="5" t="s"/>
       <x:c r="BO173" s="5" t="s"/>
       <x:c r="BP173" s="5" t="s"/>
       <x:c r="BQ173" s="5" t="s"/>
-    </x:row>
-    <x:row r="174" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR173" s="5" t="s"/>
+      <x:c r="BS173" s="5" t="s"/>
+    </x:row>
+    <x:row r="174" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A174" s="5" t="s"/>
       <x:c r="B174" s="5" t="s"/>
       <x:c r="C174" s="5" t="s"/>
       <x:c r="D174" s="5" t="s"/>
-      <x:c r="E174" s="1" t="s"/>
-      <x:c r="F174" s="1" t="s"/>
+      <x:c r="E174" s="5" t="s"/>
+      <x:c r="F174" s="5" t="s"/>
       <x:c r="G174" s="1" t="s"/>
       <x:c r="H174" s="1" t="s"/>
       <x:c r="I174" s="1" t="s"/>
@@ -12638,22 +12939,24 @@
       <x:c r="BG174" s="1" t="s"/>
       <x:c r="BH174" s="1" t="s"/>
       <x:c r="BI174" s="1" t="s"/>
-      <x:c r="BJ174" s="5" t="s"/>
-      <x:c r="BK174" s="5" t="s"/>
+      <x:c r="BJ174" s="1" t="s"/>
+      <x:c r="BK174" s="1" t="s"/>
       <x:c r="BL174" s="5" t="s"/>
       <x:c r="BM174" s="5" t="s"/>
       <x:c r="BN174" s="5" t="s"/>
       <x:c r="BO174" s="5" t="s"/>
       <x:c r="BP174" s="5" t="s"/>
       <x:c r="BQ174" s="5" t="s"/>
-    </x:row>
-    <x:row r="175" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR174" s="5" t="s"/>
+      <x:c r="BS174" s="5" t="s"/>
+    </x:row>
+    <x:row r="175" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A175" s="5" t="s"/>
       <x:c r="B175" s="5" t="s"/>
       <x:c r="C175" s="5" t="s"/>
       <x:c r="D175" s="5" t="s"/>
-      <x:c r="E175" s="1" t="s"/>
-      <x:c r="F175" s="1" t="s"/>
+      <x:c r="E175" s="5" t="s"/>
+      <x:c r="F175" s="5" t="s"/>
       <x:c r="G175" s="1" t="s"/>
       <x:c r="H175" s="1" t="s"/>
       <x:c r="I175" s="1" t="s"/>
@@ -12709,22 +13012,24 @@
       <x:c r="BG175" s="1" t="s"/>
       <x:c r="BH175" s="1" t="s"/>
       <x:c r="BI175" s="1" t="s"/>
-      <x:c r="BJ175" s="5" t="s"/>
-      <x:c r="BK175" s="5" t="s"/>
+      <x:c r="BJ175" s="1" t="s"/>
+      <x:c r="BK175" s="1" t="s"/>
       <x:c r="BL175" s="5" t="s"/>
       <x:c r="BM175" s="5" t="s"/>
       <x:c r="BN175" s="5" t="s"/>
       <x:c r="BO175" s="5" t="s"/>
       <x:c r="BP175" s="5" t="s"/>
       <x:c r="BQ175" s="5" t="s"/>
-    </x:row>
-    <x:row r="176" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR175" s="5" t="s"/>
+      <x:c r="BS175" s="5" t="s"/>
+    </x:row>
+    <x:row r="176" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A176" s="5" t="s"/>
       <x:c r="B176" s="5" t="s"/>
       <x:c r="C176" s="5" t="s"/>
       <x:c r="D176" s="5" t="s"/>
-      <x:c r="E176" s="1" t="s"/>
-      <x:c r="F176" s="1" t="s"/>
+      <x:c r="E176" s="5" t="s"/>
+      <x:c r="F176" s="5" t="s"/>
       <x:c r="G176" s="1" t="s"/>
       <x:c r="H176" s="1" t="s"/>
       <x:c r="I176" s="1" t="s"/>
@@ -12780,22 +13085,24 @@
       <x:c r="BG176" s="1" t="s"/>
       <x:c r="BH176" s="1" t="s"/>
       <x:c r="BI176" s="1" t="s"/>
-      <x:c r="BJ176" s="5" t="s"/>
-      <x:c r="BK176" s="5" t="s"/>
+      <x:c r="BJ176" s="1" t="s"/>
+      <x:c r="BK176" s="1" t="s"/>
       <x:c r="BL176" s="5" t="s"/>
       <x:c r="BM176" s="5" t="s"/>
       <x:c r="BN176" s="5" t="s"/>
       <x:c r="BO176" s="5" t="s"/>
       <x:c r="BP176" s="5" t="s"/>
       <x:c r="BQ176" s="5" t="s"/>
-    </x:row>
-    <x:row r="177" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR176" s="5" t="s"/>
+      <x:c r="BS176" s="5" t="s"/>
+    </x:row>
+    <x:row r="177" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A177" s="5" t="s"/>
       <x:c r="B177" s="5" t="s"/>
       <x:c r="C177" s="5" t="s"/>
       <x:c r="D177" s="5" t="s"/>
-      <x:c r="E177" s="1" t="s"/>
-      <x:c r="F177" s="1" t="s"/>
+      <x:c r="E177" s="5" t="s"/>
+      <x:c r="F177" s="5" t="s"/>
       <x:c r="G177" s="1" t="s"/>
       <x:c r="H177" s="1" t="s"/>
       <x:c r="I177" s="1" t="s"/>
@@ -12851,22 +13158,24 @@
       <x:c r="BG177" s="1" t="s"/>
       <x:c r="BH177" s="1" t="s"/>
       <x:c r="BI177" s="1" t="s"/>
-      <x:c r="BJ177" s="5" t="s"/>
-      <x:c r="BK177" s="5" t="s"/>
+      <x:c r="BJ177" s="1" t="s"/>
+      <x:c r="BK177" s="1" t="s"/>
       <x:c r="BL177" s="5" t="s"/>
       <x:c r="BM177" s="5" t="s"/>
       <x:c r="BN177" s="5" t="s"/>
       <x:c r="BO177" s="5" t="s"/>
       <x:c r="BP177" s="5" t="s"/>
       <x:c r="BQ177" s="5" t="s"/>
-    </x:row>
-    <x:row r="178" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR177" s="5" t="s"/>
+      <x:c r="BS177" s="5" t="s"/>
+    </x:row>
+    <x:row r="178" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A178" s="5" t="s"/>
       <x:c r="B178" s="5" t="s"/>
       <x:c r="C178" s="5" t="s"/>
       <x:c r="D178" s="5" t="s"/>
-      <x:c r="E178" s="1" t="s"/>
-      <x:c r="F178" s="1" t="s"/>
+      <x:c r="E178" s="5" t="s"/>
+      <x:c r="F178" s="5" t="s"/>
       <x:c r="G178" s="1" t="s"/>
       <x:c r="H178" s="1" t="s"/>
       <x:c r="I178" s="1" t="s"/>
@@ -12922,22 +13231,24 @@
       <x:c r="BG178" s="1" t="s"/>
       <x:c r="BH178" s="1" t="s"/>
       <x:c r="BI178" s="1" t="s"/>
-      <x:c r="BJ178" s="5" t="s"/>
-      <x:c r="BK178" s="5" t="s"/>
+      <x:c r="BJ178" s="1" t="s"/>
+      <x:c r="BK178" s="1" t="s"/>
       <x:c r="BL178" s="5" t="s"/>
       <x:c r="BM178" s="5" t="s"/>
       <x:c r="BN178" s="5" t="s"/>
       <x:c r="BO178" s="5" t="s"/>
       <x:c r="BP178" s="5" t="s"/>
       <x:c r="BQ178" s="5" t="s"/>
-    </x:row>
-    <x:row r="179" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR178" s="5" t="s"/>
+      <x:c r="BS178" s="5" t="s"/>
+    </x:row>
+    <x:row r="179" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A179" s="5" t="s"/>
       <x:c r="B179" s="5" t="s"/>
       <x:c r="C179" s="5" t="s"/>
       <x:c r="D179" s="5" t="s"/>
-      <x:c r="E179" s="1" t="s"/>
-      <x:c r="F179" s="1" t="s"/>
+      <x:c r="E179" s="5" t="s"/>
+      <x:c r="F179" s="5" t="s"/>
       <x:c r="G179" s="1" t="s"/>
       <x:c r="H179" s="1" t="s"/>
       <x:c r="I179" s="1" t="s"/>
@@ -12993,22 +13304,24 @@
       <x:c r="BG179" s="1" t="s"/>
       <x:c r="BH179" s="1" t="s"/>
       <x:c r="BI179" s="1" t="s"/>
-      <x:c r="BJ179" s="5" t="s"/>
-      <x:c r="BK179" s="5" t="s"/>
+      <x:c r="BJ179" s="1" t="s"/>
+      <x:c r="BK179" s="1" t="s"/>
       <x:c r="BL179" s="5" t="s"/>
       <x:c r="BM179" s="5" t="s"/>
       <x:c r="BN179" s="5" t="s"/>
       <x:c r="BO179" s="5" t="s"/>
       <x:c r="BP179" s="5" t="s"/>
       <x:c r="BQ179" s="5" t="s"/>
-    </x:row>
-    <x:row r="180" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR179" s="5" t="s"/>
+      <x:c r="BS179" s="5" t="s"/>
+    </x:row>
+    <x:row r="180" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A180" s="5" t="s"/>
       <x:c r="B180" s="5" t="s"/>
       <x:c r="C180" s="5" t="s"/>
       <x:c r="D180" s="5" t="s"/>
-      <x:c r="E180" s="1" t="s"/>
-      <x:c r="F180" s="1" t="s"/>
+      <x:c r="E180" s="5" t="s"/>
+      <x:c r="F180" s="5" t="s"/>
       <x:c r="G180" s="1" t="s"/>
       <x:c r="H180" s="1" t="s"/>
       <x:c r="I180" s="1" t="s"/>
@@ -13064,22 +13377,24 @@
       <x:c r="BG180" s="1" t="s"/>
       <x:c r="BH180" s="1" t="s"/>
       <x:c r="BI180" s="1" t="s"/>
-      <x:c r="BJ180" s="5" t="s"/>
-      <x:c r="BK180" s="5" t="s"/>
+      <x:c r="BJ180" s="1" t="s"/>
+      <x:c r="BK180" s="1" t="s"/>
       <x:c r="BL180" s="5" t="s"/>
       <x:c r="BM180" s="5" t="s"/>
       <x:c r="BN180" s="5" t="s"/>
       <x:c r="BO180" s="5" t="s"/>
       <x:c r="BP180" s="5" t="s"/>
       <x:c r="BQ180" s="5" t="s"/>
-    </x:row>
-    <x:row r="181" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR180" s="5" t="s"/>
+      <x:c r="BS180" s="5" t="s"/>
+    </x:row>
+    <x:row r="181" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A181" s="5" t="s"/>
       <x:c r="B181" s="5" t="s"/>
       <x:c r="C181" s="5" t="s"/>
       <x:c r="D181" s="5" t="s"/>
-      <x:c r="E181" s="1" t="s"/>
-      <x:c r="F181" s="1" t="s"/>
+      <x:c r="E181" s="5" t="s"/>
+      <x:c r="F181" s="5" t="s"/>
       <x:c r="G181" s="1" t="s"/>
       <x:c r="H181" s="1" t="s"/>
       <x:c r="I181" s="1" t="s"/>
@@ -13135,22 +13450,24 @@
       <x:c r="BG181" s="1" t="s"/>
       <x:c r="BH181" s="1" t="s"/>
       <x:c r="BI181" s="1" t="s"/>
-      <x:c r="BJ181" s="5" t="s"/>
-      <x:c r="BK181" s="5" t="s"/>
+      <x:c r="BJ181" s="1" t="s"/>
+      <x:c r="BK181" s="1" t="s"/>
       <x:c r="BL181" s="5" t="s"/>
       <x:c r="BM181" s="5" t="s"/>
       <x:c r="BN181" s="5" t="s"/>
       <x:c r="BO181" s="5" t="s"/>
       <x:c r="BP181" s="5" t="s"/>
       <x:c r="BQ181" s="5" t="s"/>
-    </x:row>
-    <x:row r="182" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR181" s="5" t="s"/>
+      <x:c r="BS181" s="5" t="s"/>
+    </x:row>
+    <x:row r="182" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A182" s="5" t="s"/>
       <x:c r="B182" s="5" t="s"/>
       <x:c r="C182" s="5" t="s"/>
       <x:c r="D182" s="5" t="s"/>
-      <x:c r="E182" s="1" t="s"/>
-      <x:c r="F182" s="1" t="s"/>
+      <x:c r="E182" s="5" t="s"/>
+      <x:c r="F182" s="5" t="s"/>
       <x:c r="G182" s="1" t="s"/>
       <x:c r="H182" s="1" t="s"/>
       <x:c r="I182" s="1" t="s"/>
@@ -13206,22 +13523,24 @@
       <x:c r="BG182" s="1" t="s"/>
       <x:c r="BH182" s="1" t="s"/>
       <x:c r="BI182" s="1" t="s"/>
-      <x:c r="BJ182" s="5" t="s"/>
-      <x:c r="BK182" s="5" t="s"/>
+      <x:c r="BJ182" s="1" t="s"/>
+      <x:c r="BK182" s="1" t="s"/>
       <x:c r="BL182" s="5" t="s"/>
       <x:c r="BM182" s="5" t="s"/>
       <x:c r="BN182" s="5" t="s"/>
       <x:c r="BO182" s="5" t="s"/>
       <x:c r="BP182" s="5" t="s"/>
       <x:c r="BQ182" s="5" t="s"/>
-    </x:row>
-    <x:row r="183" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR182" s="5" t="s"/>
+      <x:c r="BS182" s="5" t="s"/>
+    </x:row>
+    <x:row r="183" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A183" s="5" t="s"/>
       <x:c r="B183" s="5" t="s"/>
       <x:c r="C183" s="5" t="s"/>
       <x:c r="D183" s="5" t="s"/>
-      <x:c r="E183" s="1" t="s"/>
-      <x:c r="F183" s="1" t="s"/>
+      <x:c r="E183" s="5" t="s"/>
+      <x:c r="F183" s="5" t="s"/>
       <x:c r="G183" s="1" t="s"/>
       <x:c r="H183" s="1" t="s"/>
       <x:c r="I183" s="1" t="s"/>
@@ -13277,22 +13596,24 @@
       <x:c r="BG183" s="1" t="s"/>
       <x:c r="BH183" s="1" t="s"/>
       <x:c r="BI183" s="1" t="s"/>
-      <x:c r="BJ183" s="5" t="s"/>
-      <x:c r="BK183" s="5" t="s"/>
+      <x:c r="BJ183" s="1" t="s"/>
+      <x:c r="BK183" s="1" t="s"/>
       <x:c r="BL183" s="5" t="s"/>
       <x:c r="BM183" s="5" t="s"/>
       <x:c r="BN183" s="5" t="s"/>
       <x:c r="BO183" s="5" t="s"/>
       <x:c r="BP183" s="5" t="s"/>
       <x:c r="BQ183" s="5" t="s"/>
-    </x:row>
-    <x:row r="184" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR183" s="5" t="s"/>
+      <x:c r="BS183" s="5" t="s"/>
+    </x:row>
+    <x:row r="184" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A184" s="5" t="s"/>
       <x:c r="B184" s="5" t="s"/>
       <x:c r="C184" s="5" t="s"/>
       <x:c r="D184" s="5" t="s"/>
-      <x:c r="E184" s="1" t="s"/>
-      <x:c r="F184" s="1" t="s"/>
+      <x:c r="E184" s="5" t="s"/>
+      <x:c r="F184" s="5" t="s"/>
       <x:c r="G184" s="1" t="s"/>
       <x:c r="H184" s="1" t="s"/>
       <x:c r="I184" s="1" t="s"/>
@@ -13348,22 +13669,24 @@
       <x:c r="BG184" s="1" t="s"/>
       <x:c r="BH184" s="1" t="s"/>
       <x:c r="BI184" s="1" t="s"/>
-      <x:c r="BJ184" s="5" t="s"/>
-      <x:c r="BK184" s="5" t="s"/>
+      <x:c r="BJ184" s="1" t="s"/>
+      <x:c r="BK184" s="1" t="s"/>
       <x:c r="BL184" s="5" t="s"/>
       <x:c r="BM184" s="5" t="s"/>
       <x:c r="BN184" s="5" t="s"/>
       <x:c r="BO184" s="5" t="s"/>
       <x:c r="BP184" s="5" t="s"/>
       <x:c r="BQ184" s="5" t="s"/>
-    </x:row>
-    <x:row r="185" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR184" s="5" t="s"/>
+      <x:c r="BS184" s="5" t="s"/>
+    </x:row>
+    <x:row r="185" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A185" s="5" t="s"/>
       <x:c r="B185" s="5" t="s"/>
       <x:c r="C185" s="5" t="s"/>
       <x:c r="D185" s="5" t="s"/>
-      <x:c r="E185" s="1" t="s"/>
-      <x:c r="F185" s="1" t="s"/>
+      <x:c r="E185" s="5" t="s"/>
+      <x:c r="F185" s="5" t="s"/>
       <x:c r="G185" s="1" t="s"/>
       <x:c r="H185" s="1" t="s"/>
       <x:c r="I185" s="1" t="s"/>
@@ -13419,22 +13742,24 @@
       <x:c r="BG185" s="1" t="s"/>
       <x:c r="BH185" s="1" t="s"/>
       <x:c r="BI185" s="1" t="s"/>
-      <x:c r="BJ185" s="5" t="s"/>
-      <x:c r="BK185" s="5" t="s"/>
+      <x:c r="BJ185" s="1" t="s"/>
+      <x:c r="BK185" s="1" t="s"/>
       <x:c r="BL185" s="5" t="s"/>
       <x:c r="BM185" s="5" t="s"/>
       <x:c r="BN185" s="5" t="s"/>
       <x:c r="BO185" s="5" t="s"/>
       <x:c r="BP185" s="5" t="s"/>
       <x:c r="BQ185" s="5" t="s"/>
-    </x:row>
-    <x:row r="186" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR185" s="5" t="s"/>
+      <x:c r="BS185" s="5" t="s"/>
+    </x:row>
+    <x:row r="186" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A186" s="5" t="s"/>
       <x:c r="B186" s="5" t="s"/>
       <x:c r="C186" s="5" t="s"/>
       <x:c r="D186" s="5" t="s"/>
-      <x:c r="E186" s="1" t="s"/>
-      <x:c r="F186" s="1" t="s"/>
+      <x:c r="E186" s="5" t="s"/>
+      <x:c r="F186" s="5" t="s"/>
       <x:c r="G186" s="1" t="s"/>
       <x:c r="H186" s="1" t="s"/>
       <x:c r="I186" s="1" t="s"/>
@@ -13490,22 +13815,24 @@
       <x:c r="BG186" s="1" t="s"/>
       <x:c r="BH186" s="1" t="s"/>
       <x:c r="BI186" s="1" t="s"/>
-      <x:c r="BJ186" s="5" t="s"/>
-      <x:c r="BK186" s="5" t="s"/>
+      <x:c r="BJ186" s="1" t="s"/>
+      <x:c r="BK186" s="1" t="s"/>
       <x:c r="BL186" s="5" t="s"/>
       <x:c r="BM186" s="5" t="s"/>
       <x:c r="BN186" s="5" t="s"/>
       <x:c r="BO186" s="5" t="s"/>
       <x:c r="BP186" s="5" t="s"/>
       <x:c r="BQ186" s="5" t="s"/>
-    </x:row>
-    <x:row r="187" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR186" s="5" t="s"/>
+      <x:c r="BS186" s="5" t="s"/>
+    </x:row>
+    <x:row r="187" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A187" s="5" t="s"/>
       <x:c r="B187" s="5" t="s"/>
       <x:c r="C187" s="5" t="s"/>
       <x:c r="D187" s="5" t="s"/>
-      <x:c r="E187" s="1" t="s"/>
-      <x:c r="F187" s="1" t="s"/>
+      <x:c r="E187" s="5" t="s"/>
+      <x:c r="F187" s="5" t="s"/>
       <x:c r="G187" s="1" t="s"/>
       <x:c r="H187" s="1" t="s"/>
       <x:c r="I187" s="1" t="s"/>
@@ -13561,22 +13888,24 @@
       <x:c r="BG187" s="1" t="s"/>
       <x:c r="BH187" s="1" t="s"/>
       <x:c r="BI187" s="1" t="s"/>
-      <x:c r="BJ187" s="5" t="s"/>
-      <x:c r="BK187" s="5" t="s"/>
+      <x:c r="BJ187" s="1" t="s"/>
+      <x:c r="BK187" s="1" t="s"/>
       <x:c r="BL187" s="5" t="s"/>
       <x:c r="BM187" s="5" t="s"/>
       <x:c r="BN187" s="5" t="s"/>
       <x:c r="BO187" s="5" t="s"/>
       <x:c r="BP187" s="5" t="s"/>
       <x:c r="BQ187" s="5" t="s"/>
-    </x:row>
-    <x:row r="188" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR187" s="5" t="s"/>
+      <x:c r="BS187" s="5" t="s"/>
+    </x:row>
+    <x:row r="188" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A188" s="5" t="s"/>
       <x:c r="B188" s="5" t="s"/>
       <x:c r="C188" s="5" t="s"/>
       <x:c r="D188" s="5" t="s"/>
-      <x:c r="E188" s="1" t="s"/>
-      <x:c r="F188" s="1" t="s"/>
+      <x:c r="E188" s="5" t="s"/>
+      <x:c r="F188" s="5" t="s"/>
       <x:c r="G188" s="1" t="s"/>
       <x:c r="H188" s="1" t="s"/>
       <x:c r="I188" s="1" t="s"/>
@@ -13632,22 +13961,24 @@
       <x:c r="BG188" s="1" t="s"/>
       <x:c r="BH188" s="1" t="s"/>
       <x:c r="BI188" s="1" t="s"/>
-      <x:c r="BJ188" s="5" t="s"/>
-      <x:c r="BK188" s="5" t="s"/>
+      <x:c r="BJ188" s="1" t="s"/>
+      <x:c r="BK188" s="1" t="s"/>
       <x:c r="BL188" s="5" t="s"/>
       <x:c r="BM188" s="5" t="s"/>
       <x:c r="BN188" s="5" t="s"/>
       <x:c r="BO188" s="5" t="s"/>
       <x:c r="BP188" s="5" t="s"/>
       <x:c r="BQ188" s="5" t="s"/>
-    </x:row>
-    <x:row r="189" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR188" s="5" t="s"/>
+      <x:c r="BS188" s="5" t="s"/>
+    </x:row>
+    <x:row r="189" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A189" s="5" t="s"/>
       <x:c r="B189" s="5" t="s"/>
       <x:c r="C189" s="5" t="s"/>
       <x:c r="D189" s="5" t="s"/>
-      <x:c r="E189" s="1" t="s"/>
-      <x:c r="F189" s="1" t="s"/>
+      <x:c r="E189" s="5" t="s"/>
+      <x:c r="F189" s="5" t="s"/>
       <x:c r="G189" s="1" t="s"/>
       <x:c r="H189" s="1" t="s"/>
       <x:c r="I189" s="1" t="s"/>
@@ -13703,22 +14034,24 @@
       <x:c r="BG189" s="1" t="s"/>
       <x:c r="BH189" s="1" t="s"/>
       <x:c r="BI189" s="1" t="s"/>
-      <x:c r="BJ189" s="5" t="s"/>
-      <x:c r="BK189" s="5" t="s"/>
+      <x:c r="BJ189" s="1" t="s"/>
+      <x:c r="BK189" s="1" t="s"/>
       <x:c r="BL189" s="5" t="s"/>
       <x:c r="BM189" s="5" t="s"/>
       <x:c r="BN189" s="5" t="s"/>
       <x:c r="BO189" s="5" t="s"/>
       <x:c r="BP189" s="5" t="s"/>
       <x:c r="BQ189" s="5" t="s"/>
-    </x:row>
-    <x:row r="190" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR189" s="5" t="s"/>
+      <x:c r="BS189" s="5" t="s"/>
+    </x:row>
+    <x:row r="190" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A190" s="5" t="s"/>
       <x:c r="B190" s="5" t="s"/>
       <x:c r="C190" s="5" t="s"/>
       <x:c r="D190" s="5" t="s"/>
-      <x:c r="E190" s="1" t="s"/>
-      <x:c r="F190" s="1" t="s"/>
+      <x:c r="E190" s="5" t="s"/>
+      <x:c r="F190" s="5" t="s"/>
       <x:c r="G190" s="1" t="s"/>
       <x:c r="H190" s="1" t="s"/>
       <x:c r="I190" s="1" t="s"/>
@@ -13774,22 +14107,24 @@
       <x:c r="BG190" s="1" t="s"/>
       <x:c r="BH190" s="1" t="s"/>
       <x:c r="BI190" s="1" t="s"/>
-      <x:c r="BJ190" s="5" t="s"/>
-      <x:c r="BK190" s="5" t="s"/>
+      <x:c r="BJ190" s="1" t="s"/>
+      <x:c r="BK190" s="1" t="s"/>
       <x:c r="BL190" s="5" t="s"/>
       <x:c r="BM190" s="5" t="s"/>
       <x:c r="BN190" s="5" t="s"/>
       <x:c r="BO190" s="5" t="s"/>
       <x:c r="BP190" s="5" t="s"/>
       <x:c r="BQ190" s="5" t="s"/>
-    </x:row>
-    <x:row r="191" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR190" s="5" t="s"/>
+      <x:c r="BS190" s="5" t="s"/>
+    </x:row>
+    <x:row r="191" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A191" s="5" t="s"/>
       <x:c r="B191" s="5" t="s"/>
       <x:c r="C191" s="5" t="s"/>
       <x:c r="D191" s="5" t="s"/>
-      <x:c r="E191" s="1" t="s"/>
-      <x:c r="F191" s="1" t="s"/>
+      <x:c r="E191" s="5" t="s"/>
+      <x:c r="F191" s="5" t="s"/>
       <x:c r="G191" s="1" t="s"/>
       <x:c r="H191" s="1" t="s"/>
       <x:c r="I191" s="1" t="s"/>
@@ -13845,22 +14180,24 @@
       <x:c r="BG191" s="1" t="s"/>
       <x:c r="BH191" s="1" t="s"/>
       <x:c r="BI191" s="1" t="s"/>
-      <x:c r="BJ191" s="5" t="s"/>
-      <x:c r="BK191" s="5" t="s"/>
+      <x:c r="BJ191" s="1" t="s"/>
+      <x:c r="BK191" s="1" t="s"/>
       <x:c r="BL191" s="5" t="s"/>
       <x:c r="BM191" s="5" t="s"/>
       <x:c r="BN191" s="5" t="s"/>
       <x:c r="BO191" s="5" t="s"/>
       <x:c r="BP191" s="5" t="s"/>
       <x:c r="BQ191" s="5" t="s"/>
-    </x:row>
-    <x:row r="192" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR191" s="5" t="s"/>
+      <x:c r="BS191" s="5" t="s"/>
+    </x:row>
+    <x:row r="192" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A192" s="5" t="s"/>
       <x:c r="B192" s="5" t="s"/>
       <x:c r="C192" s="5" t="s"/>
       <x:c r="D192" s="5" t="s"/>
-      <x:c r="E192" s="1" t="s"/>
-      <x:c r="F192" s="1" t="s"/>
+      <x:c r="E192" s="5" t="s"/>
+      <x:c r="F192" s="5" t="s"/>
       <x:c r="G192" s="1" t="s"/>
       <x:c r="H192" s="1" t="s"/>
       <x:c r="I192" s="1" t="s"/>
@@ -13916,22 +14253,24 @@
       <x:c r="BG192" s="1" t="s"/>
       <x:c r="BH192" s="1" t="s"/>
       <x:c r="BI192" s="1" t="s"/>
-      <x:c r="BJ192" s="5" t="s"/>
-      <x:c r="BK192" s="5" t="s"/>
+      <x:c r="BJ192" s="1" t="s"/>
+      <x:c r="BK192" s="1" t="s"/>
       <x:c r="BL192" s="5" t="s"/>
       <x:c r="BM192" s="5" t="s"/>
       <x:c r="BN192" s="5" t="s"/>
       <x:c r="BO192" s="5" t="s"/>
       <x:c r="BP192" s="5" t="s"/>
       <x:c r="BQ192" s="5" t="s"/>
-    </x:row>
-    <x:row r="193" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR192" s="5" t="s"/>
+      <x:c r="BS192" s="5" t="s"/>
+    </x:row>
+    <x:row r="193" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A193" s="5" t="s"/>
       <x:c r="B193" s="5" t="s"/>
       <x:c r="C193" s="5" t="s"/>
       <x:c r="D193" s="5" t="s"/>
-      <x:c r="E193" s="1" t="s"/>
-      <x:c r="F193" s="1" t="s"/>
+      <x:c r="E193" s="5" t="s"/>
+      <x:c r="F193" s="5" t="s"/>
       <x:c r="G193" s="1" t="s"/>
       <x:c r="H193" s="1" t="s"/>
       <x:c r="I193" s="1" t="s"/>
@@ -13987,22 +14326,24 @@
       <x:c r="BG193" s="1" t="s"/>
       <x:c r="BH193" s="1" t="s"/>
       <x:c r="BI193" s="1" t="s"/>
-      <x:c r="BJ193" s="5" t="s"/>
-      <x:c r="BK193" s="5" t="s"/>
+      <x:c r="BJ193" s="1" t="s"/>
+      <x:c r="BK193" s="1" t="s"/>
       <x:c r="BL193" s="5" t="s"/>
       <x:c r="BM193" s="5" t="s"/>
       <x:c r="BN193" s="5" t="s"/>
       <x:c r="BO193" s="5" t="s"/>
       <x:c r="BP193" s="5" t="s"/>
       <x:c r="BQ193" s="5" t="s"/>
-    </x:row>
-    <x:row r="194" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR193" s="5" t="s"/>
+      <x:c r="BS193" s="5" t="s"/>
+    </x:row>
+    <x:row r="194" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A194" s="5" t="s"/>
       <x:c r="B194" s="5" t="s"/>
       <x:c r="C194" s="5" t="s"/>
       <x:c r="D194" s="5" t="s"/>
-      <x:c r="E194" s="1" t="s"/>
-      <x:c r="F194" s="1" t="s"/>
+      <x:c r="E194" s="5" t="s"/>
+      <x:c r="F194" s="5" t="s"/>
       <x:c r="G194" s="1" t="s"/>
       <x:c r="H194" s="1" t="s"/>
       <x:c r="I194" s="1" t="s"/>
@@ -14058,22 +14399,24 @@
       <x:c r="BG194" s="1" t="s"/>
       <x:c r="BH194" s="1" t="s"/>
       <x:c r="BI194" s="1" t="s"/>
-      <x:c r="BJ194" s="5" t="s"/>
-      <x:c r="BK194" s="5" t="s"/>
+      <x:c r="BJ194" s="1" t="s"/>
+      <x:c r="BK194" s="1" t="s"/>
       <x:c r="BL194" s="5" t="s"/>
       <x:c r="BM194" s="5" t="s"/>
       <x:c r="BN194" s="5" t="s"/>
       <x:c r="BO194" s="5" t="s"/>
       <x:c r="BP194" s="5" t="s"/>
       <x:c r="BQ194" s="5" t="s"/>
-    </x:row>
-    <x:row r="195" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR194" s="5" t="s"/>
+      <x:c r="BS194" s="5" t="s"/>
+    </x:row>
+    <x:row r="195" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A195" s="5" t="s"/>
       <x:c r="B195" s="5" t="s"/>
       <x:c r="C195" s="5" t="s"/>
       <x:c r="D195" s="5" t="s"/>
-      <x:c r="E195" s="1" t="s"/>
-      <x:c r="F195" s="1" t="s"/>
+      <x:c r="E195" s="5" t="s"/>
+      <x:c r="F195" s="5" t="s"/>
       <x:c r="G195" s="1" t="s"/>
       <x:c r="H195" s="1" t="s"/>
       <x:c r="I195" s="1" t="s"/>
@@ -14129,22 +14472,24 @@
       <x:c r="BG195" s="1" t="s"/>
       <x:c r="BH195" s="1" t="s"/>
       <x:c r="BI195" s="1" t="s"/>
-      <x:c r="BJ195" s="5" t="s"/>
-      <x:c r="BK195" s="5" t="s"/>
+      <x:c r="BJ195" s="1" t="s"/>
+      <x:c r="BK195" s="1" t="s"/>
       <x:c r="BL195" s="5" t="s"/>
       <x:c r="BM195" s="5" t="s"/>
       <x:c r="BN195" s="5" t="s"/>
       <x:c r="BO195" s="5" t="s"/>
       <x:c r="BP195" s="5" t="s"/>
       <x:c r="BQ195" s="5" t="s"/>
-    </x:row>
-    <x:row r="196" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR195" s="5" t="s"/>
+      <x:c r="BS195" s="5" t="s"/>
+    </x:row>
+    <x:row r="196" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A196" s="5" t="s"/>
       <x:c r="B196" s="5" t="s"/>
       <x:c r="C196" s="5" t="s"/>
       <x:c r="D196" s="5" t="s"/>
-      <x:c r="E196" s="1" t="s"/>
-      <x:c r="F196" s="1" t="s"/>
+      <x:c r="E196" s="5" t="s"/>
+      <x:c r="F196" s="5" t="s"/>
       <x:c r="G196" s="1" t="s"/>
       <x:c r="H196" s="1" t="s"/>
       <x:c r="I196" s="1" t="s"/>
@@ -14200,22 +14545,24 @@
       <x:c r="BG196" s="1" t="s"/>
       <x:c r="BH196" s="1" t="s"/>
       <x:c r="BI196" s="1" t="s"/>
-      <x:c r="BJ196" s="5" t="s"/>
-      <x:c r="BK196" s="5" t="s"/>
+      <x:c r="BJ196" s="1" t="s"/>
+      <x:c r="BK196" s="1" t="s"/>
       <x:c r="BL196" s="5" t="s"/>
       <x:c r="BM196" s="5" t="s"/>
       <x:c r="BN196" s="5" t="s"/>
       <x:c r="BO196" s="5" t="s"/>
       <x:c r="BP196" s="5" t="s"/>
       <x:c r="BQ196" s="5" t="s"/>
-    </x:row>
-    <x:row r="197" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR196" s="5" t="s"/>
+      <x:c r="BS196" s="5" t="s"/>
+    </x:row>
+    <x:row r="197" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A197" s="5" t="s"/>
       <x:c r="B197" s="5" t="s"/>
       <x:c r="C197" s="5" t="s"/>
       <x:c r="D197" s="5" t="s"/>
-      <x:c r="E197" s="1" t="s"/>
-      <x:c r="F197" s="1" t="s"/>
+      <x:c r="E197" s="5" t="s"/>
+      <x:c r="F197" s="5" t="s"/>
       <x:c r="G197" s="1" t="s"/>
       <x:c r="H197" s="1" t="s"/>
       <x:c r="I197" s="1" t="s"/>
@@ -14271,22 +14618,24 @@
       <x:c r="BG197" s="1" t="s"/>
       <x:c r="BH197" s="1" t="s"/>
       <x:c r="BI197" s="1" t="s"/>
-      <x:c r="BJ197" s="5" t="s"/>
-      <x:c r="BK197" s="5" t="s"/>
+      <x:c r="BJ197" s="1" t="s"/>
+      <x:c r="BK197" s="1" t="s"/>
       <x:c r="BL197" s="5" t="s"/>
       <x:c r="BM197" s="5" t="s"/>
       <x:c r="BN197" s="5" t="s"/>
       <x:c r="BO197" s="5" t="s"/>
       <x:c r="BP197" s="5" t="s"/>
       <x:c r="BQ197" s="5" t="s"/>
-    </x:row>
-    <x:row r="198" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR197" s="5" t="s"/>
+      <x:c r="BS197" s="5" t="s"/>
+    </x:row>
+    <x:row r="198" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A198" s="5" t="s"/>
       <x:c r="B198" s="5" t="s"/>
       <x:c r="C198" s="5" t="s"/>
       <x:c r="D198" s="5" t="s"/>
-      <x:c r="E198" s="1" t="s"/>
-      <x:c r="F198" s="1" t="s"/>
+      <x:c r="E198" s="5" t="s"/>
+      <x:c r="F198" s="5" t="s"/>
       <x:c r="G198" s="1" t="s"/>
       <x:c r="H198" s="1" t="s"/>
       <x:c r="I198" s="1" t="s"/>
@@ -14342,22 +14691,24 @@
       <x:c r="BG198" s="1" t="s"/>
       <x:c r="BH198" s="1" t="s"/>
       <x:c r="BI198" s="1" t="s"/>
-      <x:c r="BJ198" s="5" t="s"/>
-      <x:c r="BK198" s="5" t="s"/>
+      <x:c r="BJ198" s="1" t="s"/>
+      <x:c r="BK198" s="1" t="s"/>
       <x:c r="BL198" s="5" t="s"/>
       <x:c r="BM198" s="5" t="s"/>
       <x:c r="BN198" s="5" t="s"/>
       <x:c r="BO198" s="5" t="s"/>
       <x:c r="BP198" s="5" t="s"/>
       <x:c r="BQ198" s="5" t="s"/>
-    </x:row>
-    <x:row r="199" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR198" s="5" t="s"/>
+      <x:c r="BS198" s="5" t="s"/>
+    </x:row>
+    <x:row r="199" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A199" s="5" t="s"/>
       <x:c r="B199" s="5" t="s"/>
       <x:c r="C199" s="5" t="s"/>
       <x:c r="D199" s="5" t="s"/>
-      <x:c r="E199" s="1" t="s"/>
-      <x:c r="F199" s="1" t="s"/>
+      <x:c r="E199" s="5" t="s"/>
+      <x:c r="F199" s="5" t="s"/>
       <x:c r="G199" s="1" t="s"/>
       <x:c r="H199" s="1" t="s"/>
       <x:c r="I199" s="1" t="s"/>
@@ -14413,22 +14764,24 @@
       <x:c r="BG199" s="1" t="s"/>
       <x:c r="BH199" s="1" t="s"/>
       <x:c r="BI199" s="1" t="s"/>
-      <x:c r="BJ199" s="5" t="s"/>
-      <x:c r="BK199" s="5" t="s"/>
+      <x:c r="BJ199" s="1" t="s"/>
+      <x:c r="BK199" s="1" t="s"/>
       <x:c r="BL199" s="5" t="s"/>
       <x:c r="BM199" s="5" t="s"/>
       <x:c r="BN199" s="5" t="s"/>
       <x:c r="BO199" s="5" t="s"/>
       <x:c r="BP199" s="5" t="s"/>
       <x:c r="BQ199" s="5" t="s"/>
-    </x:row>
-    <x:row r="200" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR199" s="5" t="s"/>
+      <x:c r="BS199" s="5" t="s"/>
+    </x:row>
+    <x:row r="200" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A200" s="5" t="s"/>
       <x:c r="B200" s="5" t="s"/>
       <x:c r="C200" s="5" t="s"/>
       <x:c r="D200" s="5" t="s"/>
-      <x:c r="E200" s="1" t="s"/>
-      <x:c r="F200" s="1" t="s"/>
+      <x:c r="E200" s="5" t="s"/>
+      <x:c r="F200" s="5" t="s"/>
       <x:c r="G200" s="1" t="s"/>
       <x:c r="H200" s="1" t="s"/>
       <x:c r="I200" s="1" t="s"/>
@@ -14484,22 +14837,24 @@
       <x:c r="BG200" s="1" t="s"/>
       <x:c r="BH200" s="1" t="s"/>
       <x:c r="BI200" s="1" t="s"/>
-      <x:c r="BJ200" s="5" t="s"/>
-      <x:c r="BK200" s="5" t="s"/>
+      <x:c r="BJ200" s="1" t="s"/>
+      <x:c r="BK200" s="1" t="s"/>
       <x:c r="BL200" s="5" t="s"/>
       <x:c r="BM200" s="5" t="s"/>
       <x:c r="BN200" s="5" t="s"/>
       <x:c r="BO200" s="5" t="s"/>
       <x:c r="BP200" s="5" t="s"/>
       <x:c r="BQ200" s="5" t="s"/>
-    </x:row>
-    <x:row r="201" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR200" s="5" t="s"/>
+      <x:c r="BS200" s="5" t="s"/>
+    </x:row>
+    <x:row r="201" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A201" s="5" t="s"/>
       <x:c r="B201" s="5" t="s"/>
       <x:c r="C201" s="5" t="s"/>
       <x:c r="D201" s="5" t="s"/>
-      <x:c r="E201" s="1" t="s"/>
-      <x:c r="F201" s="1" t="s"/>
+      <x:c r="E201" s="5" t="s"/>
+      <x:c r="F201" s="5" t="s"/>
       <x:c r="G201" s="1" t="s"/>
       <x:c r="H201" s="1" t="s"/>
       <x:c r="I201" s="1" t="s"/>
@@ -14555,22 +14910,24 @@
       <x:c r="BG201" s="1" t="s"/>
       <x:c r="BH201" s="1" t="s"/>
       <x:c r="BI201" s="1" t="s"/>
-      <x:c r="BJ201" s="5" t="s"/>
-      <x:c r="BK201" s="5" t="s"/>
+      <x:c r="BJ201" s="1" t="s"/>
+      <x:c r="BK201" s="1" t="s"/>
       <x:c r="BL201" s="5" t="s"/>
       <x:c r="BM201" s="5" t="s"/>
       <x:c r="BN201" s="5" t="s"/>
       <x:c r="BO201" s="5" t="s"/>
       <x:c r="BP201" s="5" t="s"/>
       <x:c r="BQ201" s="5" t="s"/>
-    </x:row>
-    <x:row r="202" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR201" s="5" t="s"/>
+      <x:c r="BS201" s="5" t="s"/>
+    </x:row>
+    <x:row r="202" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A202" s="5" t="s"/>
       <x:c r="B202" s="5" t="s"/>
       <x:c r="C202" s="5" t="s"/>
       <x:c r="D202" s="5" t="s"/>
-      <x:c r="E202" s="1" t="s"/>
-      <x:c r="F202" s="1" t="s"/>
+      <x:c r="E202" s="5" t="s"/>
+      <x:c r="F202" s="5" t="s"/>
       <x:c r="G202" s="1" t="s"/>
       <x:c r="H202" s="1" t="s"/>
       <x:c r="I202" s="1" t="s"/>
@@ -14626,22 +14983,24 @@
       <x:c r="BG202" s="1" t="s"/>
       <x:c r="BH202" s="1" t="s"/>
       <x:c r="BI202" s="1" t="s"/>
-      <x:c r="BJ202" s="5" t="s"/>
-      <x:c r="BK202" s="5" t="s"/>
+      <x:c r="BJ202" s="1" t="s"/>
+      <x:c r="BK202" s="1" t="s"/>
       <x:c r="BL202" s="5" t="s"/>
       <x:c r="BM202" s="5" t="s"/>
       <x:c r="BN202" s="5" t="s"/>
       <x:c r="BO202" s="5" t="s"/>
       <x:c r="BP202" s="5" t="s"/>
       <x:c r="BQ202" s="5" t="s"/>
-    </x:row>
-    <x:row r="203" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR202" s="5" t="s"/>
+      <x:c r="BS202" s="5" t="s"/>
+    </x:row>
+    <x:row r="203" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A203" s="5" t="s"/>
       <x:c r="B203" s="5" t="s"/>
       <x:c r="C203" s="5" t="s"/>
       <x:c r="D203" s="5" t="s"/>
-      <x:c r="E203" s="1" t="s"/>
-      <x:c r="F203" s="1" t="s"/>
+      <x:c r="E203" s="5" t="s"/>
+      <x:c r="F203" s="5" t="s"/>
       <x:c r="G203" s="1" t="s"/>
       <x:c r="H203" s="1" t="s"/>
       <x:c r="I203" s="1" t="s"/>
@@ -14697,22 +15056,24 @@
       <x:c r="BG203" s="1" t="s"/>
       <x:c r="BH203" s="1" t="s"/>
       <x:c r="BI203" s="1" t="s"/>
-      <x:c r="BJ203" s="5" t="s"/>
-      <x:c r="BK203" s="5" t="s"/>
+      <x:c r="BJ203" s="1" t="s"/>
+      <x:c r="BK203" s="1" t="s"/>
       <x:c r="BL203" s="5" t="s"/>
       <x:c r="BM203" s="5" t="s"/>
       <x:c r="BN203" s="5" t="s"/>
       <x:c r="BO203" s="5" t="s"/>
       <x:c r="BP203" s="5" t="s"/>
       <x:c r="BQ203" s="5" t="s"/>
-    </x:row>
-    <x:row r="204" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR203" s="5" t="s"/>
+      <x:c r="BS203" s="5" t="s"/>
+    </x:row>
+    <x:row r="204" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A204" s="5" t="s"/>
       <x:c r="B204" s="5" t="s"/>
       <x:c r="C204" s="5" t="s"/>
       <x:c r="D204" s="5" t="s"/>
-      <x:c r="E204" s="1" t="s"/>
-      <x:c r="F204" s="1" t="s"/>
+      <x:c r="E204" s="5" t="s"/>
+      <x:c r="F204" s="5" t="s"/>
       <x:c r="G204" s="1" t="s"/>
       <x:c r="H204" s="1" t="s"/>
       <x:c r="I204" s="1" t="s"/>
@@ -14768,22 +15129,24 @@
       <x:c r="BG204" s="1" t="s"/>
       <x:c r="BH204" s="1" t="s"/>
       <x:c r="BI204" s="1" t="s"/>
-      <x:c r="BJ204" s="5" t="s"/>
-      <x:c r="BK204" s="5" t="s"/>
+      <x:c r="BJ204" s="1" t="s"/>
+      <x:c r="BK204" s="1" t="s"/>
       <x:c r="BL204" s="5" t="s"/>
       <x:c r="BM204" s="5" t="s"/>
       <x:c r="BN204" s="5" t="s"/>
       <x:c r="BO204" s="5" t="s"/>
       <x:c r="BP204" s="5" t="s"/>
       <x:c r="BQ204" s="5" t="s"/>
-    </x:row>
-    <x:row r="205" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR204" s="5" t="s"/>
+      <x:c r="BS204" s="5" t="s"/>
+    </x:row>
+    <x:row r="205" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A205" s="5" t="s"/>
       <x:c r="B205" s="5" t="s"/>
       <x:c r="C205" s="5" t="s"/>
       <x:c r="D205" s="5" t="s"/>
-      <x:c r="E205" s="1" t="s"/>
-      <x:c r="F205" s="1" t="s"/>
+      <x:c r="E205" s="5" t="s"/>
+      <x:c r="F205" s="5" t="s"/>
       <x:c r="G205" s="1" t="s"/>
       <x:c r="H205" s="1" t="s"/>
       <x:c r="I205" s="1" t="s"/>
@@ -14839,22 +15202,24 @@
       <x:c r="BG205" s="1" t="s"/>
       <x:c r="BH205" s="1" t="s"/>
       <x:c r="BI205" s="1" t="s"/>
-      <x:c r="BJ205" s="5" t="s"/>
-      <x:c r="BK205" s="5" t="s"/>
+      <x:c r="BJ205" s="1" t="s"/>
+      <x:c r="BK205" s="1" t="s"/>
       <x:c r="BL205" s="5" t="s"/>
       <x:c r="BM205" s="5" t="s"/>
       <x:c r="BN205" s="5" t="s"/>
       <x:c r="BO205" s="5" t="s"/>
       <x:c r="BP205" s="5" t="s"/>
       <x:c r="BQ205" s="5" t="s"/>
-    </x:row>
-    <x:row r="206" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR205" s="5" t="s"/>
+      <x:c r="BS205" s="5" t="s"/>
+    </x:row>
+    <x:row r="206" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A206" s="5" t="s"/>
       <x:c r="B206" s="5" t="s"/>
       <x:c r="C206" s="5" t="s"/>
       <x:c r="D206" s="5" t="s"/>
-      <x:c r="E206" s="1" t="s"/>
-      <x:c r="F206" s="1" t="s"/>
+      <x:c r="E206" s="5" t="s"/>
+      <x:c r="F206" s="5" t="s"/>
       <x:c r="G206" s="1" t="s"/>
       <x:c r="H206" s="1" t="s"/>
       <x:c r="I206" s="1" t="s"/>
@@ -14910,22 +15275,24 @@
       <x:c r="BG206" s="1" t="s"/>
       <x:c r="BH206" s="1" t="s"/>
       <x:c r="BI206" s="1" t="s"/>
-      <x:c r="BJ206" s="5" t="s"/>
-      <x:c r="BK206" s="5" t="s"/>
+      <x:c r="BJ206" s="1" t="s"/>
+      <x:c r="BK206" s="1" t="s"/>
       <x:c r="BL206" s="5" t="s"/>
       <x:c r="BM206" s="5" t="s"/>
       <x:c r="BN206" s="5" t="s"/>
       <x:c r="BO206" s="5" t="s"/>
       <x:c r="BP206" s="5" t="s"/>
       <x:c r="BQ206" s="5" t="s"/>
-    </x:row>
-    <x:row r="207" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR206" s="5" t="s"/>
+      <x:c r="BS206" s="5" t="s"/>
+    </x:row>
+    <x:row r="207" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A207" s="5" t="s"/>
       <x:c r="B207" s="5" t="s"/>
       <x:c r="C207" s="5" t="s"/>
       <x:c r="D207" s="5" t="s"/>
-      <x:c r="E207" s="1" t="s"/>
-      <x:c r="F207" s="1" t="s"/>
+      <x:c r="E207" s="5" t="s"/>
+      <x:c r="F207" s="5" t="s"/>
       <x:c r="G207" s="1" t="s"/>
       <x:c r="H207" s="1" t="s"/>
       <x:c r="I207" s="1" t="s"/>
@@ -14981,22 +15348,24 @@
       <x:c r="BG207" s="1" t="s"/>
       <x:c r="BH207" s="1" t="s"/>
       <x:c r="BI207" s="1" t="s"/>
-      <x:c r="BJ207" s="5" t="s"/>
-      <x:c r="BK207" s="5" t="s"/>
+      <x:c r="BJ207" s="1" t="s"/>
+      <x:c r="BK207" s="1" t="s"/>
       <x:c r="BL207" s="5" t="s"/>
       <x:c r="BM207" s="5" t="s"/>
       <x:c r="BN207" s="5" t="s"/>
       <x:c r="BO207" s="5" t="s"/>
       <x:c r="BP207" s="5" t="s"/>
       <x:c r="BQ207" s="5" t="s"/>
-    </x:row>
-    <x:row r="208" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR207" s="5" t="s"/>
+      <x:c r="BS207" s="5" t="s"/>
+    </x:row>
+    <x:row r="208" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A208" s="5" t="s"/>
       <x:c r="B208" s="5" t="s"/>
       <x:c r="C208" s="5" t="s"/>
       <x:c r="D208" s="5" t="s"/>
-      <x:c r="E208" s="1" t="s"/>
-      <x:c r="F208" s="1" t="s"/>
+      <x:c r="E208" s="5" t="s"/>
+      <x:c r="F208" s="5" t="s"/>
       <x:c r="G208" s="1" t="s"/>
       <x:c r="H208" s="1" t="s"/>
       <x:c r="I208" s="1" t="s"/>
@@ -15052,22 +15421,24 @@
       <x:c r="BG208" s="1" t="s"/>
       <x:c r="BH208" s="1" t="s"/>
       <x:c r="BI208" s="1" t="s"/>
-      <x:c r="BJ208" s="5" t="s"/>
-      <x:c r="BK208" s="5" t="s"/>
+      <x:c r="BJ208" s="1" t="s"/>
+      <x:c r="BK208" s="1" t="s"/>
       <x:c r="BL208" s="5" t="s"/>
       <x:c r="BM208" s="5" t="s"/>
       <x:c r="BN208" s="5" t="s"/>
       <x:c r="BO208" s="5" t="s"/>
       <x:c r="BP208" s="5" t="s"/>
       <x:c r="BQ208" s="5" t="s"/>
-    </x:row>
-    <x:row r="209" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR208" s="5" t="s"/>
+      <x:c r="BS208" s="5" t="s"/>
+    </x:row>
+    <x:row r="209" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A209" s="5" t="s"/>
       <x:c r="B209" s="5" t="s"/>
       <x:c r="C209" s="5" t="s"/>
       <x:c r="D209" s="5" t="s"/>
-      <x:c r="E209" s="1" t="s"/>
-      <x:c r="F209" s="1" t="s"/>
+      <x:c r="E209" s="5" t="s"/>
+      <x:c r="F209" s="5" t="s"/>
       <x:c r="G209" s="1" t="s"/>
       <x:c r="H209" s="1" t="s"/>
       <x:c r="I209" s="1" t="s"/>
@@ -15123,22 +15494,24 @@
       <x:c r="BG209" s="1" t="s"/>
       <x:c r="BH209" s="1" t="s"/>
       <x:c r="BI209" s="1" t="s"/>
-      <x:c r="BJ209" s="5" t="s"/>
-      <x:c r="BK209" s="5" t="s"/>
+      <x:c r="BJ209" s="1" t="s"/>
+      <x:c r="BK209" s="1" t="s"/>
       <x:c r="BL209" s="5" t="s"/>
       <x:c r="BM209" s="5" t="s"/>
       <x:c r="BN209" s="5" t="s"/>
       <x:c r="BO209" s="5" t="s"/>
       <x:c r="BP209" s="5" t="s"/>
       <x:c r="BQ209" s="5" t="s"/>
-    </x:row>
-    <x:row r="210" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR209" s="5" t="s"/>
+      <x:c r="BS209" s="5" t="s"/>
+    </x:row>
+    <x:row r="210" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A210" s="5" t="s"/>
       <x:c r="B210" s="5" t="s"/>
       <x:c r="C210" s="5" t="s"/>
       <x:c r="D210" s="5" t="s"/>
-      <x:c r="E210" s="1" t="s"/>
-      <x:c r="F210" s="1" t="s"/>
+      <x:c r="E210" s="5" t="s"/>
+      <x:c r="F210" s="5" t="s"/>
       <x:c r="G210" s="1" t="s"/>
       <x:c r="H210" s="1" t="s"/>
       <x:c r="I210" s="1" t="s"/>
@@ -15194,22 +15567,24 @@
       <x:c r="BG210" s="1" t="s"/>
       <x:c r="BH210" s="1" t="s"/>
       <x:c r="BI210" s="1" t="s"/>
-      <x:c r="BJ210" s="5" t="s"/>
-      <x:c r="BK210" s="5" t="s"/>
+      <x:c r="BJ210" s="1" t="s"/>
+      <x:c r="BK210" s="1" t="s"/>
       <x:c r="BL210" s="5" t="s"/>
       <x:c r="BM210" s="5" t="s"/>
       <x:c r="BN210" s="5" t="s"/>
       <x:c r="BO210" s="5" t="s"/>
       <x:c r="BP210" s="5" t="s"/>
       <x:c r="BQ210" s="5" t="s"/>
-    </x:row>
-    <x:row r="211" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR210" s="5" t="s"/>
+      <x:c r="BS210" s="5" t="s"/>
+    </x:row>
+    <x:row r="211" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A211" s="5" t="s"/>
       <x:c r="B211" s="5" t="s"/>
       <x:c r="C211" s="5" t="s"/>
       <x:c r="D211" s="5" t="s"/>
-      <x:c r="E211" s="1" t="s"/>
-      <x:c r="F211" s="1" t="s"/>
+      <x:c r="E211" s="5" t="s"/>
+      <x:c r="F211" s="5" t="s"/>
       <x:c r="G211" s="1" t="s"/>
       <x:c r="H211" s="1" t="s"/>
       <x:c r="I211" s="1" t="s"/>
@@ -15265,22 +15640,24 @@
       <x:c r="BG211" s="1" t="s"/>
       <x:c r="BH211" s="1" t="s"/>
       <x:c r="BI211" s="1" t="s"/>
-      <x:c r="BJ211" s="5" t="s"/>
-      <x:c r="BK211" s="5" t="s"/>
+      <x:c r="BJ211" s="1" t="s"/>
+      <x:c r="BK211" s="1" t="s"/>
       <x:c r="BL211" s="5" t="s"/>
       <x:c r="BM211" s="5" t="s"/>
       <x:c r="BN211" s="5" t="s"/>
       <x:c r="BO211" s="5" t="s"/>
       <x:c r="BP211" s="5" t="s"/>
       <x:c r="BQ211" s="5" t="s"/>
-    </x:row>
-    <x:row r="212" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR211" s="5" t="s"/>
+      <x:c r="BS211" s="5" t="s"/>
+    </x:row>
+    <x:row r="212" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A212" s="5" t="s"/>
       <x:c r="B212" s="5" t="s"/>
       <x:c r="C212" s="5" t="s"/>
       <x:c r="D212" s="5" t="s"/>
-      <x:c r="E212" s="1" t="s"/>
-      <x:c r="F212" s="1" t="s"/>
+      <x:c r="E212" s="5" t="s"/>
+      <x:c r="F212" s="5" t="s"/>
       <x:c r="G212" s="1" t="s"/>
       <x:c r="H212" s="1" t="s"/>
       <x:c r="I212" s="1" t="s"/>
@@ -15336,22 +15713,24 @@
       <x:c r="BG212" s="1" t="s"/>
       <x:c r="BH212" s="1" t="s"/>
       <x:c r="BI212" s="1" t="s"/>
-      <x:c r="BJ212" s="5" t="s"/>
-      <x:c r="BK212" s="5" t="s"/>
+      <x:c r="BJ212" s="1" t="s"/>
+      <x:c r="BK212" s="1" t="s"/>
       <x:c r="BL212" s="5" t="s"/>
       <x:c r="BM212" s="5" t="s"/>
       <x:c r="BN212" s="5" t="s"/>
       <x:c r="BO212" s="5" t="s"/>
       <x:c r="BP212" s="5" t="s"/>
       <x:c r="BQ212" s="5" t="s"/>
-    </x:row>
-    <x:row r="213" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR212" s="5" t="s"/>
+      <x:c r="BS212" s="5" t="s"/>
+    </x:row>
+    <x:row r="213" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A213" s="5" t="s"/>
       <x:c r="B213" s="5" t="s"/>
       <x:c r="C213" s="5" t="s"/>
       <x:c r="D213" s="5" t="s"/>
-      <x:c r="E213" s="1" t="s"/>
-      <x:c r="F213" s="1" t="s"/>
+      <x:c r="E213" s="5" t="s"/>
+      <x:c r="F213" s="5" t="s"/>
       <x:c r="G213" s="1" t="s"/>
       <x:c r="H213" s="1" t="s"/>
       <x:c r="I213" s="1" t="s"/>
@@ -15407,22 +15786,24 @@
       <x:c r="BG213" s="1" t="s"/>
       <x:c r="BH213" s="1" t="s"/>
       <x:c r="BI213" s="1" t="s"/>
-      <x:c r="BJ213" s="5" t="s"/>
-      <x:c r="BK213" s="5" t="s"/>
+      <x:c r="BJ213" s="1" t="s"/>
+      <x:c r="BK213" s="1" t="s"/>
       <x:c r="BL213" s="5" t="s"/>
       <x:c r="BM213" s="5" t="s"/>
       <x:c r="BN213" s="5" t="s"/>
       <x:c r="BO213" s="5" t="s"/>
       <x:c r="BP213" s="5" t="s"/>
       <x:c r="BQ213" s="5" t="s"/>
-    </x:row>
-    <x:row r="214" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR213" s="5" t="s"/>
+      <x:c r="BS213" s="5" t="s"/>
+    </x:row>
+    <x:row r="214" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A214" s="5" t="s"/>
       <x:c r="B214" s="5" t="s"/>
       <x:c r="C214" s="5" t="s"/>
       <x:c r="D214" s="5" t="s"/>
-      <x:c r="E214" s="1" t="s"/>
-      <x:c r="F214" s="1" t="s"/>
+      <x:c r="E214" s="5" t="s"/>
+      <x:c r="F214" s="5" t="s"/>
       <x:c r="G214" s="1" t="s"/>
       <x:c r="H214" s="1" t="s"/>
       <x:c r="I214" s="1" t="s"/>
@@ -15478,22 +15859,24 @@
       <x:c r="BG214" s="1" t="s"/>
       <x:c r="BH214" s="1" t="s"/>
       <x:c r="BI214" s="1" t="s"/>
-      <x:c r="BJ214" s="5" t="s"/>
-      <x:c r="BK214" s="5" t="s"/>
+      <x:c r="BJ214" s="1" t="s"/>
+      <x:c r="BK214" s="1" t="s"/>
       <x:c r="BL214" s="5" t="s"/>
       <x:c r="BM214" s="5" t="s"/>
       <x:c r="BN214" s="5" t="s"/>
       <x:c r="BO214" s="5" t="s"/>
       <x:c r="BP214" s="5" t="s"/>
       <x:c r="BQ214" s="5" t="s"/>
-    </x:row>
-    <x:row r="215" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR214" s="5" t="s"/>
+      <x:c r="BS214" s="5" t="s"/>
+    </x:row>
+    <x:row r="215" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A215" s="5" t="s"/>
       <x:c r="B215" s="5" t="s"/>
       <x:c r="C215" s="5" t="s"/>
       <x:c r="D215" s="5" t="s"/>
-      <x:c r="E215" s="1" t="s"/>
-      <x:c r="F215" s="1" t="s"/>
+      <x:c r="E215" s="5" t="s"/>
+      <x:c r="F215" s="5" t="s"/>
       <x:c r="G215" s="1" t="s"/>
       <x:c r="H215" s="1" t="s"/>
       <x:c r="I215" s="1" t="s"/>
@@ -15549,22 +15932,24 @@
       <x:c r="BG215" s="1" t="s"/>
       <x:c r="BH215" s="1" t="s"/>
       <x:c r="BI215" s="1" t="s"/>
-      <x:c r="BJ215" s="5" t="s"/>
-      <x:c r="BK215" s="5" t="s"/>
+      <x:c r="BJ215" s="1" t="s"/>
+      <x:c r="BK215" s="1" t="s"/>
       <x:c r="BL215" s="5" t="s"/>
       <x:c r="BM215" s="5" t="s"/>
       <x:c r="BN215" s="5" t="s"/>
       <x:c r="BO215" s="5" t="s"/>
       <x:c r="BP215" s="5" t="s"/>
       <x:c r="BQ215" s="5" t="s"/>
-    </x:row>
-    <x:row r="216" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR215" s="5" t="s"/>
+      <x:c r="BS215" s="5" t="s"/>
+    </x:row>
+    <x:row r="216" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A216" s="5" t="s"/>
       <x:c r="B216" s="5" t="s"/>
       <x:c r="C216" s="5" t="s"/>
       <x:c r="D216" s="5" t="s"/>
-      <x:c r="E216" s="1" t="s"/>
-      <x:c r="F216" s="1" t="s"/>
+      <x:c r="E216" s="5" t="s"/>
+      <x:c r="F216" s="5" t="s"/>
       <x:c r="G216" s="1" t="s"/>
       <x:c r="H216" s="1" t="s"/>
       <x:c r="I216" s="1" t="s"/>
@@ -15620,22 +16005,24 @@
       <x:c r="BG216" s="1" t="s"/>
       <x:c r="BH216" s="1" t="s"/>
       <x:c r="BI216" s="1" t="s"/>
-      <x:c r="BJ216" s="5" t="s"/>
-      <x:c r="BK216" s="5" t="s"/>
+      <x:c r="BJ216" s="1" t="s"/>
+      <x:c r="BK216" s="1" t="s"/>
       <x:c r="BL216" s="5" t="s"/>
       <x:c r="BM216" s="5" t="s"/>
       <x:c r="BN216" s="5" t="s"/>
       <x:c r="BO216" s="5" t="s"/>
       <x:c r="BP216" s="5" t="s"/>
       <x:c r="BQ216" s="5" t="s"/>
-    </x:row>
-    <x:row r="217" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR216" s="5" t="s"/>
+      <x:c r="BS216" s="5" t="s"/>
+    </x:row>
+    <x:row r="217" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A217" s="5" t="s"/>
       <x:c r="B217" s="5" t="s"/>
       <x:c r="C217" s="5" t="s"/>
       <x:c r="D217" s="5" t="s"/>
-      <x:c r="E217" s="1" t="s"/>
-      <x:c r="F217" s="1" t="s"/>
+      <x:c r="E217" s="5" t="s"/>
+      <x:c r="F217" s="5" t="s"/>
       <x:c r="G217" s="1" t="s"/>
       <x:c r="H217" s="1" t="s"/>
       <x:c r="I217" s="1" t="s"/>
@@ -15691,22 +16078,24 @@
       <x:c r="BG217" s="1" t="s"/>
       <x:c r="BH217" s="1" t="s"/>
       <x:c r="BI217" s="1" t="s"/>
-      <x:c r="BJ217" s="5" t="s"/>
-      <x:c r="BK217" s="5" t="s"/>
+      <x:c r="BJ217" s="1" t="s"/>
+      <x:c r="BK217" s="1" t="s"/>
       <x:c r="BL217" s="5" t="s"/>
       <x:c r="BM217" s="5" t="s"/>
       <x:c r="BN217" s="5" t="s"/>
       <x:c r="BO217" s="5" t="s"/>
       <x:c r="BP217" s="5" t="s"/>
       <x:c r="BQ217" s="5" t="s"/>
-    </x:row>
-    <x:row r="218" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR217" s="5" t="s"/>
+      <x:c r="BS217" s="5" t="s"/>
+    </x:row>
+    <x:row r="218" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A218" s="5" t="s"/>
       <x:c r="B218" s="5" t="s"/>
       <x:c r="C218" s="5" t="s"/>
       <x:c r="D218" s="5" t="s"/>
-      <x:c r="E218" s="1" t="s"/>
-      <x:c r="F218" s="1" t="s"/>
+      <x:c r="E218" s="5" t="s"/>
+      <x:c r="F218" s="5" t="s"/>
       <x:c r="G218" s="1" t="s"/>
       <x:c r="H218" s="1" t="s"/>
       <x:c r="I218" s="1" t="s"/>
@@ -15762,22 +16151,24 @@
       <x:c r="BG218" s="1" t="s"/>
       <x:c r="BH218" s="1" t="s"/>
       <x:c r="BI218" s="1" t="s"/>
-      <x:c r="BJ218" s="5" t="s"/>
-      <x:c r="BK218" s="5" t="s"/>
+      <x:c r="BJ218" s="1" t="s"/>
+      <x:c r="BK218" s="1" t="s"/>
       <x:c r="BL218" s="5" t="s"/>
       <x:c r="BM218" s="5" t="s"/>
       <x:c r="BN218" s="5" t="s"/>
       <x:c r="BO218" s="5" t="s"/>
       <x:c r="BP218" s="5" t="s"/>
       <x:c r="BQ218" s="5" t="s"/>
-    </x:row>
-    <x:row r="219" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR218" s="5" t="s"/>
+      <x:c r="BS218" s="5" t="s"/>
+    </x:row>
+    <x:row r="219" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A219" s="5" t="s"/>
       <x:c r="B219" s="5" t="s"/>
       <x:c r="C219" s="5" t="s"/>
       <x:c r="D219" s="5" t="s"/>
-      <x:c r="E219" s="1" t="s"/>
-      <x:c r="F219" s="1" t="s"/>
+      <x:c r="E219" s="5" t="s"/>
+      <x:c r="F219" s="5" t="s"/>
       <x:c r="G219" s="1" t="s"/>
       <x:c r="H219" s="1" t="s"/>
       <x:c r="I219" s="1" t="s"/>
@@ -15833,22 +16224,24 @@
       <x:c r="BG219" s="1" t="s"/>
       <x:c r="BH219" s="1" t="s"/>
       <x:c r="BI219" s="1" t="s"/>
-      <x:c r="BJ219" s="5" t="s"/>
-      <x:c r="BK219" s="5" t="s"/>
+      <x:c r="BJ219" s="1" t="s"/>
+      <x:c r="BK219" s="1" t="s"/>
       <x:c r="BL219" s="5" t="s"/>
       <x:c r="BM219" s="5" t="s"/>
       <x:c r="BN219" s="5" t="s"/>
       <x:c r="BO219" s="5" t="s"/>
       <x:c r="BP219" s="5" t="s"/>
       <x:c r="BQ219" s="5" t="s"/>
-    </x:row>
-    <x:row r="220" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR219" s="5" t="s"/>
+      <x:c r="BS219" s="5" t="s"/>
+    </x:row>
+    <x:row r="220" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A220" s="5" t="s"/>
       <x:c r="B220" s="5" t="s"/>
       <x:c r="C220" s="5" t="s"/>
       <x:c r="D220" s="5" t="s"/>
-      <x:c r="E220" s="1" t="s"/>
-      <x:c r="F220" s="1" t="s"/>
+      <x:c r="E220" s="5" t="s"/>
+      <x:c r="F220" s="5" t="s"/>
       <x:c r="G220" s="1" t="s"/>
       <x:c r="H220" s="1" t="s"/>
       <x:c r="I220" s="1" t="s"/>
@@ -15904,22 +16297,24 @@
       <x:c r="BG220" s="1" t="s"/>
       <x:c r="BH220" s="1" t="s"/>
       <x:c r="BI220" s="1" t="s"/>
-      <x:c r="BJ220" s="5" t="s"/>
-      <x:c r="BK220" s="5" t="s"/>
+      <x:c r="BJ220" s="1" t="s"/>
+      <x:c r="BK220" s="1" t="s"/>
       <x:c r="BL220" s="5" t="s"/>
       <x:c r="BM220" s="5" t="s"/>
       <x:c r="BN220" s="5" t="s"/>
       <x:c r="BO220" s="5" t="s"/>
       <x:c r="BP220" s="5" t="s"/>
       <x:c r="BQ220" s="5" t="s"/>
-    </x:row>
-    <x:row r="221" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR220" s="5" t="s"/>
+      <x:c r="BS220" s="5" t="s"/>
+    </x:row>
+    <x:row r="221" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A221" s="5" t="s"/>
       <x:c r="B221" s="5" t="s"/>
       <x:c r="C221" s="5" t="s"/>
       <x:c r="D221" s="5" t="s"/>
-      <x:c r="E221" s="1" t="s"/>
-      <x:c r="F221" s="1" t="s"/>
+      <x:c r="E221" s="5" t="s"/>
+      <x:c r="F221" s="5" t="s"/>
       <x:c r="G221" s="1" t="s"/>
       <x:c r="H221" s="1" t="s"/>
       <x:c r="I221" s="1" t="s"/>
@@ -15975,22 +16370,24 @@
       <x:c r="BG221" s="1" t="s"/>
       <x:c r="BH221" s="1" t="s"/>
       <x:c r="BI221" s="1" t="s"/>
-      <x:c r="BJ221" s="5" t="s"/>
-      <x:c r="BK221" s="5" t="s"/>
+      <x:c r="BJ221" s="1" t="s"/>
+      <x:c r="BK221" s="1" t="s"/>
       <x:c r="BL221" s="5" t="s"/>
       <x:c r="BM221" s="5" t="s"/>
       <x:c r="BN221" s="5" t="s"/>
       <x:c r="BO221" s="5" t="s"/>
       <x:c r="BP221" s="5" t="s"/>
       <x:c r="BQ221" s="5" t="s"/>
-    </x:row>
-    <x:row r="222" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR221" s="5" t="s"/>
+      <x:c r="BS221" s="5" t="s"/>
+    </x:row>
+    <x:row r="222" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A222" s="5" t="s"/>
       <x:c r="B222" s="5" t="s"/>
       <x:c r="C222" s="5" t="s"/>
       <x:c r="D222" s="5" t="s"/>
-      <x:c r="E222" s="1" t="s"/>
-      <x:c r="F222" s="1" t="s"/>
+      <x:c r="E222" s="5" t="s"/>
+      <x:c r="F222" s="5" t="s"/>
       <x:c r="G222" s="1" t="s"/>
       <x:c r="H222" s="1" t="s"/>
       <x:c r="I222" s="1" t="s"/>
@@ -16046,22 +16443,24 @@
       <x:c r="BG222" s="1" t="s"/>
       <x:c r="BH222" s="1" t="s"/>
       <x:c r="BI222" s="1" t="s"/>
-      <x:c r="BJ222" s="5" t="s"/>
-      <x:c r="BK222" s="5" t="s"/>
+      <x:c r="BJ222" s="1" t="s"/>
+      <x:c r="BK222" s="1" t="s"/>
       <x:c r="BL222" s="5" t="s"/>
       <x:c r="BM222" s="5" t="s"/>
       <x:c r="BN222" s="5" t="s"/>
       <x:c r="BO222" s="5" t="s"/>
       <x:c r="BP222" s="5" t="s"/>
       <x:c r="BQ222" s="5" t="s"/>
-    </x:row>
-    <x:row r="223" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR222" s="5" t="s"/>
+      <x:c r="BS222" s="5" t="s"/>
+    </x:row>
+    <x:row r="223" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A223" s="5" t="s"/>
       <x:c r="B223" s="5" t="s"/>
       <x:c r="C223" s="5" t="s"/>
       <x:c r="D223" s="5" t="s"/>
-      <x:c r="E223" s="1" t="s"/>
-      <x:c r="F223" s="1" t="s"/>
+      <x:c r="E223" s="5" t="s"/>
+      <x:c r="F223" s="5" t="s"/>
       <x:c r="G223" s="1" t="s"/>
       <x:c r="H223" s="1" t="s"/>
       <x:c r="I223" s="1" t="s"/>
@@ -16117,22 +16516,24 @@
       <x:c r="BG223" s="1" t="s"/>
       <x:c r="BH223" s="1" t="s"/>
       <x:c r="BI223" s="1" t="s"/>
-      <x:c r="BJ223" s="5" t="s"/>
-      <x:c r="BK223" s="5" t="s"/>
+      <x:c r="BJ223" s="1" t="s"/>
+      <x:c r="BK223" s="1" t="s"/>
       <x:c r="BL223" s="5" t="s"/>
       <x:c r="BM223" s="5" t="s"/>
       <x:c r="BN223" s="5" t="s"/>
       <x:c r="BO223" s="5" t="s"/>
       <x:c r="BP223" s="5" t="s"/>
       <x:c r="BQ223" s="5" t="s"/>
-    </x:row>
-    <x:row r="224" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR223" s="5" t="s"/>
+      <x:c r="BS223" s="5" t="s"/>
+    </x:row>
+    <x:row r="224" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A224" s="5" t="s"/>
       <x:c r="B224" s="5" t="s"/>
       <x:c r="C224" s="5" t="s"/>
       <x:c r="D224" s="5" t="s"/>
-      <x:c r="E224" s="1" t="s"/>
-      <x:c r="F224" s="1" t="s"/>
+      <x:c r="E224" s="5" t="s"/>
+      <x:c r="F224" s="5" t="s"/>
       <x:c r="G224" s="1" t="s"/>
       <x:c r="H224" s="1" t="s"/>
       <x:c r="I224" s="1" t="s"/>
@@ -16188,22 +16589,24 @@
       <x:c r="BG224" s="1" t="s"/>
       <x:c r="BH224" s="1" t="s"/>
       <x:c r="BI224" s="1" t="s"/>
-      <x:c r="BJ224" s="5" t="s"/>
-      <x:c r="BK224" s="5" t="s"/>
+      <x:c r="BJ224" s="1" t="s"/>
+      <x:c r="BK224" s="1" t="s"/>
       <x:c r="BL224" s="5" t="s"/>
       <x:c r="BM224" s="5" t="s"/>
       <x:c r="BN224" s="5" t="s"/>
       <x:c r="BO224" s="5" t="s"/>
       <x:c r="BP224" s="5" t="s"/>
       <x:c r="BQ224" s="5" t="s"/>
-    </x:row>
-    <x:row r="225" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR224" s="5" t="s"/>
+      <x:c r="BS224" s="5" t="s"/>
+    </x:row>
+    <x:row r="225" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A225" s="5" t="s"/>
       <x:c r="B225" s="5" t="s"/>
       <x:c r="C225" s="5" t="s"/>
       <x:c r="D225" s="5" t="s"/>
-      <x:c r="E225" s="1" t="s"/>
-      <x:c r="F225" s="1" t="s"/>
+      <x:c r="E225" s="5" t="s"/>
+      <x:c r="F225" s="5" t="s"/>
       <x:c r="G225" s="1" t="s"/>
       <x:c r="H225" s="1" t="s"/>
       <x:c r="I225" s="1" t="s"/>
@@ -16259,22 +16662,24 @@
       <x:c r="BG225" s="1" t="s"/>
       <x:c r="BH225" s="1" t="s"/>
       <x:c r="BI225" s="1" t="s"/>
-      <x:c r="BJ225" s="5" t="s"/>
-      <x:c r="BK225" s="5" t="s"/>
+      <x:c r="BJ225" s="1" t="s"/>
+      <x:c r="BK225" s="1" t="s"/>
       <x:c r="BL225" s="5" t="s"/>
       <x:c r="BM225" s="5" t="s"/>
       <x:c r="BN225" s="5" t="s"/>
       <x:c r="BO225" s="5" t="s"/>
       <x:c r="BP225" s="5" t="s"/>
       <x:c r="BQ225" s="5" t="s"/>
-    </x:row>
-    <x:row r="226" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR225" s="5" t="s"/>
+      <x:c r="BS225" s="5" t="s"/>
+    </x:row>
+    <x:row r="226" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A226" s="5" t="s"/>
       <x:c r="B226" s="5" t="s"/>
       <x:c r="C226" s="5" t="s"/>
       <x:c r="D226" s="5" t="s"/>
-      <x:c r="E226" s="1" t="s"/>
-      <x:c r="F226" s="1" t="s"/>
+      <x:c r="E226" s="5" t="s"/>
+      <x:c r="F226" s="5" t="s"/>
       <x:c r="G226" s="1" t="s"/>
       <x:c r="H226" s="1" t="s"/>
       <x:c r="I226" s="1" t="s"/>
@@ -16330,22 +16735,24 @@
       <x:c r="BG226" s="1" t="s"/>
       <x:c r="BH226" s="1" t="s"/>
       <x:c r="BI226" s="1" t="s"/>
-      <x:c r="BJ226" s="5" t="s"/>
-      <x:c r="BK226" s="5" t="s"/>
+      <x:c r="BJ226" s="1" t="s"/>
+      <x:c r="BK226" s="1" t="s"/>
       <x:c r="BL226" s="5" t="s"/>
       <x:c r="BM226" s="5" t="s"/>
       <x:c r="BN226" s="5" t="s"/>
       <x:c r="BO226" s="5" t="s"/>
       <x:c r="BP226" s="5" t="s"/>
       <x:c r="BQ226" s="5" t="s"/>
-    </x:row>
-    <x:row r="227" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR226" s="5" t="s"/>
+      <x:c r="BS226" s="5" t="s"/>
+    </x:row>
+    <x:row r="227" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A227" s="5" t="s"/>
       <x:c r="B227" s="5" t="s"/>
       <x:c r="C227" s="5" t="s"/>
       <x:c r="D227" s="5" t="s"/>
-      <x:c r="E227" s="1" t="s"/>
-      <x:c r="F227" s="1" t="s"/>
+      <x:c r="E227" s="5" t="s"/>
+      <x:c r="F227" s="5" t="s"/>
       <x:c r="G227" s="1" t="s"/>
       <x:c r="H227" s="1" t="s"/>
       <x:c r="I227" s="1" t="s"/>
@@ -16401,22 +16808,24 @@
       <x:c r="BG227" s="1" t="s"/>
       <x:c r="BH227" s="1" t="s"/>
       <x:c r="BI227" s="1" t="s"/>
-      <x:c r="BJ227" s="5" t="s"/>
-      <x:c r="BK227" s="5" t="s"/>
+      <x:c r="BJ227" s="1" t="s"/>
+      <x:c r="BK227" s="1" t="s"/>
       <x:c r="BL227" s="5" t="s"/>
       <x:c r="BM227" s="5" t="s"/>
       <x:c r="BN227" s="5" t="s"/>
       <x:c r="BO227" s="5" t="s"/>
       <x:c r="BP227" s="5" t="s"/>
       <x:c r="BQ227" s="5" t="s"/>
-    </x:row>
-    <x:row r="228" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR227" s="5" t="s"/>
+      <x:c r="BS227" s="5" t="s"/>
+    </x:row>
+    <x:row r="228" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A228" s="5" t="s"/>
       <x:c r="B228" s="5" t="s"/>
       <x:c r="C228" s="5" t="s"/>
       <x:c r="D228" s="5" t="s"/>
-      <x:c r="E228" s="1" t="s"/>
-      <x:c r="F228" s="1" t="s"/>
+      <x:c r="E228" s="5" t="s"/>
+      <x:c r="F228" s="5" t="s"/>
       <x:c r="G228" s="1" t="s"/>
       <x:c r="H228" s="1" t="s"/>
       <x:c r="I228" s="1" t="s"/>
@@ -16472,22 +16881,24 @@
       <x:c r="BG228" s="1" t="s"/>
       <x:c r="BH228" s="1" t="s"/>
       <x:c r="BI228" s="1" t="s"/>
-      <x:c r="BJ228" s="5" t="s"/>
-      <x:c r="BK228" s="5" t="s"/>
+      <x:c r="BJ228" s="1" t="s"/>
+      <x:c r="BK228" s="1" t="s"/>
       <x:c r="BL228" s="5" t="s"/>
       <x:c r="BM228" s="5" t="s"/>
       <x:c r="BN228" s="5" t="s"/>
       <x:c r="BO228" s="5" t="s"/>
       <x:c r="BP228" s="5" t="s"/>
       <x:c r="BQ228" s="5" t="s"/>
-    </x:row>
-    <x:row r="229" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR228" s="5" t="s"/>
+      <x:c r="BS228" s="5" t="s"/>
+    </x:row>
+    <x:row r="229" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A229" s="5" t="s"/>
       <x:c r="B229" s="5" t="s"/>
       <x:c r="C229" s="5" t="s"/>
       <x:c r="D229" s="5" t="s"/>
-      <x:c r="E229" s="1" t="s"/>
-      <x:c r="F229" s="1" t="s"/>
+      <x:c r="E229" s="5" t="s"/>
+      <x:c r="F229" s="5" t="s"/>
       <x:c r="G229" s="1" t="s"/>
       <x:c r="H229" s="1" t="s"/>
       <x:c r="I229" s="1" t="s"/>
@@ -16543,22 +16954,24 @@
       <x:c r="BG229" s="1" t="s"/>
       <x:c r="BH229" s="1" t="s"/>
       <x:c r="BI229" s="1" t="s"/>
-      <x:c r="BJ229" s="5" t="s"/>
-      <x:c r="BK229" s="5" t="s"/>
+      <x:c r="BJ229" s="1" t="s"/>
+      <x:c r="BK229" s="1" t="s"/>
       <x:c r="BL229" s="5" t="s"/>
       <x:c r="BM229" s="5" t="s"/>
       <x:c r="BN229" s="5" t="s"/>
       <x:c r="BO229" s="5" t="s"/>
       <x:c r="BP229" s="5" t="s"/>
       <x:c r="BQ229" s="5" t="s"/>
-    </x:row>
-    <x:row r="230" spans="1:69" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="BR229" s="5" t="s"/>
+      <x:c r="BS229" s="5" t="s"/>
+    </x:row>
+    <x:row r="230" spans="1:71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A230" s="5" t="s"/>
       <x:c r="B230" s="5" t="s"/>
       <x:c r="C230" s="5" t="s"/>
       <x:c r="D230" s="5" t="s"/>
-      <x:c r="E230" s="1" t="s"/>
-      <x:c r="F230" s="1" t="s"/>
+      <x:c r="E230" s="5" t="s"/>
+      <x:c r="F230" s="5" t="s"/>
       <x:c r="G230" s="1" t="s"/>
       <x:c r="H230" s="1" t="s"/>
       <x:c r="I230" s="1" t="s"/>
@@ -16614,18 +17027,18 @@
       <x:c r="BG230" s="1" t="s"/>
       <x:c r="BH230" s="1" t="s"/>
       <x:c r="BI230" s="1" t="s"/>
-      <x:c r="BJ230" s="5" t="s"/>
-      <x:c r="BK230" s="5" t="s"/>
+      <x:c r="BJ230" s="1" t="s"/>
+      <x:c r="BK230" s="1" t="s"/>
       <x:c r="BL230" s="5" t="s"/>
       <x:c r="BM230" s="5" t="s"/>
       <x:c r="BN230" s="5" t="s"/>
       <x:c r="BO230" s="5" t="s"/>
       <x:c r="BP230" s="5" t="s"/>
       <x:c r="BQ230" s="5" t="s"/>
-    </x:row>
-    <x:row r="231" spans="1:69" x14ac:dyDescent="0.3">
-      <x:c r="E231" s="4" t="s"/>
-      <x:c r="F231" s="4" t="s"/>
+      <x:c r="BR230" s="5" t="s"/>
+      <x:c r="BS230" s="5" t="s"/>
+    </x:row>
+    <x:row r="231" spans="1:71" x14ac:dyDescent="0.3">
       <x:c r="G231" s="4" t="s"/>
       <x:c r="H231" s="4" t="s"/>
       <x:c r="I231" s="4" t="s"/>
@@ -16681,10 +17094,10 @@
       <x:c r="BG231" s="4" t="s"/>
       <x:c r="BH231" s="4" t="s"/>
       <x:c r="BI231" s="4" t="s"/>
-    </x:row>
-    <x:row r="232" spans="1:69" x14ac:dyDescent="0.3">
-      <x:c r="E232" s="4" t="s"/>
-      <x:c r="F232" s="4" t="s"/>
+      <x:c r="BJ231" s="4" t="s"/>
+      <x:c r="BK231" s="4" t="s"/>
+    </x:row>
+    <x:row r="232" spans="1:71" x14ac:dyDescent="0.3">
       <x:c r="G232" s="4" t="s"/>
       <x:c r="H232" s="4" t="s"/>
       <x:c r="I232" s="4" t="s"/>
@@ -16740,10 +17153,10 @@
       <x:c r="BG232" s="4" t="s"/>
       <x:c r="BH232" s="4" t="s"/>
       <x:c r="BI232" s="4" t="s"/>
-    </x:row>
-    <x:row r="233" spans="1:69" x14ac:dyDescent="0.3">
-      <x:c r="E233" s="4" t="s"/>
-      <x:c r="F233" s="4" t="s"/>
+      <x:c r="BJ232" s="4" t="s"/>
+      <x:c r="BK232" s="4" t="s"/>
+    </x:row>
+    <x:row r="233" spans="1:71" x14ac:dyDescent="0.3">
       <x:c r="G233" s="4" t="s"/>
       <x:c r="H233" s="4" t="s"/>
       <x:c r="I233" s="4" t="s"/>
@@ -16799,10 +17212,10 @@
       <x:c r="BG233" s="4" t="s"/>
       <x:c r="BH233" s="4" t="s"/>
       <x:c r="BI233" s="4" t="s"/>
-    </x:row>
-    <x:row r="234" spans="1:69" x14ac:dyDescent="0.3">
-      <x:c r="E234" s="4" t="s"/>
-      <x:c r="F234" s="4" t="s"/>
+      <x:c r="BJ233" s="4" t="s"/>
+      <x:c r="BK233" s="4" t="s"/>
+    </x:row>
+    <x:row r="234" spans="1:71" x14ac:dyDescent="0.3">
       <x:c r="G234" s="4" t="s"/>
       <x:c r="H234" s="4" t="s"/>
       <x:c r="I234" s="4" t="s"/>
@@ -16858,6 +17271,8 @@
       <x:c r="BG234" s="4" t="s"/>
       <x:c r="BH234" s="4" t="s"/>
       <x:c r="BI234" s="4" t="s"/>
+      <x:c r="BJ234" s="4" t="s"/>
+      <x:c r="BK234" s="4" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
